--- a/VICKY FIELD.xlsx
+++ b/VICKY FIELD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SHUBHAM DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SHUBHAM-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="VICKY EXP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="569">
   <si>
     <t>06.04.23 &amp; 07.04.23 (DELHI)</t>
   </si>
@@ -1724,6 +1724,9 @@
   </si>
   <si>
     <t>19.06.24</t>
+  </si>
+  <si>
+    <t>.06.24</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2296,6 +2299,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2303,6 +2307,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2314,10 +2321,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2622,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1915"/>
+  <dimension ref="A1:L1926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1903" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1916" sqref="B1916"/>
+    <sheetView tabSelected="1" topLeftCell="A1913" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1925" sqref="C1925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,13 +2646,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2817,13 +2823,13 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
@@ -3014,13 +3020,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
       <c r="G23" s="5" t="s">
         <v>270</v>
       </c>
@@ -3208,13 +3214,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
       <c r="H31" s="36" t="s">
         <v>276</v>
       </c>
@@ -3380,13 +3386,13 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
       <c r="H39" s="36" t="s">
         <v>285</v>
       </c>
@@ -3532,13 +3538,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
       <c r="H46" s="36" t="s">
         <v>292</v>
       </c>
@@ -3705,13 +3711,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3794,13 +3800,13 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="59"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3894,13 +3900,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="59"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -3994,13 +4000,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="57"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -4094,13 +4100,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="57"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="59"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4201,13 +4207,13 @@
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="57"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="59"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -4312,13 +4318,13 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="55" t="s">
+      <c r="A104" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="57"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="59"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -4423,13 +4429,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="55" t="s">
+      <c r="A113" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="57"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -4534,13 +4540,13 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="55" t="s">
+      <c r="A122" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="57"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="59"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -4625,13 +4631,13 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="55" t="s">
+      <c r="A129" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="57"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="59"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -4736,13 +4742,13 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="55" t="s">
+      <c r="A138" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B138" s="56"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="57"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="59"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -4803,13 +4809,13 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="56"/>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="57"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="59"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4954,13 +4960,13 @@
       <c r="E155" s="23"/>
     </row>
     <row r="156" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="55" t="s">
+      <c r="A156" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B156" s="56"/>
-      <c r="C156" s="56"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="57"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="59"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -5041,13 +5047,13 @@
       <c r="E162" s="23"/>
     </row>
     <row r="163" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="55" t="s">
+      <c r="A163" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B163" s="56"/>
-      <c r="C163" s="56"/>
-      <c r="D163" s="56"/>
-      <c r="E163" s="57"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="59"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -5150,13 +5156,13 @@
       <c r="E171" s="23"/>
     </row>
     <row r="172" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="55" t="s">
+      <c r="A172" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B172" s="56"/>
-      <c r="C172" s="56"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="57"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="59"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -5248,13 +5254,13 @@
       <c r="E179" s="23"/>
     </row>
     <row r="180" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="55" t="s">
+      <c r="A180" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B180" s="56"/>
-      <c r="C180" s="56"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="57"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="59"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -5357,13 +5363,13 @@
       <c r="E188" s="23"/>
     </row>
     <row r="189" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="55" t="s">
+      <c r="A189" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B189" s="56"/>
-      <c r="C189" s="56"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="57"/>
+      <c r="B189" s="58"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="59"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -5446,13 +5452,13 @@
       <c r="E195" s="23"/>
     </row>
     <row r="196" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="55" t="s">
+      <c r="A196" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B196" s="56"/>
-      <c r="C196" s="56"/>
-      <c r="D196" s="56"/>
-      <c r="E196" s="57"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="59"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -5553,13 +5559,13 @@
       <c r="E204" s="23"/>
     </row>
     <row r="205" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="55" t="s">
+      <c r="A205" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B205" s="56"/>
-      <c r="C205" s="56"/>
-      <c r="D205" s="56"/>
-      <c r="E205" s="57"/>
+      <c r="B205" s="58"/>
+      <c r="C205" s="58"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="59"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
@@ -5682,13 +5688,13 @@
       <c r="E215" s="23"/>
     </row>
     <row r="216" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="55" t="s">
+      <c r="A216" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B216" s="56"/>
-      <c r="C216" s="56"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="57"/>
+      <c r="B216" s="58"/>
+      <c r="C216" s="58"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="59"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
@@ -5760,13 +5766,13 @@
       <c r="E221" s="23"/>
     </row>
     <row r="222" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="55" t="s">
+      <c r="A222" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B222" s="56"/>
-      <c r="C222" s="56"/>
-      <c r="D222" s="56"/>
-      <c r="E222" s="57"/>
+      <c r="B222" s="58"/>
+      <c r="C222" s="58"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="59"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -5878,13 +5884,13 @@
       <c r="E231" s="23"/>
     </row>
     <row r="232" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="55" t="s">
+      <c r="A232" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B232" s="56"/>
-      <c r="C232" s="56"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="57"/>
+      <c r="B232" s="58"/>
+      <c r="C232" s="58"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="59"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -5941,13 +5947,13 @@
       <c r="E236" s="23"/>
     </row>
     <row r="237" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="55" t="s">
+      <c r="A237" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B237" s="56"/>
-      <c r="C237" s="56"/>
-      <c r="D237" s="56"/>
-      <c r="E237" s="57"/>
+      <c r="B237" s="58"/>
+      <c r="C237" s="58"/>
+      <c r="D237" s="58"/>
+      <c r="E237" s="59"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
@@ -6030,13 +6036,13 @@
       <c r="E243" s="23"/>
     </row>
     <row r="244" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="55" t="s">
+      <c r="A244" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B244" s="56"/>
-      <c r="C244" s="56"/>
-      <c r="D244" s="56"/>
-      <c r="E244" s="57"/>
+      <c r="B244" s="58"/>
+      <c r="C244" s="58"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="59"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -6148,13 +6154,13 @@
       <c r="E253" s="23"/>
     </row>
     <row r="254" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="55" t="s">
+      <c r="A254" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B254" s="56"/>
-      <c r="C254" s="56"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="57"/>
+      <c r="B254" s="58"/>
+      <c r="C254" s="58"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="59"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
@@ -6266,13 +6272,13 @@
       <c r="E263" s="23"/>
     </row>
     <row r="264" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="55" t="s">
+      <c r="A264" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B264" s="56"/>
-      <c r="C264" s="56"/>
-      <c r="D264" s="56"/>
-      <c r="E264" s="57"/>
+      <c r="B264" s="58"/>
+      <c r="C264" s="58"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="59"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
@@ -6373,13 +6379,13 @@
       <c r="E272" s="23"/>
     </row>
     <row r="273" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="55" t="s">
+      <c r="A273" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B273" s="56"/>
-      <c r="C273" s="56"/>
-      <c r="D273" s="56"/>
-      <c r="E273" s="57"/>
+      <c r="B273" s="58"/>
+      <c r="C273" s="58"/>
+      <c r="D273" s="58"/>
+      <c r="E273" s="59"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
@@ -6502,13 +6508,13 @@
       <c r="E283" s="23"/>
     </row>
     <row r="284" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="55" t="s">
+      <c r="A284" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B284" s="56"/>
-      <c r="C284" s="56"/>
-      <c r="D284" s="56"/>
-      <c r="E284" s="57"/>
+      <c r="B284" s="58"/>
+      <c r="C284" s="58"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="59"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
@@ -6594,13 +6600,13 @@
       <c r="E291" s="23"/>
     </row>
     <row r="292" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="55" t="s">
+      <c r="A292" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B292" s="56"/>
-      <c r="C292" s="56"/>
-      <c r="D292" s="56"/>
-      <c r="E292" s="57"/>
+      <c r="B292" s="58"/>
+      <c r="C292" s="58"/>
+      <c r="D292" s="58"/>
+      <c r="E292" s="59"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
@@ -6712,13 +6718,13 @@
       <c r="E301" s="23"/>
     </row>
     <row r="302" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="55" t="s">
+      <c r="A302" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B302" s="56"/>
-      <c r="C302" s="56"/>
-      <c r="D302" s="56"/>
-      <c r="E302" s="57"/>
+      <c r="B302" s="58"/>
+      <c r="C302" s="58"/>
+      <c r="D302" s="58"/>
+      <c r="E302" s="59"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
@@ -6797,13 +6803,13 @@
       <c r="E308" s="23"/>
     </row>
     <row r="309" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="55" t="s">
+      <c r="A309" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B309" s="56"/>
-      <c r="C309" s="56"/>
-      <c r="D309" s="56"/>
-      <c r="E309" s="57"/>
+      <c r="B309" s="58"/>
+      <c r="C309" s="58"/>
+      <c r="D309" s="58"/>
+      <c r="E309" s="59"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
@@ -6860,13 +6866,13 @@
       <c r="E313" s="23"/>
     </row>
     <row r="314" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="52" t="s">
+      <c r="A314" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B314" s="56"/>
-      <c r="C314" s="56"/>
-      <c r="D314" s="56"/>
-      <c r="E314" s="57"/>
+      <c r="B314" s="58"/>
+      <c r="C314" s="58"/>
+      <c r="D314" s="58"/>
+      <c r="E314" s="59"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
@@ -6954,13 +6960,13 @@
       <c r="E321" s="23"/>
     </row>
     <row r="322" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="55" t="s">
+      <c r="A322" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B322" s="56"/>
-      <c r="C322" s="56"/>
-      <c r="D322" s="56"/>
-      <c r="E322" s="57"/>
+      <c r="B322" s="58"/>
+      <c r="C322" s="58"/>
+      <c r="D322" s="58"/>
+      <c r="E322" s="59"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
@@ -7043,13 +7049,13 @@
       <c r="E328" s="23"/>
     </row>
     <row r="329" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="55" t="s">
+      <c r="A329" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B329" s="56"/>
-      <c r="C329" s="56"/>
-      <c r="D329" s="56"/>
-      <c r="E329" s="57"/>
+      <c r="B329" s="58"/>
+      <c r="C329" s="58"/>
+      <c r="D329" s="58"/>
+      <c r="E329" s="59"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
@@ -7192,13 +7198,13 @@
       <c r="E341" s="23"/>
     </row>
     <row r="342" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="55" t="s">
+      <c r="A342" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B342" s="56"/>
-      <c r="C342" s="56"/>
-      <c r="D342" s="56"/>
-      <c r="E342" s="57"/>
+      <c r="B342" s="58"/>
+      <c r="C342" s="58"/>
+      <c r="D342" s="58"/>
+      <c r="E342" s="59"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -7299,13 +7305,13 @@
       <c r="E350" s="23"/>
     </row>
     <row r="351" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="55" t="s">
+      <c r="A351" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B351" s="56"/>
-      <c r="C351" s="56"/>
-      <c r="D351" s="56"/>
-      <c r="E351" s="57"/>
+      <c r="B351" s="58"/>
+      <c r="C351" s="58"/>
+      <c r="D351" s="58"/>
+      <c r="E351" s="59"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
@@ -7406,13 +7412,13 @@
       <c r="E359" s="23"/>
     </row>
     <row r="360" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="55" t="s">
+      <c r="A360" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B360" s="56"/>
-      <c r="C360" s="56"/>
-      <c r="D360" s="56"/>
-      <c r="E360" s="57"/>
+      <c r="B360" s="58"/>
+      <c r="C360" s="58"/>
+      <c r="D360" s="58"/>
+      <c r="E360" s="59"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
@@ -7502,13 +7508,13 @@
       <c r="E367" s="23"/>
     </row>
     <row r="368" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="55" t="s">
+      <c r="A368" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B368" s="56"/>
-      <c r="C368" s="56"/>
-      <c r="D368" s="56"/>
-      <c r="E368" s="57"/>
+      <c r="B368" s="58"/>
+      <c r="C368" s="58"/>
+      <c r="D368" s="58"/>
+      <c r="E368" s="59"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
@@ -7609,13 +7615,13 @@
       <c r="E376" s="23"/>
     </row>
     <row r="377" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="55" t="s">
+      <c r="A377" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B377" s="56"/>
-      <c r="C377" s="56"/>
-      <c r="D377" s="56"/>
-      <c r="E377" s="57"/>
+      <c r="B377" s="58"/>
+      <c r="C377" s="58"/>
+      <c r="D377" s="58"/>
+      <c r="E377" s="59"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -7716,13 +7722,13 @@
       <c r="E385" s="23"/>
     </row>
     <row r="386" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="55" t="s">
+      <c r="A386" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B386" s="56"/>
-      <c r="C386" s="56"/>
-      <c r="D386" s="56"/>
-      <c r="E386" s="57"/>
+      <c r="B386" s="58"/>
+      <c r="C386" s="58"/>
+      <c r="D386" s="58"/>
+      <c r="E386" s="59"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
@@ -7834,13 +7840,13 @@
       <c r="E395" s="14"/>
     </row>
     <row r="396" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="55" t="s">
+      <c r="A396" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B396" s="56"/>
-      <c r="C396" s="56"/>
-      <c r="D396" s="56"/>
-      <c r="E396" s="57"/>
+      <c r="B396" s="58"/>
+      <c r="C396" s="58"/>
+      <c r="D396" s="58"/>
+      <c r="E396" s="59"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
@@ -7919,13 +7925,13 @@
       <c r="E402" s="14"/>
     </row>
     <row r="403" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="55" t="s">
+      <c r="A403" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B403" s="56"/>
-      <c r="C403" s="56"/>
-      <c r="D403" s="56"/>
-      <c r="E403" s="57"/>
+      <c r="B403" s="58"/>
+      <c r="C403" s="58"/>
+      <c r="D403" s="58"/>
+      <c r="E403" s="59"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
@@ -8048,13 +8054,13 @@
       <c r="E413" s="14"/>
     </row>
     <row r="414" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="55" t="s">
+      <c r="A414" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B414" s="56"/>
-      <c r="C414" s="56"/>
-      <c r="D414" s="56"/>
-      <c r="E414" s="57"/>
+      <c r="B414" s="58"/>
+      <c r="C414" s="58"/>
+      <c r="D414" s="58"/>
+      <c r="E414" s="59"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
@@ -8166,13 +8172,13 @@
       <c r="E423" s="14"/>
     </row>
     <row r="424" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="55" t="s">
+      <c r="A424" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="B424" s="56"/>
-      <c r="C424" s="56"/>
-      <c r="D424" s="56"/>
-      <c r="E424" s="57"/>
+      <c r="B424" s="58"/>
+      <c r="C424" s="58"/>
+      <c r="D424" s="58"/>
+      <c r="E424" s="59"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
@@ -8284,13 +8290,13 @@
       <c r="E433" s="14"/>
     </row>
     <row r="434" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A434" s="55" t="s">
+      <c r="A434" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B434" s="56"/>
-      <c r="C434" s="56"/>
-      <c r="D434" s="56"/>
-      <c r="E434" s="57"/>
+      <c r="B434" s="58"/>
+      <c r="C434" s="58"/>
+      <c r="D434" s="58"/>
+      <c r="E434" s="59"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
@@ -8382,13 +8388,13 @@
       <c r="E441" s="14"/>
     </row>
     <row r="442" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="55" t="s">
+      <c r="A442" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B442" s="56"/>
-      <c r="C442" s="56"/>
-      <c r="D442" s="56"/>
-      <c r="E442" s="57"/>
+      <c r="B442" s="58"/>
+      <c r="C442" s="58"/>
+      <c r="D442" s="58"/>
+      <c r="E442" s="59"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
@@ -8478,13 +8484,13 @@
       <c r="E449" s="14"/>
     </row>
     <row r="450" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="55" t="s">
+      <c r="A450" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="B450" s="56"/>
-      <c r="C450" s="56"/>
-      <c r="D450" s="56"/>
-      <c r="E450" s="57"/>
+      <c r="B450" s="58"/>
+      <c r="C450" s="58"/>
+      <c r="D450" s="58"/>
+      <c r="E450" s="59"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
@@ -8574,13 +8580,13 @@
       <c r="E457" s="14"/>
     </row>
     <row r="458" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A458" s="55" t="s">
+      <c r="A458" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="B458" s="56"/>
-      <c r="C458" s="56"/>
-      <c r="D458" s="56"/>
-      <c r="E458" s="57"/>
+      <c r="B458" s="58"/>
+      <c r="C458" s="58"/>
+      <c r="D458" s="58"/>
+      <c r="E458" s="59"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
@@ -8681,13 +8687,13 @@
       <c r="E466" s="14"/>
     </row>
     <row r="467" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A467" s="55" t="s">
+      <c r="A467" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="B467" s="56"/>
-      <c r="C467" s="56"/>
-      <c r="D467" s="56"/>
-      <c r="E467" s="57"/>
+      <c r="B467" s="58"/>
+      <c r="C467" s="58"/>
+      <c r="D467" s="58"/>
+      <c r="E467" s="59"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
@@ -8777,13 +8783,13 @@
       <c r="E474" s="14"/>
     </row>
     <row r="475" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="55" t="s">
+      <c r="A475" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B475" s="56"/>
-      <c r="C475" s="56"/>
-      <c r="D475" s="56"/>
-      <c r="E475" s="57"/>
+      <c r="B475" s="58"/>
+      <c r="C475" s="58"/>
+      <c r="D475" s="58"/>
+      <c r="E475" s="59"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
@@ -8875,13 +8881,13 @@
       <c r="E482" s="14"/>
     </row>
     <row r="483" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A483" s="55" t="s">
+      <c r="A483" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B483" s="56"/>
-      <c r="C483" s="56"/>
-      <c r="D483" s="56"/>
-      <c r="E483" s="57"/>
+      <c r="B483" s="58"/>
+      <c r="C483" s="58"/>
+      <c r="D483" s="58"/>
+      <c r="E483" s="59"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
@@ -8971,13 +8977,13 @@
       <c r="E490" s="14"/>
     </row>
     <row r="491" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A491" s="55" t="s">
+      <c r="A491" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="B491" s="56"/>
-      <c r="C491" s="56"/>
-      <c r="D491" s="56"/>
-      <c r="E491" s="57"/>
+      <c r="B491" s="58"/>
+      <c r="C491" s="58"/>
+      <c r="D491" s="58"/>
+      <c r="E491" s="59"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
@@ -9067,13 +9073,13 @@
       <c r="E498" s="14"/>
     </row>
     <row r="499" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="55" t="s">
+      <c r="A499" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="B499" s="56"/>
-      <c r="C499" s="56"/>
-      <c r="D499" s="56"/>
-      <c r="E499" s="57"/>
+      <c r="B499" s="58"/>
+      <c r="C499" s="58"/>
+      <c r="D499" s="58"/>
+      <c r="E499" s="59"/>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
@@ -9163,13 +9169,13 @@
       <c r="E506" s="14"/>
     </row>
     <row r="507" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="55" t="s">
+      <c r="A507" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B507" s="56"/>
-      <c r="C507" s="56"/>
-      <c r="D507" s="56"/>
-      <c r="E507" s="57"/>
+      <c r="B507" s="58"/>
+      <c r="C507" s="58"/>
+      <c r="D507" s="58"/>
+      <c r="E507" s="59"/>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
@@ -9259,13 +9265,13 @@
       <c r="E514" s="14"/>
     </row>
     <row r="515" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A515" s="55" t="s">
+      <c r="A515" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B515" s="56"/>
-      <c r="C515" s="56"/>
-      <c r="D515" s="56"/>
-      <c r="E515" s="57"/>
+      <c r="B515" s="58"/>
+      <c r="C515" s="58"/>
+      <c r="D515" s="58"/>
+      <c r="E515" s="59"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
@@ -9388,13 +9394,13 @@
       <c r="E525" s="29"/>
     </row>
     <row r="526" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A526" s="55" t="s">
+      <c r="A526" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="B526" s="56"/>
-      <c r="C526" s="56"/>
-      <c r="D526" s="56"/>
-      <c r="E526" s="57"/>
+      <c r="B526" s="58"/>
+      <c r="C526" s="58"/>
+      <c r="D526" s="58"/>
+      <c r="E526" s="59"/>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
@@ -9479,13 +9485,13 @@
       <c r="E532" s="29"/>
     </row>
     <row r="533" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="55" t="s">
+      <c r="A533" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="B533" s="56"/>
-      <c r="C533" s="56"/>
-      <c r="D533" s="56"/>
-      <c r="E533" s="57"/>
+      <c r="B533" s="58"/>
+      <c r="C533" s="58"/>
+      <c r="D533" s="58"/>
+      <c r="E533" s="59"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
@@ -9575,13 +9581,13 @@
       <c r="E540" s="29"/>
     </row>
     <row r="541" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="55" t="s">
+      <c r="A541" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B541" s="56"/>
-      <c r="C541" s="56"/>
-      <c r="D541" s="56"/>
-      <c r="E541" s="57"/>
+      <c r="B541" s="58"/>
+      <c r="C541" s="58"/>
+      <c r="D541" s="58"/>
+      <c r="E541" s="59"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
@@ -9671,13 +9677,13 @@
       <c r="E548" s="29"/>
     </row>
     <row r="549" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A549" s="55" t="s">
+      <c r="A549" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B549" s="56"/>
-      <c r="C549" s="56"/>
-      <c r="D549" s="56"/>
-      <c r="E549" s="57"/>
+      <c r="B549" s="58"/>
+      <c r="C549" s="58"/>
+      <c r="D549" s="58"/>
+      <c r="E549" s="59"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
@@ -9767,13 +9773,13 @@
       <c r="E556" s="29"/>
     </row>
     <row r="557" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A557" s="55" t="s">
+      <c r="A557" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="B557" s="56"/>
-      <c r="C557" s="56"/>
-      <c r="D557" s="56"/>
-      <c r="E557" s="57"/>
+      <c r="B557" s="58"/>
+      <c r="C557" s="58"/>
+      <c r="D557" s="58"/>
+      <c r="E557" s="59"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
@@ -9863,13 +9869,13 @@
       <c r="E564" s="29"/>
     </row>
     <row r="565" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A565" s="55" t="s">
+      <c r="A565" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="B565" s="56"/>
-      <c r="C565" s="56"/>
-      <c r="D565" s="56"/>
-      <c r="E565" s="57"/>
+      <c r="B565" s="58"/>
+      <c r="C565" s="58"/>
+      <c r="D565" s="58"/>
+      <c r="E565" s="59"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
@@ -9959,13 +9965,13 @@
       <c r="E572" s="29"/>
     </row>
     <row r="573" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A573" s="55" t="s">
+      <c r="A573" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B573" s="56"/>
-      <c r="C573" s="56"/>
-      <c r="D573" s="56"/>
-      <c r="E573" s="57"/>
+      <c r="B573" s="58"/>
+      <c r="C573" s="58"/>
+      <c r="D573" s="58"/>
+      <c r="E573" s="59"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
@@ -10055,13 +10061,13 @@
       <c r="E580" s="29"/>
     </row>
     <row r="581" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A581" s="55" t="s">
+      <c r="A581" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B581" s="56"/>
-      <c r="C581" s="56"/>
-      <c r="D581" s="56"/>
-      <c r="E581" s="57"/>
+      <c r="B581" s="58"/>
+      <c r="C581" s="58"/>
+      <c r="D581" s="58"/>
+      <c r="E581" s="59"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
@@ -10151,13 +10157,13 @@
       <c r="E588" s="29"/>
     </row>
     <row r="589" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A589" s="55" t="s">
+      <c r="A589" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="B589" s="56"/>
-      <c r="C589" s="56"/>
-      <c r="D589" s="56"/>
-      <c r="E589" s="57"/>
+      <c r="B589" s="58"/>
+      <c r="C589" s="58"/>
+      <c r="D589" s="58"/>
+      <c r="E589" s="59"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
@@ -10258,13 +10264,13 @@
       <c r="E597" s="29"/>
     </row>
     <row r="598" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A598" s="55" t="s">
+      <c r="A598" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="B598" s="56"/>
-      <c r="C598" s="56"/>
-      <c r="D598" s="56"/>
-      <c r="E598" s="57"/>
+      <c r="B598" s="58"/>
+      <c r="C598" s="58"/>
+      <c r="D598" s="58"/>
+      <c r="E598" s="59"/>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
@@ -10349,13 +10355,13 @@
       <c r="E604" s="29"/>
     </row>
     <row r="605" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A605" s="55" t="s">
+      <c r="A605" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="B605" s="56"/>
-      <c r="C605" s="56"/>
-      <c r="D605" s="56"/>
-      <c r="E605" s="57"/>
+      <c r="B605" s="58"/>
+      <c r="C605" s="58"/>
+      <c r="D605" s="58"/>
+      <c r="E605" s="59"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
@@ -10478,13 +10484,13 @@
       <c r="E615" s="29"/>
     </row>
     <row r="616" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A616" s="55" t="s">
+      <c r="A616" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="B616" s="56"/>
-      <c r="C616" s="56"/>
-      <c r="D616" s="56"/>
-      <c r="E616" s="57"/>
+      <c r="B616" s="58"/>
+      <c r="C616" s="58"/>
+      <c r="D616" s="58"/>
+      <c r="E616" s="59"/>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
@@ -10574,13 +10580,13 @@
       <c r="E623" s="29"/>
     </row>
     <row r="624" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A624" s="55" t="s">
+      <c r="A624" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="B624" s="56"/>
-      <c r="C624" s="56"/>
-      <c r="D624" s="56"/>
-      <c r="E624" s="57"/>
+      <c r="B624" s="58"/>
+      <c r="C624" s="58"/>
+      <c r="D624" s="58"/>
+      <c r="E624" s="59"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
@@ -10681,13 +10687,13 @@
       <c r="E632" s="29"/>
     </row>
     <row r="633" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A633" s="55" t="s">
+      <c r="A633" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="B633" s="56"/>
-      <c r="C633" s="56"/>
-      <c r="D633" s="56"/>
-      <c r="E633" s="57"/>
+      <c r="B633" s="58"/>
+      <c r="C633" s="58"/>
+      <c r="D633" s="58"/>
+      <c r="E633" s="59"/>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
@@ -10788,13 +10794,13 @@
       <c r="E641" s="29"/>
     </row>
     <row r="642" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A642" s="55" t="s">
+      <c r="A642" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="B642" s="56"/>
-      <c r="C642" s="56"/>
-      <c r="D642" s="56"/>
-      <c r="E642" s="57"/>
+      <c r="B642" s="58"/>
+      <c r="C642" s="58"/>
+      <c r="D642" s="58"/>
+      <c r="E642" s="59"/>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
@@ -10884,13 +10890,13 @@
       <c r="E649" s="29"/>
     </row>
     <row r="650" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A650" s="55" t="s">
+      <c r="A650" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B650" s="56"/>
-      <c r="C650" s="56"/>
-      <c r="D650" s="56"/>
-      <c r="E650" s="57"/>
+      <c r="B650" s="58"/>
+      <c r="C650" s="58"/>
+      <c r="D650" s="58"/>
+      <c r="E650" s="59"/>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
@@ -10980,13 +10986,13 @@
       <c r="E657" s="29"/>
     </row>
     <row r="658" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A658" s="55" t="s">
+      <c r="A658" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B658" s="56"/>
-      <c r="C658" s="56"/>
-      <c r="D658" s="56"/>
-      <c r="E658" s="57"/>
+      <c r="B658" s="58"/>
+      <c r="C658" s="58"/>
+      <c r="D658" s="58"/>
+      <c r="E658" s="59"/>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
@@ -11164,13 +11170,13 @@
       <c r="E673" s="29"/>
     </row>
     <row r="674" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A674" s="55" t="s">
+      <c r="A674" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="B674" s="56"/>
-      <c r="C674" s="56"/>
-      <c r="D674" s="56"/>
-      <c r="E674" s="57"/>
+      <c r="B674" s="58"/>
+      <c r="C674" s="58"/>
+      <c r="D674" s="58"/>
+      <c r="E674" s="59"/>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
@@ -11240,13 +11246,13 @@
       <c r="E679" s="29"/>
     </row>
     <row r="680" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="55" t="s">
+      <c r="A680" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="B680" s="56"/>
-      <c r="C680" s="56"/>
-      <c r="D680" s="56"/>
-      <c r="E680" s="57"/>
+      <c r="B680" s="58"/>
+      <c r="C680" s="58"/>
+      <c r="D680" s="58"/>
+      <c r="E680" s="59"/>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
@@ -11314,13 +11320,13 @@
       <c r="E685" s="29"/>
     </row>
     <row r="686" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A686" s="55" t="s">
+      <c r="A686" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="B686" s="56"/>
-      <c r="C686" s="56"/>
-      <c r="D686" s="56"/>
-      <c r="E686" s="57"/>
+      <c r="B686" s="58"/>
+      <c r="C686" s="58"/>
+      <c r="D686" s="58"/>
+      <c r="E686" s="59"/>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
@@ -11410,13 +11416,13 @@
       <c r="E693" s="29"/>
     </row>
     <row r="694" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A694" s="55" t="s">
+      <c r="A694" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="B694" s="56"/>
-      <c r="C694" s="56"/>
-      <c r="D694" s="56"/>
-      <c r="E694" s="57"/>
+      <c r="B694" s="58"/>
+      <c r="C694" s="58"/>
+      <c r="D694" s="58"/>
+      <c r="E694" s="59"/>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
@@ -11528,13 +11534,13 @@
       <c r="E703" s="29"/>
     </row>
     <row r="704" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A704" s="55" t="s">
+      <c r="A704" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="B704" s="56"/>
-      <c r="C704" s="56"/>
-      <c r="D704" s="56"/>
-      <c r="E704" s="57"/>
+      <c r="B704" s="58"/>
+      <c r="C704" s="58"/>
+      <c r="D704" s="58"/>
+      <c r="E704" s="59"/>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
@@ -11646,13 +11652,13 @@
       <c r="E713" s="29"/>
     </row>
     <row r="714" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A714" s="55" t="s">
+      <c r="A714" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="B714" s="56"/>
-      <c r="C714" s="56"/>
-      <c r="D714" s="56"/>
-      <c r="E714" s="57"/>
+      <c r="B714" s="58"/>
+      <c r="C714" s="58"/>
+      <c r="D714" s="58"/>
+      <c r="E714" s="59"/>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
@@ -11768,13 +11774,13 @@
       <c r="E723" s="29"/>
     </row>
     <row r="724" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A724" s="55" t="s">
+      <c r="A724" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="B724" s="56"/>
-      <c r="C724" s="56"/>
-      <c r="D724" s="56"/>
-      <c r="E724" s="57"/>
+      <c r="B724" s="58"/>
+      <c r="C724" s="58"/>
+      <c r="D724" s="58"/>
+      <c r="E724" s="59"/>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
@@ -11897,13 +11903,13 @@
       <c r="E734" s="29"/>
     </row>
     <row r="735" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A735" s="55" t="s">
+      <c r="A735" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="B735" s="56"/>
-      <c r="C735" s="56"/>
-      <c r="D735" s="56"/>
-      <c r="E735" s="57"/>
+      <c r="B735" s="58"/>
+      <c r="C735" s="58"/>
+      <c r="D735" s="58"/>
+      <c r="E735" s="59"/>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
@@ -12004,13 +12010,13 @@
       <c r="E743" s="29"/>
     </row>
     <row r="744" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A744" s="55" t="s">
+      <c r="A744" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="B744" s="56"/>
-      <c r="C744" s="56"/>
-      <c r="D744" s="56"/>
-      <c r="E744" s="57"/>
+      <c r="B744" s="58"/>
+      <c r="C744" s="58"/>
+      <c r="D744" s="58"/>
+      <c r="E744" s="59"/>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
@@ -12111,13 +12117,13 @@
       <c r="E752" s="29"/>
     </row>
     <row r="753" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A753" s="55" t="s">
+      <c r="A753" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="B753" s="56"/>
-      <c r="C753" s="56"/>
-      <c r="D753" s="56"/>
-      <c r="E753" s="57"/>
+      <c r="B753" s="58"/>
+      <c r="C753" s="58"/>
+      <c r="D753" s="58"/>
+      <c r="E753" s="59"/>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
@@ -12222,13 +12228,13 @@
       <c r="E761" s="29"/>
     </row>
     <row r="762" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A762" s="55" t="s">
+      <c r="A762" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="B762" s="56"/>
-      <c r="C762" s="56"/>
-      <c r="D762" s="56"/>
-      <c r="E762" s="57"/>
+      <c r="B762" s="58"/>
+      <c r="C762" s="58"/>
+      <c r="D762" s="58"/>
+      <c r="E762" s="59"/>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
@@ -12312,13 +12318,13 @@
     </row>
     <row r="769" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="770" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A770" s="55" t="s">
+      <c r="A770" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B770" s="56"/>
-      <c r="C770" s="56"/>
-      <c r="D770" s="56"/>
-      <c r="E770" s="57"/>
+      <c r="B770" s="58"/>
+      <c r="C770" s="58"/>
+      <c r="D770" s="58"/>
+      <c r="E770" s="59"/>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
@@ -12384,13 +12390,13 @@
     </row>
     <row r="775" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="776" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A776" s="55" t="s">
+      <c r="A776" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="B776" s="56"/>
-      <c r="C776" s="56"/>
-      <c r="D776" s="56"/>
-      <c r="E776" s="57"/>
+      <c r="B776" s="58"/>
+      <c r="C776" s="58"/>
+      <c r="D776" s="58"/>
+      <c r="E776" s="59"/>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
@@ -12496,13 +12502,13 @@
     </row>
     <row r="785" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="786" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A786" s="55" t="s">
+      <c r="A786" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B786" s="56"/>
-      <c r="C786" s="56"/>
-      <c r="D786" s="56"/>
-      <c r="E786" s="57"/>
+      <c r="B786" s="58"/>
+      <c r="C786" s="58"/>
+      <c r="D786" s="58"/>
+      <c r="E786" s="59"/>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
@@ -12575,13 +12581,13 @@
     </row>
     <row r="792" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="793" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A793" s="55" t="s">
+      <c r="A793" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="B793" s="56"/>
-      <c r="C793" s="56"/>
-      <c r="D793" s="56"/>
-      <c r="E793" s="57"/>
+      <c r="B793" s="58"/>
+      <c r="C793" s="58"/>
+      <c r="D793" s="58"/>
+      <c r="E793" s="59"/>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
@@ -12698,13 +12704,13 @@
     </row>
     <row r="803" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="804" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A804" s="55" t="s">
+      <c r="A804" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="B804" s="56"/>
-      <c r="C804" s="56"/>
-      <c r="D804" s="56"/>
-      <c r="E804" s="57"/>
+      <c r="B804" s="58"/>
+      <c r="C804" s="58"/>
+      <c r="D804" s="58"/>
+      <c r="E804" s="59"/>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
@@ -12777,13 +12783,13 @@
     </row>
     <row r="810" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="811" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A811" s="55" t="s">
+      <c r="A811" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="B811" s="56"/>
-      <c r="C811" s="56"/>
-      <c r="D811" s="56"/>
-      <c r="E811" s="57"/>
+      <c r="B811" s="58"/>
+      <c r="C811" s="58"/>
+      <c r="D811" s="58"/>
+      <c r="E811" s="59"/>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
@@ -12867,13 +12873,13 @@
     </row>
     <row r="818" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="819" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A819" s="55" t="s">
+      <c r="A819" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="B819" s="56"/>
-      <c r="C819" s="56"/>
-      <c r="D819" s="56"/>
-      <c r="E819" s="57"/>
+      <c r="B819" s="58"/>
+      <c r="C819" s="58"/>
+      <c r="D819" s="58"/>
+      <c r="E819" s="59"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
@@ -12979,13 +12985,13 @@
     </row>
     <row r="828" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="829" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A829" s="55" t="s">
+      <c r="A829" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="B829" s="56"/>
-      <c r="C829" s="56"/>
-      <c r="D829" s="56"/>
-      <c r="E829" s="57"/>
+      <c r="B829" s="58"/>
+      <c r="C829" s="58"/>
+      <c r="D829" s="58"/>
+      <c r="E829" s="59"/>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
@@ -13080,13 +13086,13 @@
     </row>
     <row r="837" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="838" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A838" s="55" t="s">
+      <c r="A838" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="B838" s="56"/>
-      <c r="C838" s="56"/>
-      <c r="D838" s="56"/>
-      <c r="E838" s="57"/>
+      <c r="B838" s="58"/>
+      <c r="C838" s="58"/>
+      <c r="D838" s="58"/>
+      <c r="E838" s="59"/>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
@@ -13194,13 +13200,13 @@
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="848" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A848" s="55" t="s">
+      <c r="A848" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="B848" s="56"/>
-      <c r="C848" s="56"/>
-      <c r="D848" s="56"/>
-      <c r="E848" s="57"/>
+      <c r="B848" s="58"/>
+      <c r="C848" s="58"/>
+      <c r="D848" s="58"/>
+      <c r="E848" s="59"/>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
@@ -13295,13 +13301,13 @@
     </row>
     <row r="856" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="857" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A857" s="55" t="s">
+      <c r="A857" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="B857" s="56"/>
-      <c r="C857" s="56"/>
-      <c r="D857" s="56"/>
-      <c r="E857" s="57"/>
+      <c r="B857" s="58"/>
+      <c r="C857" s="58"/>
+      <c r="D857" s="58"/>
+      <c r="E857" s="59"/>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
@@ -13396,13 +13402,13 @@
     </row>
     <row r="865" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="866" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A866" s="55" t="s">
+      <c r="A866" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="B866" s="56"/>
-      <c r="C866" s="56"/>
-      <c r="D866" s="56"/>
-      <c r="E866" s="57"/>
+      <c r="B866" s="58"/>
+      <c r="C866" s="58"/>
+      <c r="D866" s="58"/>
+      <c r="E866" s="59"/>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
@@ -13522,13 +13528,13 @@
     </row>
     <row r="876" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="877" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A877" s="55" t="s">
+      <c r="A877" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="B877" s="56"/>
-      <c r="C877" s="56"/>
-      <c r="D877" s="56"/>
-      <c r="E877" s="57"/>
+      <c r="B877" s="58"/>
+      <c r="C877" s="58"/>
+      <c r="D877" s="58"/>
+      <c r="E877" s="59"/>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
@@ -13661,13 +13667,13 @@
     </row>
     <row r="888" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="889" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A889" s="55" t="s">
+      <c r="A889" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="B889" s="56"/>
-      <c r="C889" s="56"/>
-      <c r="D889" s="56"/>
-      <c r="E889" s="57"/>
+      <c r="B889" s="58"/>
+      <c r="C889" s="58"/>
+      <c r="D889" s="58"/>
+      <c r="E889" s="59"/>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
@@ -13761,13 +13767,13 @@
     </row>
     <row r="897" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="898" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A898" s="55" t="s">
+      <c r="A898" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="B898" s="56"/>
-      <c r="C898" s="56"/>
-      <c r="D898" s="56"/>
-      <c r="E898" s="57"/>
+      <c r="B898" s="58"/>
+      <c r="C898" s="58"/>
+      <c r="D898" s="58"/>
+      <c r="E898" s="59"/>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
@@ -13864,13 +13870,13 @@
     </row>
     <row r="906" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="907" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A907" s="55" t="s">
+      <c r="A907" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="B907" s="56"/>
-      <c r="C907" s="56"/>
-      <c r="D907" s="56"/>
-      <c r="E907" s="57"/>
+      <c r="B907" s="58"/>
+      <c r="C907" s="58"/>
+      <c r="D907" s="58"/>
+      <c r="E907" s="59"/>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
@@ -13966,13 +13972,13 @@
     </row>
     <row r="915" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="916" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A916" s="55" t="s">
+      <c r="A916" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="B916" s="56"/>
-      <c r="C916" s="56"/>
-      <c r="D916" s="56"/>
-      <c r="E916" s="57"/>
+      <c r="B916" s="58"/>
+      <c r="C916" s="58"/>
+      <c r="D916" s="58"/>
+      <c r="E916" s="59"/>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
@@ -14105,13 +14111,13 @@
       <c r="E927" s="23"/>
     </row>
     <row r="928" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A928" s="55" t="s">
+      <c r="A928" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="B928" s="56"/>
-      <c r="C928" s="56"/>
-      <c r="D928" s="56"/>
-      <c r="E928" s="57"/>
+      <c r="B928" s="58"/>
+      <c r="C928" s="58"/>
+      <c r="D928" s="58"/>
+      <c r="E928" s="59"/>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
@@ -14216,13 +14222,13 @@
     </row>
     <row r="937" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="938" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A938" s="55" t="s">
+      <c r="A938" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="B938" s="56"/>
-      <c r="C938" s="56"/>
-      <c r="D938" s="56"/>
-      <c r="E938" s="57"/>
+      <c r="B938" s="58"/>
+      <c r="C938" s="58"/>
+      <c r="D938" s="58"/>
+      <c r="E938" s="59"/>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
@@ -14368,13 +14374,13 @@
       <c r="E950" s="23"/>
     </row>
     <row r="951" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A951" s="55" t="s">
+      <c r="A951" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="B951" s="56"/>
-      <c r="C951" s="56"/>
-      <c r="D951" s="56"/>
-      <c r="E951" s="57"/>
+      <c r="B951" s="58"/>
+      <c r="C951" s="58"/>
+      <c r="D951" s="58"/>
+      <c r="E951" s="59"/>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
@@ -14497,13 +14503,13 @@
       <c r="E961" s="23"/>
     </row>
     <row r="962" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A962" s="55" t="s">
+      <c r="A962" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="B962" s="56"/>
-      <c r="C962" s="56"/>
-      <c r="D962" s="56"/>
-      <c r="E962" s="57"/>
+      <c r="B962" s="58"/>
+      <c r="C962" s="58"/>
+      <c r="D962" s="58"/>
+      <c r="E962" s="59"/>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
@@ -14597,13 +14603,13 @@
       </c>
     </row>
     <row r="970" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A970" s="55" t="s">
+      <c r="A970" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="B970" s="56"/>
-      <c r="C970" s="56"/>
-      <c r="D970" s="56"/>
-      <c r="E970" s="57"/>
+      <c r="B970" s="58"/>
+      <c r="C970" s="58"/>
+      <c r="D970" s="58"/>
+      <c r="E970" s="59"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
@@ -14709,13 +14715,13 @@
     </row>
     <row r="979" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="980" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A980" s="55" t="s">
+      <c r="A980" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="B980" s="56"/>
-      <c r="C980" s="56"/>
-      <c r="D980" s="56"/>
-      <c r="E980" s="57"/>
+      <c r="B980" s="58"/>
+      <c r="C980" s="58"/>
+      <c r="D980" s="58"/>
+      <c r="E980" s="59"/>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
@@ -14777,13 +14783,13 @@
     </row>
     <row r="985" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="986" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A986" s="55" t="s">
+      <c r="A986" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="B986" s="56"/>
-      <c r="C986" s="56"/>
-      <c r="D986" s="56"/>
-      <c r="E986" s="57"/>
+      <c r="B986" s="58"/>
+      <c r="C986" s="58"/>
+      <c r="D986" s="58"/>
+      <c r="E986" s="59"/>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
@@ -14899,13 +14905,13 @@
     </row>
     <row r="996" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="997" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A997" s="55" t="s">
+      <c r="A997" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="B997" s="56"/>
-      <c r="C997" s="56"/>
-      <c r="D997" s="56"/>
-      <c r="E997" s="57"/>
+      <c r="B997" s="58"/>
+      <c r="C997" s="58"/>
+      <c r="D997" s="58"/>
+      <c r="E997" s="59"/>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
@@ -15024,13 +15030,13 @@
     </row>
     <row r="1007" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1008" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1008" s="55" t="s">
+      <c r="A1008" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="B1008" s="56"/>
-      <c r="C1008" s="56"/>
-      <c r="D1008" s="56"/>
-      <c r="E1008" s="57"/>
+      <c r="B1008" s="58"/>
+      <c r="C1008" s="58"/>
+      <c r="D1008" s="58"/>
+      <c r="E1008" s="59"/>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
@@ -15084,13 +15090,13 @@
     </row>
     <row r="1012" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1013" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1013" s="55" t="s">
+      <c r="A1013" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="B1013" s="56"/>
-      <c r="C1013" s="56"/>
-      <c r="D1013" s="56"/>
-      <c r="E1013" s="57"/>
+      <c r="B1013" s="58"/>
+      <c r="C1013" s="58"/>
+      <c r="D1013" s="58"/>
+      <c r="E1013" s="59"/>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
@@ -15187,13 +15193,13 @@
     </row>
     <row r="1021" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1022" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1022" s="55" t="s">
+      <c r="A1022" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="B1022" s="56"/>
-      <c r="C1022" s="56"/>
-      <c r="D1022" s="56"/>
-      <c r="E1022" s="57"/>
+      <c r="B1022" s="58"/>
+      <c r="C1022" s="58"/>
+      <c r="D1022" s="58"/>
+      <c r="E1022" s="59"/>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
@@ -15310,13 +15316,13 @@
     </row>
     <row r="1032" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1033" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1033" s="55" t="s">
+      <c r="A1033" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="B1033" s="56"/>
-      <c r="C1033" s="56"/>
-      <c r="D1033" s="56"/>
-      <c r="E1033" s="57"/>
+      <c r="B1033" s="58"/>
+      <c r="C1033" s="58"/>
+      <c r="D1033" s="58"/>
+      <c r="E1033" s="59"/>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
@@ -15411,13 +15417,13 @@
     </row>
     <row r="1041" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1042" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1042" s="55" t="s">
+      <c r="A1042" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="B1042" s="56"/>
-      <c r="C1042" s="56"/>
-      <c r="D1042" s="56"/>
-      <c r="E1042" s="57"/>
+      <c r="B1042" s="58"/>
+      <c r="C1042" s="58"/>
+      <c r="D1042" s="58"/>
+      <c r="E1042" s="59"/>
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
@@ -15512,13 +15518,13 @@
     </row>
     <row r="1050" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1051" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1051" s="55" t="s">
+      <c r="A1051" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="B1051" s="56"/>
-      <c r="C1051" s="56"/>
-      <c r="D1051" s="56"/>
-      <c r="E1051" s="57"/>
+      <c r="B1051" s="58"/>
+      <c r="C1051" s="58"/>
+      <c r="D1051" s="58"/>
+      <c r="E1051" s="59"/>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
@@ -15602,13 +15608,13 @@
     </row>
     <row r="1058" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1059" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1059" s="55" t="s">
+      <c r="A1059" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="B1059" s="56"/>
-      <c r="C1059" s="56"/>
-      <c r="D1059" s="56"/>
-      <c r="E1059" s="57"/>
+      <c r="B1059" s="58"/>
+      <c r="C1059" s="58"/>
+      <c r="D1059" s="58"/>
+      <c r="E1059" s="59"/>
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
@@ -15692,13 +15698,13 @@
     </row>
     <row r="1066" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1067" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1067" s="55" t="s">
+      <c r="A1067" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="B1067" s="56"/>
-      <c r="C1067" s="56"/>
-      <c r="D1067" s="56"/>
-      <c r="E1067" s="57"/>
+      <c r="B1067" s="58"/>
+      <c r="C1067" s="58"/>
+      <c r="D1067" s="58"/>
+      <c r="E1067" s="59"/>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
@@ -15786,13 +15792,13 @@
     </row>
     <row r="1074" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1075" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1075" s="55" t="s">
+      <c r="A1075" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="B1075" s="56"/>
-      <c r="C1075" s="56"/>
-      <c r="D1075" s="56"/>
-      <c r="E1075" s="57"/>
+      <c r="B1075" s="58"/>
+      <c r="C1075" s="58"/>
+      <c r="D1075" s="58"/>
+      <c r="E1075" s="59"/>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
@@ -15876,13 +15882,13 @@
     </row>
     <row r="1082" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1083" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1083" s="55" t="s">
+      <c r="A1083" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="B1083" s="56"/>
-      <c r="C1083" s="56"/>
-      <c r="D1083" s="56"/>
-      <c r="E1083" s="57"/>
+      <c r="B1083" s="58"/>
+      <c r="C1083" s="58"/>
+      <c r="D1083" s="58"/>
+      <c r="E1083" s="59"/>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
@@ -15966,13 +15972,13 @@
     </row>
     <row r="1090" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1091" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1091" s="55" t="s">
+      <c r="A1091" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="B1091" s="56"/>
-      <c r="C1091" s="56"/>
-      <c r="D1091" s="56"/>
-      <c r="E1091" s="57"/>
+      <c r="B1091" s="58"/>
+      <c r="C1091" s="58"/>
+      <c r="D1091" s="58"/>
+      <c r="E1091" s="59"/>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1092" s="1" t="s">
@@ -16056,13 +16062,13 @@
     </row>
     <row r="1098" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1099" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1099" s="55" t="s">
+      <c r="A1099" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="B1099" s="56"/>
-      <c r="C1099" s="56"/>
-      <c r="D1099" s="56"/>
-      <c r="E1099" s="57"/>
+      <c r="B1099" s="58"/>
+      <c r="C1099" s="58"/>
+      <c r="D1099" s="58"/>
+      <c r="E1099" s="59"/>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
@@ -16202,13 +16208,13 @@
     </row>
     <row r="1111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1112" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1112" s="55" t="s">
+      <c r="A1112" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B1112" s="56"/>
-      <c r="C1112" s="56"/>
-      <c r="D1112" s="56"/>
-      <c r="E1112" s="57"/>
+      <c r="B1112" s="58"/>
+      <c r="C1112" s="58"/>
+      <c r="D1112" s="58"/>
+      <c r="E1112" s="59"/>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
@@ -16305,13 +16311,13 @@
     </row>
     <row r="1120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1121" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1121" s="55" t="s">
+      <c r="A1121" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="B1121" s="56"/>
-      <c r="C1121" s="56"/>
-      <c r="D1121" s="56"/>
-      <c r="E1121" s="57"/>
+      <c r="B1121" s="58"/>
+      <c r="C1121" s="58"/>
+      <c r="D1121" s="58"/>
+      <c r="E1121" s="59"/>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
@@ -16453,13 +16459,13 @@
     </row>
     <row r="1133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1134" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1134" s="55" t="s">
+      <c r="A1134" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="B1134" s="56"/>
-      <c r="C1134" s="56"/>
-      <c r="D1134" s="56"/>
-      <c r="E1134" s="57"/>
+      <c r="B1134" s="58"/>
+      <c r="C1134" s="58"/>
+      <c r="D1134" s="58"/>
+      <c r="E1134" s="59"/>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
@@ -16558,13 +16564,13 @@
     </row>
     <row r="1142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1143" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1143" s="55" t="s">
+      <c r="A1143" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="B1143" s="56"/>
-      <c r="C1143" s="56"/>
-      <c r="D1143" s="56"/>
-      <c r="E1143" s="57"/>
+      <c r="B1143" s="58"/>
+      <c r="C1143" s="58"/>
+      <c r="D1143" s="58"/>
+      <c r="E1143" s="59"/>
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" s="1" t="s">
@@ -16670,13 +16676,13 @@
     </row>
     <row r="1152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1153" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1153" s="55" t="s">
+      <c r="A1153" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="B1153" s="56"/>
-      <c r="C1153" s="56"/>
-      <c r="D1153" s="56"/>
-      <c r="E1153" s="57"/>
+      <c r="B1153" s="58"/>
+      <c r="C1153" s="58"/>
+      <c r="D1153" s="58"/>
+      <c r="E1153" s="59"/>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
@@ -16760,13 +16766,13 @@
     </row>
     <row r="1160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1161" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1161" s="55" t="s">
+      <c r="A1161" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="B1161" s="56"/>
-      <c r="C1161" s="56"/>
-      <c r="D1161" s="56"/>
-      <c r="E1161" s="57"/>
+      <c r="B1161" s="58"/>
+      <c r="C1161" s="58"/>
+      <c r="D1161" s="58"/>
+      <c r="E1161" s="59"/>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1162" s="1" t="s">
@@ -16850,13 +16856,13 @@
     </row>
     <row r="1168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1169" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1169" s="55" t="s">
+      <c r="A1169" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="B1169" s="56"/>
-      <c r="C1169" s="56"/>
-      <c r="D1169" s="56"/>
-      <c r="E1169" s="57"/>
+      <c r="B1169" s="58"/>
+      <c r="C1169" s="58"/>
+      <c r="D1169" s="58"/>
+      <c r="E1169" s="59"/>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1170" s="1" t="s">
@@ -16998,13 +17004,13 @@
     </row>
     <row r="1181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1182" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1182" s="55" t="s">
+      <c r="A1182" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="B1182" s="56"/>
-      <c r="C1182" s="56"/>
-      <c r="D1182" s="56"/>
-      <c r="E1182" s="57"/>
+      <c r="B1182" s="58"/>
+      <c r="C1182" s="58"/>
+      <c r="D1182" s="58"/>
+      <c r="E1182" s="59"/>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1183" s="1" t="s">
@@ -17079,13 +17085,13 @@
     </row>
     <row r="1188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1189" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1189" s="55" t="s">
+      <c r="A1189" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="B1189" s="56"/>
-      <c r="C1189" s="56"/>
-      <c r="D1189" s="56"/>
-      <c r="E1189" s="57"/>
+      <c r="B1189" s="58"/>
+      <c r="C1189" s="58"/>
+      <c r="D1189" s="58"/>
+      <c r="E1189" s="59"/>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
@@ -17180,13 +17186,13 @@
     </row>
     <row r="1197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1198" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1198" s="55" t="s">
+      <c r="A1198" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="B1198" s="56"/>
-      <c r="C1198" s="56"/>
-      <c r="D1198" s="56"/>
-      <c r="E1198" s="57"/>
+      <c r="B1198" s="58"/>
+      <c r="C1198" s="58"/>
+      <c r="D1198" s="58"/>
+      <c r="E1198" s="59"/>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1199" s="1" t="s">
@@ -17270,13 +17276,13 @@
     </row>
     <row r="1205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1206" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1206" s="55" t="s">
+      <c r="A1206" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B1206" s="56"/>
-      <c r="C1206" s="56"/>
-      <c r="D1206" s="56"/>
-      <c r="E1206" s="57"/>
+      <c r="B1206" s="58"/>
+      <c r="C1206" s="58"/>
+      <c r="D1206" s="58"/>
+      <c r="E1206" s="59"/>
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
@@ -17349,13 +17355,13 @@
     </row>
     <row r="1212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1213" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1213" s="55" t="s">
+      <c r="A1213" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="B1213" s="56"/>
-      <c r="C1213" s="56"/>
-      <c r="D1213" s="56"/>
-      <c r="E1213" s="57"/>
+      <c r="B1213" s="58"/>
+      <c r="C1213" s="58"/>
+      <c r="D1213" s="58"/>
+      <c r="E1213" s="59"/>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
@@ -17406,13 +17412,13 @@
     </row>
     <row r="1217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1218" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1218" s="52" t="s">
+      <c r="A1218" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="B1218" s="53"/>
-      <c r="C1218" s="53"/>
-      <c r="D1218" s="53"/>
-      <c r="E1218" s="54"/>
+      <c r="B1218" s="54"/>
+      <c r="C1218" s="54"/>
+      <c r="D1218" s="54"/>
+      <c r="E1218" s="55"/>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1219" s="5" t="s">
@@ -17485,13 +17491,13 @@
     </row>
     <row r="1224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1225" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1225" s="52" t="s">
+      <c r="A1225" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="B1225" s="53"/>
-      <c r="C1225" s="53"/>
-      <c r="D1225" s="53"/>
-      <c r="E1225" s="54"/>
+      <c r="B1225" s="54"/>
+      <c r="C1225" s="54"/>
+      <c r="D1225" s="54"/>
+      <c r="E1225" s="55"/>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1226" s="5" t="s">
@@ -17545,13 +17551,13 @@
     </row>
     <row r="1229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1230" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1230" s="52" t="s">
+      <c r="A1230" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="B1230" s="53"/>
-      <c r="C1230" s="53"/>
-      <c r="D1230" s="53"/>
-      <c r="E1230" s="54"/>
+      <c r="B1230" s="54"/>
+      <c r="C1230" s="54"/>
+      <c r="D1230" s="54"/>
+      <c r="E1230" s="55"/>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1231" s="5" t="s">
@@ -17650,13 +17656,13 @@
     </row>
     <row r="1238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1239" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1239" s="52" t="s">
+      <c r="A1239" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="B1239" s="53"/>
-      <c r="C1239" s="53"/>
-      <c r="D1239" s="53"/>
-      <c r="E1239" s="54"/>
+      <c r="B1239" s="54"/>
+      <c r="C1239" s="54"/>
+      <c r="D1239" s="54"/>
+      <c r="E1239" s="55"/>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1240" s="5" t="s">
@@ -17762,13 +17768,13 @@
     </row>
     <row r="1248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1249" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1249" s="52" t="s">
+      <c r="A1249" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="B1249" s="53"/>
-      <c r="C1249" s="53"/>
-      <c r="D1249" s="53"/>
-      <c r="E1249" s="54"/>
+      <c r="B1249" s="54"/>
+      <c r="C1249" s="54"/>
+      <c r="D1249" s="54"/>
+      <c r="E1249" s="55"/>
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1250" s="5" t="s">
@@ -17852,13 +17858,13 @@
     </row>
     <row r="1256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1257" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1257" s="52" t="s">
+      <c r="A1257" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="B1257" s="53"/>
-      <c r="C1257" s="53"/>
-      <c r="D1257" s="53"/>
-      <c r="E1257" s="54"/>
+      <c r="B1257" s="54"/>
+      <c r="C1257" s="54"/>
+      <c r="D1257" s="54"/>
+      <c r="E1257" s="55"/>
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1258" s="5" t="s">
@@ -17942,13 +17948,13 @@
     </row>
     <row r="1264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1265" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1265" s="52" t="s">
+      <c r="A1265" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="B1265" s="53"/>
-      <c r="C1265" s="53"/>
-      <c r="D1265" s="53"/>
-      <c r="E1265" s="54"/>
+      <c r="B1265" s="54"/>
+      <c r="C1265" s="54"/>
+      <c r="D1265" s="54"/>
+      <c r="E1265" s="55"/>
     </row>
     <row r="1266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1266" s="5" t="s">
@@ -18032,13 +18038,13 @@
     </row>
     <row r="1272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1273" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1273" s="52" t="s">
+      <c r="A1273" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="B1273" s="53"/>
-      <c r="C1273" s="53"/>
-      <c r="D1273" s="53"/>
-      <c r="E1273" s="54"/>
+      <c r="B1273" s="54"/>
+      <c r="C1273" s="54"/>
+      <c r="D1273" s="54"/>
+      <c r="E1273" s="55"/>
     </row>
     <row r="1274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1274" s="5" t="s">
@@ -18122,13 +18128,13 @@
     </row>
     <row r="1280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1281" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1281" s="52" t="s">
+      <c r="A1281" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="B1281" s="53"/>
-      <c r="C1281" s="53"/>
-      <c r="D1281" s="53"/>
-      <c r="E1281" s="54"/>
+      <c r="B1281" s="54"/>
+      <c r="C1281" s="54"/>
+      <c r="D1281" s="54"/>
+      <c r="E1281" s="55"/>
     </row>
     <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1282" s="5" t="s">
@@ -18212,13 +18218,13 @@
     </row>
     <row r="1288" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1289" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1289" s="52" t="s">
+      <c r="A1289" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="B1289" s="53"/>
-      <c r="C1289" s="53"/>
-      <c r="D1289" s="53"/>
-      <c r="E1289" s="54"/>
+      <c r="B1289" s="54"/>
+      <c r="C1289" s="54"/>
+      <c r="D1289" s="54"/>
+      <c r="E1289" s="55"/>
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1290" s="5" t="s">
@@ -18302,13 +18308,13 @@
     </row>
     <row r="1296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1297" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1297" s="52" t="s">
+      <c r="A1297" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="B1297" s="53"/>
-      <c r="C1297" s="53"/>
-      <c r="D1297" s="53"/>
-      <c r="E1297" s="54"/>
+      <c r="B1297" s="54"/>
+      <c r="C1297" s="54"/>
+      <c r="D1297" s="54"/>
+      <c r="E1297" s="55"/>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1298" s="5" t="s">
@@ -18392,13 +18398,13 @@
     </row>
     <row r="1304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1305" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1305" s="52" t="s">
+      <c r="A1305" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="B1305" s="53"/>
-      <c r="C1305" s="53"/>
-      <c r="D1305" s="53"/>
-      <c r="E1305" s="54"/>
+      <c r="B1305" s="54"/>
+      <c r="C1305" s="54"/>
+      <c r="D1305" s="54"/>
+      <c r="E1305" s="55"/>
     </row>
     <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1306" s="5" t="s">
@@ -18482,13 +18488,13 @@
     </row>
     <row r="1312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1313" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1313" s="52" t="s">
+      <c r="A1313" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="B1313" s="53"/>
-      <c r="C1313" s="53"/>
-      <c r="D1313" s="53"/>
-      <c r="E1313" s="54"/>
+      <c r="B1313" s="54"/>
+      <c r="C1313" s="54"/>
+      <c r="D1313" s="54"/>
+      <c r="E1313" s="55"/>
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1314" s="5" t="s">
@@ -18572,13 +18578,13 @@
     </row>
     <row r="1320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1321" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1321" s="52" t="s">
+      <c r="A1321" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="B1321" s="53"/>
-      <c r="C1321" s="53"/>
-      <c r="D1321" s="53"/>
-      <c r="E1321" s="54"/>
+      <c r="B1321" s="54"/>
+      <c r="C1321" s="54"/>
+      <c r="D1321" s="54"/>
+      <c r="E1321" s="55"/>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1322" s="5" t="s">
@@ -18651,13 +18657,13 @@
     </row>
     <row r="1327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1328" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1328" s="52" t="s">
+      <c r="A1328" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="B1328" s="53"/>
-      <c r="C1328" s="53"/>
-      <c r="D1328" s="53"/>
-      <c r="E1328" s="54"/>
+      <c r="B1328" s="54"/>
+      <c r="C1328" s="54"/>
+      <c r="D1328" s="54"/>
+      <c r="E1328" s="55"/>
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1329" s="5" t="s">
@@ -18791,13 +18797,13 @@
     </row>
     <row r="1340" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1341" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1341" s="52" t="s">
+      <c r="A1341" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="B1341" s="53"/>
-      <c r="C1341" s="53"/>
-      <c r="D1341" s="53"/>
-      <c r="E1341" s="54"/>
+      <c r="B1341" s="54"/>
+      <c r="C1341" s="54"/>
+      <c r="D1341" s="54"/>
+      <c r="E1341" s="55"/>
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1342" s="5" t="s">
@@ -18868,13 +18874,13 @@
     </row>
     <row r="1348" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1349" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1349" s="52" t="s">
+      <c r="A1349" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="B1349" s="53"/>
-      <c r="C1349" s="53"/>
-      <c r="D1349" s="53"/>
-      <c r="E1349" s="54"/>
+      <c r="B1349" s="54"/>
+      <c r="C1349" s="54"/>
+      <c r="D1349" s="54"/>
+      <c r="E1349" s="55"/>
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1350" s="5" t="s">
@@ -18959,13 +18965,13 @@
     </row>
     <row r="1357" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1358" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1358" s="52" t="s">
+      <c r="A1358" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="B1358" s="53"/>
-      <c r="C1358" s="53"/>
-      <c r="D1358" s="53"/>
-      <c r="E1358" s="54"/>
+      <c r="B1358" s="54"/>
+      <c r="C1358" s="54"/>
+      <c r="D1358" s="54"/>
+      <c r="E1358" s="55"/>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1359" s="5" t="s">
@@ -19061,13 +19067,13 @@
     </row>
     <row r="1367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1368" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1368" s="52" t="s">
+      <c r="A1368" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="B1368" s="53"/>
-      <c r="C1368" s="53"/>
-      <c r="D1368" s="53"/>
-      <c r="E1368" s="54"/>
+      <c r="B1368" s="54"/>
+      <c r="C1368" s="54"/>
+      <c r="D1368" s="54"/>
+      <c r="E1368" s="55"/>
     </row>
     <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1369" s="5" t="s">
@@ -19152,13 +19158,13 @@
     </row>
     <row r="1376" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1377" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1377" s="52" t="s">
+      <c r="A1377" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="B1377" s="53"/>
-      <c r="C1377" s="53"/>
-      <c r="D1377" s="53"/>
-      <c r="E1377" s="54"/>
+      <c r="B1377" s="54"/>
+      <c r="C1377" s="54"/>
+      <c r="D1377" s="54"/>
+      <c r="E1377" s="55"/>
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1378" s="5" t="s">
@@ -19243,13 +19249,13 @@
     </row>
     <row r="1385" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1386" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1386" s="52" t="s">
+      <c r="A1386" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="B1386" s="53"/>
-      <c r="C1386" s="53"/>
-      <c r="D1386" s="53"/>
-      <c r="E1386" s="54"/>
+      <c r="B1386" s="54"/>
+      <c r="C1386" s="54"/>
+      <c r="D1386" s="54"/>
+      <c r="E1386" s="55"/>
     </row>
     <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1387" s="5" t="s">
@@ -19334,13 +19340,13 @@
     </row>
     <row r="1394" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1395" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1395" s="52" t="s">
+      <c r="A1395" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="B1395" s="53"/>
-      <c r="C1395" s="53"/>
-      <c r="D1395" s="53"/>
-      <c r="E1395" s="54"/>
+      <c r="B1395" s="54"/>
+      <c r="C1395" s="54"/>
+      <c r="D1395" s="54"/>
+      <c r="E1395" s="55"/>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1396" s="5" t="s">
@@ -19403,13 +19409,13 @@
     </row>
     <row r="1401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1402" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1402" s="52" t="s">
+      <c r="A1402" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="B1402" s="53"/>
-      <c r="C1402" s="53"/>
-      <c r="D1402" s="53"/>
-      <c r="E1402" s="54"/>
+      <c r="B1402" s="54"/>
+      <c r="C1402" s="54"/>
+      <c r="D1402" s="54"/>
+      <c r="E1402" s="55"/>
     </row>
     <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1403" s="5" t="s">
@@ -19513,13 +19519,13 @@
       </c>
     </row>
     <row r="1413" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1413" s="58" t="s">
+      <c r="A1413" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="B1413" s="58"/>
-      <c r="C1413" s="58"/>
-      <c r="D1413" s="58"/>
-      <c r="E1413" s="58"/>
+      <c r="B1413" s="56"/>
+      <c r="C1413" s="56"/>
+      <c r="D1413" s="56"/>
+      <c r="E1413" s="56"/>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1414" s="5" t="s">
@@ -19593,13 +19599,13 @@
     </row>
     <row r="1421" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1422" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1422" s="52" t="s">
+      <c r="A1422" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B1422" s="53"/>
-      <c r="C1422" s="53"/>
-      <c r="D1422" s="53"/>
-      <c r="E1422" s="54"/>
+      <c r="B1422" s="54"/>
+      <c r="C1422" s="54"/>
+      <c r="D1422" s="54"/>
+      <c r="E1422" s="55"/>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1423" s="5" t="s">
@@ -19670,13 +19676,13 @@
     </row>
     <row r="1429" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1430" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1430" s="52" t="s">
+      <c r="A1430" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="B1430" s="53"/>
-      <c r="C1430" s="53"/>
-      <c r="D1430" s="53"/>
-      <c r="E1430" s="54"/>
+      <c r="B1430" s="54"/>
+      <c r="C1430" s="54"/>
+      <c r="D1430" s="54"/>
+      <c r="E1430" s="55"/>
     </row>
     <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1431" s="5" t="s">
@@ -19770,13 +19776,13 @@
     </row>
     <row r="1439" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1440" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1440" s="52" t="s">
+      <c r="A1440" s="53" t="s">
         <v>460</v>
       </c>
-      <c r="B1440" s="53"/>
-      <c r="C1440" s="53"/>
-      <c r="D1440" s="53"/>
-      <c r="E1440" s="54"/>
+      <c r="B1440" s="54"/>
+      <c r="C1440" s="54"/>
+      <c r="D1440" s="54"/>
+      <c r="E1440" s="55"/>
     </row>
     <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1441" s="5" t="s">
@@ -19881,13 +19887,13 @@
     </row>
     <row r="1450" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1451" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1451" s="52" t="s">
+      <c r="A1451" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="B1451" s="53"/>
-      <c r="C1451" s="53"/>
-      <c r="D1451" s="53"/>
-      <c r="E1451" s="54"/>
+      <c r="B1451" s="54"/>
+      <c r="C1451" s="54"/>
+      <c r="D1451" s="54"/>
+      <c r="E1451" s="55"/>
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1452" s="5" t="s">
@@ -19970,13 +19976,13 @@
     </row>
     <row r="1459" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1460" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1460" s="52" t="s">
+      <c r="A1460" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B1460" s="53"/>
-      <c r="C1460" s="53"/>
-      <c r="D1460" s="53"/>
-      <c r="E1460" s="54"/>
+      <c r="B1460" s="54"/>
+      <c r="C1460" s="54"/>
+      <c r="D1460" s="54"/>
+      <c r="E1460" s="55"/>
     </row>
     <row r="1461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1461" s="5" t="s">
@@ -20048,13 +20054,13 @@
     </row>
     <row r="1467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1468" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1468" s="52" t="s">
+      <c r="A1468" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="B1468" s="53"/>
-      <c r="C1468" s="53"/>
-      <c r="D1468" s="53"/>
-      <c r="E1468" s="54"/>
+      <c r="B1468" s="54"/>
+      <c r="C1468" s="54"/>
+      <c r="D1468" s="54"/>
+      <c r="E1468" s="55"/>
     </row>
     <row r="1469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1469" s="5" t="s">
@@ -20126,13 +20132,13 @@
     </row>
     <row r="1475" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1476" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1476" s="52" t="s">
+      <c r="A1476" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="B1476" s="53"/>
-      <c r="C1476" s="53"/>
-      <c r="D1476" s="53"/>
-      <c r="E1476" s="54"/>
+      <c r="B1476" s="54"/>
+      <c r="C1476" s="54"/>
+      <c r="D1476" s="54"/>
+      <c r="E1476" s="55"/>
     </row>
     <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1477" s="5" t="s">
@@ -20245,13 +20251,13 @@
     </row>
     <row r="1486" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1487" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1487" s="52" t="s">
+      <c r="A1487" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="B1487" s="53"/>
-      <c r="C1487" s="53"/>
-      <c r="D1487" s="53"/>
-      <c r="E1487" s="54"/>
+      <c r="B1487" s="54"/>
+      <c r="C1487" s="54"/>
+      <c r="D1487" s="54"/>
+      <c r="E1487" s="55"/>
     </row>
     <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1488" s="5" t="s">
@@ -20320,13 +20326,13 @@
     </row>
     <row r="1494" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1495" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1495" s="52" t="s">
+      <c r="A1495" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="B1495" s="53"/>
-      <c r="C1495" s="53"/>
-      <c r="D1495" s="53"/>
-      <c r="E1495" s="54"/>
+      <c r="B1495" s="54"/>
+      <c r="C1495" s="54"/>
+      <c r="D1495" s="54"/>
+      <c r="E1495" s="55"/>
     </row>
     <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1496" s="5" t="s">
@@ -20442,13 +20448,13 @@
     </row>
     <row r="1506" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1507" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1507" s="52" t="s">
+      <c r="A1507" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="B1507" s="53"/>
-      <c r="C1507" s="53"/>
-      <c r="D1507" s="53"/>
-      <c r="E1507" s="54"/>
+      <c r="B1507" s="54"/>
+      <c r="C1507" s="54"/>
+      <c r="D1507" s="54"/>
+      <c r="E1507" s="55"/>
     </row>
     <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1508" s="5" t="s">
@@ -20627,13 +20633,13 @@
     </row>
     <row r="1522" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1523" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1523" s="52" t="s">
+      <c r="A1523" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B1523" s="53"/>
-      <c r="C1523" s="53"/>
-      <c r="D1523" s="53"/>
-      <c r="E1523" s="54"/>
+      <c r="B1523" s="54"/>
+      <c r="C1523" s="54"/>
+      <c r="D1523" s="54"/>
+      <c r="E1523" s="55"/>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1524" s="5" t="s">
@@ -20713,13 +20719,13 @@
     </row>
     <row r="1531" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1532" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1532" s="52" t="s">
+      <c r="A1532" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="B1532" s="53"/>
-      <c r="C1532" s="53"/>
-      <c r="D1532" s="53"/>
-      <c r="E1532" s="54"/>
+      <c r="B1532" s="54"/>
+      <c r="C1532" s="54"/>
+      <c r="D1532" s="54"/>
+      <c r="E1532" s="55"/>
     </row>
     <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1533" s="5" t="s">
@@ -20813,13 +20819,13 @@
     </row>
     <row r="1541" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1542" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1542" s="52" t="s">
+      <c r="A1542" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="B1542" s="53"/>
-      <c r="C1542" s="53"/>
-      <c r="D1542" s="53"/>
-      <c r="E1542" s="54"/>
+      <c r="B1542" s="54"/>
+      <c r="C1542" s="54"/>
+      <c r="D1542" s="54"/>
+      <c r="E1542" s="55"/>
     </row>
     <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1543" s="5" t="s">
@@ -20913,13 +20919,13 @@
     </row>
     <row r="1551" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1552" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1552" s="52" t="s">
+      <c r="A1552" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="B1552" s="53"/>
-      <c r="C1552" s="53"/>
-      <c r="D1552" s="53"/>
-      <c r="E1552" s="54"/>
+      <c r="B1552" s="54"/>
+      <c r="C1552" s="54"/>
+      <c r="D1552" s="54"/>
+      <c r="E1552" s="55"/>
     </row>
     <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1553" s="5" t="s">
@@ -21013,13 +21019,13 @@
     </row>
     <row r="1561" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1562" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1562" s="52" t="s">
+      <c r="A1562" s="53" t="s">
         <v>488</v>
       </c>
-      <c r="B1562" s="53"/>
-      <c r="C1562" s="53"/>
-      <c r="D1562" s="53"/>
-      <c r="E1562" s="54"/>
+      <c r="B1562" s="54"/>
+      <c r="C1562" s="54"/>
+      <c r="D1562" s="54"/>
+      <c r="E1562" s="55"/>
     </row>
     <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1563" s="5" t="s">
@@ -21102,13 +21108,13 @@
     </row>
     <row r="1570" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1571" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1571" s="52" t="s">
+      <c r="A1571" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="B1571" s="53"/>
-      <c r="C1571" s="53"/>
-      <c r="D1571" s="53"/>
-      <c r="E1571" s="54"/>
+      <c r="B1571" s="54"/>
+      <c r="C1571" s="54"/>
+      <c r="D1571" s="54"/>
+      <c r="E1571" s="55"/>
     </row>
     <row r="1572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1572" s="5" t="s">
@@ -21202,13 +21208,13 @@
     </row>
     <row r="1580" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1581" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1581" s="52" t="s">
+      <c r="A1581" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="B1581" s="53"/>
-      <c r="C1581" s="53"/>
-      <c r="D1581" s="53"/>
-      <c r="E1581" s="54"/>
+      <c r="B1581" s="54"/>
+      <c r="C1581" s="54"/>
+      <c r="D1581" s="54"/>
+      <c r="E1581" s="55"/>
     </row>
     <row r="1582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1582" s="5" t="s">
@@ -21326,13 +21332,13 @@
     </row>
     <row r="1592" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1593" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1593" s="52" t="s">
+      <c r="A1593" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="B1593" s="53"/>
-      <c r="C1593" s="53"/>
-      <c r="D1593" s="53"/>
-      <c r="E1593" s="54"/>
+      <c r="B1593" s="54"/>
+      <c r="C1593" s="54"/>
+      <c r="D1593" s="54"/>
+      <c r="E1593" s="55"/>
     </row>
     <row r="1594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1594" s="5" t="s">
@@ -21439,13 +21445,13 @@
     </row>
     <row r="1603" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1604" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1604" s="52" t="s">
+      <c r="A1604" s="53" t="s">
         <v>497</v>
       </c>
-      <c r="B1604" s="53"/>
-      <c r="C1604" s="53"/>
-      <c r="D1604" s="53"/>
-      <c r="E1604" s="54"/>
+      <c r="B1604" s="54"/>
+      <c r="C1604" s="54"/>
+      <c r="D1604" s="54"/>
+      <c r="E1604" s="55"/>
     </row>
     <row r="1605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1605" s="5" t="s">
@@ -21550,13 +21556,13 @@
     </row>
     <row r="1614" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1615" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1615" s="52" t="s">
+      <c r="A1615" s="53" t="s">
         <v>498</v>
       </c>
-      <c r="B1615" s="53"/>
-      <c r="C1615" s="53"/>
-      <c r="D1615" s="53"/>
-      <c r="E1615" s="54"/>
+      <c r="B1615" s="54"/>
+      <c r="C1615" s="54"/>
+      <c r="D1615" s="54"/>
+      <c r="E1615" s="55"/>
     </row>
     <row r="1616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1616" s="5" t="s">
@@ -21668,13 +21674,13 @@
     </row>
     <row r="1625" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1626" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1626" s="52" t="s">
+      <c r="A1626" s="53" t="s">
         <v>500</v>
       </c>
-      <c r="B1626" s="53"/>
-      <c r="C1626" s="53"/>
-      <c r="D1626" s="53"/>
-      <c r="E1626" s="54"/>
+      <c r="B1626" s="54"/>
+      <c r="C1626" s="54"/>
+      <c r="D1626" s="54"/>
+      <c r="E1626" s="55"/>
     </row>
     <row r="1627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1627" s="5" t="s">
@@ -21786,13 +21792,13 @@
     </row>
     <row r="1636" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1637" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1637" s="52" t="s">
+      <c r="A1637" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="B1637" s="53"/>
-      <c r="C1637" s="53"/>
-      <c r="D1637" s="53"/>
-      <c r="E1637" s="54"/>
+      <c r="B1637" s="54"/>
+      <c r="C1637" s="54"/>
+      <c r="D1637" s="54"/>
+      <c r="E1637" s="55"/>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1638" s="5" t="s">
@@ -21906,13 +21912,13 @@
     </row>
     <row r="1647" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1648" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1648" s="52" t="s">
+      <c r="A1648" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="B1648" s="53"/>
-      <c r="C1648" s="53"/>
-      <c r="D1648" s="53"/>
-      <c r="E1648" s="54"/>
+      <c r="B1648" s="54"/>
+      <c r="C1648" s="54"/>
+      <c r="D1648" s="54"/>
+      <c r="E1648" s="55"/>
     </row>
     <row r="1649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1649" s="5" t="s">
@@ -22013,13 +22019,13 @@
     </row>
     <row r="1657" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1658" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1658" s="52" t="s">
+      <c r="A1658" s="53" t="s">
         <v>503</v>
       </c>
-      <c r="B1658" s="53"/>
-      <c r="C1658" s="53"/>
-      <c r="D1658" s="53"/>
-      <c r="E1658" s="54"/>
+      <c r="B1658" s="54"/>
+      <c r="C1658" s="54"/>
+      <c r="D1658" s="54"/>
+      <c r="E1658" s="55"/>
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1659" s="5" t="s">
@@ -22131,13 +22137,13 @@
     </row>
     <row r="1668" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1669" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1669" s="52" t="s">
+      <c r="A1669" s="53" t="s">
         <v>504</v>
       </c>
-      <c r="B1669" s="53"/>
-      <c r="C1669" s="53"/>
-      <c r="D1669" s="53"/>
-      <c r="E1669" s="54"/>
+      <c r="B1669" s="54"/>
+      <c r="C1669" s="54"/>
+      <c r="D1669" s="54"/>
+      <c r="E1669" s="55"/>
     </row>
     <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1670" s="5" t="s">
@@ -22271,13 +22277,13 @@
     </row>
     <row r="1681" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1682" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1682" s="52" t="s">
+      <c r="A1682" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="B1682" s="53"/>
-      <c r="C1682" s="53"/>
-      <c r="D1682" s="53"/>
-      <c r="E1682" s="54"/>
+      <c r="B1682" s="54"/>
+      <c r="C1682" s="54"/>
+      <c r="D1682" s="54"/>
+      <c r="E1682" s="55"/>
     </row>
     <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1683" s="5" t="s">
@@ -22400,13 +22406,13 @@
     </row>
     <row r="1693" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1694" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1694" s="52" t="s">
+      <c r="A1694" s="53" t="s">
         <v>510</v>
       </c>
-      <c r="B1694" s="53"/>
-      <c r="C1694" s="53"/>
-      <c r="D1694" s="53"/>
-      <c r="E1694" s="54"/>
+      <c r="B1694" s="54"/>
+      <c r="C1694" s="54"/>
+      <c r="D1694" s="54"/>
+      <c r="E1694" s="55"/>
     </row>
     <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1695" s="5" t="s">
@@ -22518,13 +22524,13 @@
     </row>
     <row r="1704" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1705" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1705" s="52" t="s">
+      <c r="A1705" s="53" t="s">
         <v>513</v>
       </c>
-      <c r="B1705" s="53"/>
-      <c r="C1705" s="53"/>
-      <c r="D1705" s="53"/>
-      <c r="E1705" s="54"/>
+      <c r="B1705" s="54"/>
+      <c r="C1705" s="54"/>
+      <c r="D1705" s="54"/>
+      <c r="E1705" s="55"/>
     </row>
     <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1706" s="5" t="s">
@@ -22625,13 +22631,13 @@
     </row>
     <row r="1714" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1715" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1715" s="52" t="s">
+      <c r="A1715" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="B1715" s="53"/>
-      <c r="C1715" s="53"/>
-      <c r="D1715" s="53"/>
-      <c r="E1715" s="54"/>
+      <c r="B1715" s="54"/>
+      <c r="C1715" s="54"/>
+      <c r="D1715" s="54"/>
+      <c r="E1715" s="55"/>
     </row>
     <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1716" s="5" t="s">
@@ -22773,7 +22779,7 @@
         <f>A1717+C1726-D1717</f>
         <v>-435</v>
       </c>
-      <c r="F1726" s="59">
+      <c r="F1726" s="52">
         <f>F1716-E1726</f>
         <v>455</v>
       </c>
@@ -22789,13 +22795,13 @@
     </row>
     <row r="1729" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1730" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1730" s="52" t="s">
+      <c r="A1730" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="B1730" s="53"/>
-      <c r="C1730" s="53"/>
-      <c r="D1730" s="53"/>
-      <c r="E1730" s="54"/>
+      <c r="B1730" s="54"/>
+      <c r="C1730" s="54"/>
+      <c r="D1730" s="54"/>
+      <c r="E1730" s="55"/>
     </row>
     <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1731" s="5" t="s">
@@ -22879,13 +22885,13 @@
     </row>
     <row r="1738" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1739" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1739" s="52" t="s">
+      <c r="A1739" s="53" t="s">
         <v>526</v>
       </c>
-      <c r="B1739" s="53"/>
-      <c r="C1739" s="53"/>
-      <c r="D1739" s="53"/>
-      <c r="E1739" s="54"/>
+      <c r="B1739" s="54"/>
+      <c r="C1739" s="54"/>
+      <c r="D1739" s="54"/>
+      <c r="E1739" s="55"/>
     </row>
     <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1740" s="5" t="s">
@@ -22979,13 +22985,13 @@
     </row>
     <row r="1748" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1749" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1749" s="52" t="s">
+      <c r="A1749" s="53" t="s">
         <v>530</v>
       </c>
-      <c r="B1749" s="53"/>
-      <c r="C1749" s="53"/>
-      <c r="D1749" s="53"/>
-      <c r="E1749" s="54"/>
+      <c r="B1749" s="54"/>
+      <c r="C1749" s="54"/>
+      <c r="D1749" s="54"/>
+      <c r="E1749" s="55"/>
     </row>
     <row r="1750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1750" s="5" t="s">
@@ -23079,13 +23085,13 @@
     </row>
     <row r="1758" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1759" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1759" s="52" t="s">
+      <c r="A1759" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="B1759" s="53"/>
-      <c r="C1759" s="53"/>
-      <c r="D1759" s="53"/>
-      <c r="E1759" s="54"/>
+      <c r="B1759" s="54"/>
+      <c r="C1759" s="54"/>
+      <c r="D1759" s="54"/>
+      <c r="E1759" s="55"/>
     </row>
     <row r="1760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1760" s="5" t="s">
@@ -23168,13 +23174,13 @@
     </row>
     <row r="1767" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1768" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1768" s="52" t="s">
+      <c r="A1768" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="B1768" s="53"/>
-      <c r="C1768" s="53"/>
-      <c r="D1768" s="53"/>
-      <c r="E1768" s="54"/>
+      <c r="B1768" s="54"/>
+      <c r="C1768" s="54"/>
+      <c r="D1768" s="54"/>
+      <c r="E1768" s="55"/>
     </row>
     <row r="1769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1769" s="5" t="s">
@@ -23301,13 +23307,13 @@
     </row>
     <row r="1780" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1781" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1781" s="52" t="s">
+      <c r="A1781" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="B1781" s="53"/>
-      <c r="C1781" s="53"/>
-      <c r="D1781" s="53"/>
-      <c r="E1781" s="54"/>
+      <c r="B1781" s="54"/>
+      <c r="C1781" s="54"/>
+      <c r="D1781" s="54"/>
+      <c r="E1781" s="55"/>
     </row>
     <row r="1782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1782" s="5" t="s">
@@ -23390,13 +23396,13 @@
     </row>
     <row r="1789" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1790" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1790" s="52" t="s">
+      <c r="A1790" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="B1790" s="53"/>
-      <c r="C1790" s="53"/>
-      <c r="D1790" s="53"/>
-      <c r="E1790" s="54"/>
+      <c r="B1790" s="54"/>
+      <c r="C1790" s="54"/>
+      <c r="D1790" s="54"/>
+      <c r="E1790" s="55"/>
     </row>
     <row r="1791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1791" s="5" t="s">
@@ -23465,13 +23471,13 @@
     </row>
     <row r="1797" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1798" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1798" s="52" t="s">
+      <c r="A1798" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="B1798" s="53"/>
-      <c r="C1798" s="53"/>
-      <c r="D1798" s="53"/>
-      <c r="E1798" s="54"/>
+      <c r="B1798" s="54"/>
+      <c r="C1798" s="54"/>
+      <c r="D1798" s="54"/>
+      <c r="E1798" s="55"/>
     </row>
     <row r="1799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1799" s="5" t="s">
@@ -23565,13 +23571,13 @@
     </row>
     <row r="1807" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1808" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1808" s="52" t="s">
+      <c r="A1808" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="B1808" s="53"/>
-      <c r="C1808" s="53"/>
-      <c r="D1808" s="53"/>
-      <c r="E1808" s="54"/>
+      <c r="B1808" s="54"/>
+      <c r="C1808" s="54"/>
+      <c r="D1808" s="54"/>
+      <c r="E1808" s="55"/>
     </row>
     <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1809" s="5" t="s">
@@ -23654,13 +23660,13 @@
     </row>
     <row r="1816" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1817" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1817" s="52" t="s">
+      <c r="A1817" s="53" t="s">
         <v>550</v>
       </c>
-      <c r="B1817" s="53"/>
-      <c r="C1817" s="53"/>
-      <c r="D1817" s="53"/>
-      <c r="E1817" s="54"/>
+      <c r="B1817" s="54"/>
+      <c r="C1817" s="54"/>
+      <c r="D1817" s="54"/>
+      <c r="E1817" s="55"/>
     </row>
     <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1818" s="5" t="s">
@@ -23743,13 +23749,13 @@
     </row>
     <row r="1825" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1826" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1826" s="52" t="s">
+      <c r="A1826" s="53" t="s">
         <v>551</v>
       </c>
-      <c r="B1826" s="53"/>
-      <c r="C1826" s="53"/>
-      <c r="D1826" s="53"/>
-      <c r="E1826" s="54"/>
+      <c r="B1826" s="54"/>
+      <c r="C1826" s="54"/>
+      <c r="D1826" s="54"/>
+      <c r="E1826" s="55"/>
     </row>
     <row r="1827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1827" s="5" t="s">
@@ -23834,13 +23840,13 @@
     </row>
     <row r="1834" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1835" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1835" s="52" t="s">
+      <c r="A1835" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="B1835" s="53"/>
-      <c r="C1835" s="53"/>
-      <c r="D1835" s="53"/>
-      <c r="E1835" s="54"/>
+      <c r="B1835" s="54"/>
+      <c r="C1835" s="54"/>
+      <c r="D1835" s="54"/>
+      <c r="E1835" s="55"/>
     </row>
     <row r="1836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1836" s="5" t="s">
@@ -23923,13 +23929,13 @@
     </row>
     <row r="1843" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1844" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1844" s="52" t="s">
+      <c r="A1844" s="53" t="s">
         <v>553</v>
       </c>
-      <c r="B1844" s="53"/>
-      <c r="C1844" s="53"/>
-      <c r="D1844" s="53"/>
-      <c r="E1844" s="54"/>
+      <c r="B1844" s="54"/>
+      <c r="C1844" s="54"/>
+      <c r="D1844" s="54"/>
+      <c r="E1844" s="55"/>
     </row>
     <row r="1845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1845" s="5" t="s">
@@ -24012,13 +24018,13 @@
     </row>
     <row r="1852" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1853" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1853" s="52" t="s">
+      <c r="A1853" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="B1853" s="53"/>
-      <c r="C1853" s="53"/>
-      <c r="D1853" s="53"/>
-      <c r="E1853" s="54"/>
+      <c r="B1853" s="54"/>
+      <c r="C1853" s="54"/>
+      <c r="D1853" s="54"/>
+      <c r="E1853" s="55"/>
     </row>
     <row r="1854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1854" s="5" t="s">
@@ -24178,13 +24184,13 @@
     </row>
     <row r="1868" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1869" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1869" s="52" t="s">
+      <c r="A1869" s="53" t="s">
         <v>562</v>
       </c>
-      <c r="B1869" s="53"/>
-      <c r="C1869" s="53"/>
-      <c r="D1869" s="53"/>
-      <c r="E1869" s="54"/>
+      <c r="B1869" s="54"/>
+      <c r="C1869" s="54"/>
+      <c r="D1869" s="54"/>
+      <c r="E1869" s="55"/>
     </row>
     <row r="1870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1870" s="5" t="s">
@@ -24267,13 +24273,13 @@
     </row>
     <row r="1877" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1878" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1878" s="52" t="s">
+      <c r="A1878" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="B1878" s="53"/>
-      <c r="C1878" s="53"/>
-      <c r="D1878" s="53"/>
-      <c r="E1878" s="54"/>
+      <c r="B1878" s="54"/>
+      <c r="C1878" s="54"/>
+      <c r="D1878" s="54"/>
+      <c r="E1878" s="55"/>
     </row>
     <row r="1879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1879" s="5" t="s">
@@ -24356,13 +24362,13 @@
     </row>
     <row r="1886" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1887" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1887" s="52" t="s">
+      <c r="A1887" s="53" t="s">
         <v>564</v>
       </c>
-      <c r="B1887" s="53"/>
-      <c r="C1887" s="53"/>
-      <c r="D1887" s="53"/>
-      <c r="E1887" s="54"/>
+      <c r="B1887" s="54"/>
+      <c r="C1887" s="54"/>
+      <c r="D1887" s="54"/>
+      <c r="E1887" s="55"/>
     </row>
     <row r="1888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1888" s="5" t="s">
@@ -24445,13 +24451,13 @@
     </row>
     <row r="1896" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1897" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1897" s="52" t="s">
+      <c r="A1897" s="53" t="s">
         <v>565</v>
       </c>
-      <c r="B1897" s="53"/>
-      <c r="C1897" s="53"/>
-      <c r="D1897" s="53"/>
-      <c r="E1897" s="54"/>
+      <c r="B1897" s="54"/>
+      <c r="C1897" s="54"/>
+      <c r="D1897" s="54"/>
+      <c r="E1897" s="55"/>
     </row>
     <row r="1898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1898" s="5" t="s">
@@ -24512,13 +24518,13 @@
     </row>
     <row r="1903" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1904" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1904" s="52" t="s">
+      <c r="A1904" s="53" t="s">
         <v>566</v>
       </c>
-      <c r="B1904" s="53"/>
-      <c r="C1904" s="53"/>
-      <c r="D1904" s="53"/>
-      <c r="E1904" s="54"/>
+      <c r="B1904" s="54"/>
+      <c r="C1904" s="54"/>
+      <c r="D1904" s="54"/>
+      <c r="E1904" s="55"/>
     </row>
     <row r="1905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1905" s="5" t="s">
@@ -24539,8 +24545,8 @@
     </row>
     <row r="1906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1906" s="5">
-        <f>E1899</f>
-        <v>0</v>
+        <f>E1900</f>
+        <v>1055</v>
       </c>
       <c r="B1906" s="9" t="s">
         <v>441</v>
@@ -24565,7 +24571,7 @@
       <c r="D1907" s="39"/>
       <c r="E1907" s="49">
         <f>A1906+C1907-D1906</f>
-        <v>350</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1908" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24574,18 +24580,18 @@
       </c>
       <c r="B1908" s="47">
         <f>A1906+C1907</f>
-        <v>350</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1910" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1911" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1911" s="52" t="s">
+      <c r="A1911" s="53" t="s">
         <v>567</v>
       </c>
-      <c r="B1911" s="53"/>
-      <c r="C1911" s="53"/>
-      <c r="D1911" s="53"/>
-      <c r="E1911" s="54"/>
+      <c r="B1911" s="54"/>
+      <c r="C1911" s="54"/>
+      <c r="D1911" s="54"/>
+      <c r="E1911" s="55"/>
     </row>
     <row r="1912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1912" s="5" t="s">
@@ -24606,8 +24612,8 @@
     </row>
     <row r="1913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1913" s="5">
-        <f>E1906</f>
-        <v>0</v>
+        <f>E1907</f>
+        <v>1405</v>
       </c>
       <c r="B1913" s="9" t="s">
         <v>441</v>
@@ -24630,52 +24636,268 @@
         <v>350</v>
       </c>
       <c r="D1914" s="39"/>
-      <c r="E1914" s="49">
+      <c r="E1914" s="45">
         <f>A1913+C1914-D1913</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1915" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="B1915" s="47">
+      <c r="B1915" s="60">
         <f>A1913+C1914</f>
-        <v>350</v>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1918" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1918" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1918" s="54"/>
+      <c r="C1918" s="54"/>
+      <c r="D1918" s="54"/>
+      <c r="E1918" s="55"/>
+    </row>
+    <row r="1919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1919" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1919" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1919" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1919" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1919" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1920" s="5"/>
+      <c r="B1920" s="9"/>
+      <c r="C1920" s="5"/>
+      <c r="D1920" s="48"/>
+      <c r="E1920" s="5"/>
+    </row>
+    <row r="1921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1921" s="5"/>
+      <c r="B1921" s="9"/>
+      <c r="C1921" s="5"/>
+      <c r="D1921" s="48"/>
+      <c r="E1921" s="5"/>
+    </row>
+    <row r="1922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1922" s="5"/>
+      <c r="B1922" s="9"/>
+      <c r="C1922" s="5"/>
+      <c r="D1922" s="48"/>
+      <c r="E1922" s="5"/>
+    </row>
+    <row r="1923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1923" s="5"/>
+      <c r="B1923" s="9"/>
+      <c r="C1923" s="5"/>
+      <c r="D1923" s="48"/>
+      <c r="E1923" s="5"/>
+    </row>
+    <row r="1924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1924" s="5"/>
+      <c r="B1924" s="9"/>
+      <c r="C1924" s="5"/>
+      <c r="D1924" s="48"/>
+      <c r="E1924" s="5"/>
+    </row>
+    <row r="1925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1925" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1925" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1925" s="5">
+        <f>SUM(C1920:C1920)</f>
+        <v>0</v>
+      </c>
+      <c r="D1925" s="39"/>
+      <c r="E1925" s="49">
+        <f>A1920+C1925-D1920</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1926" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1926" s="60">
+        <f>A1920+C1925</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="211">
-    <mergeCell ref="A1911:E1911"/>
-    <mergeCell ref="A1826:E1826"/>
-    <mergeCell ref="A1835:E1835"/>
-    <mergeCell ref="A1844:E1844"/>
-    <mergeCell ref="A1853:E1853"/>
-    <mergeCell ref="A1869:E1869"/>
-    <mergeCell ref="A1878:E1878"/>
-    <mergeCell ref="A1887:E1887"/>
-    <mergeCell ref="A1897:E1897"/>
-    <mergeCell ref="A1904:E1904"/>
-    <mergeCell ref="A1739:E1739"/>
-    <mergeCell ref="A1749:E1749"/>
-    <mergeCell ref="A1759:E1759"/>
-    <mergeCell ref="A1768:E1768"/>
-    <mergeCell ref="A1781:E1781"/>
-    <mergeCell ref="A1790:E1790"/>
-    <mergeCell ref="A1798:E1798"/>
-    <mergeCell ref="A1808:E1808"/>
-    <mergeCell ref="A1817:E1817"/>
-    <mergeCell ref="A1705:E1705"/>
-    <mergeCell ref="A1715:E1715"/>
-    <mergeCell ref="A1604:E1604"/>
-    <mergeCell ref="A1615:E1615"/>
-    <mergeCell ref="A1626:E1626"/>
-    <mergeCell ref="A1637:E1637"/>
-    <mergeCell ref="A1648:E1648"/>
-    <mergeCell ref="A1658:E1658"/>
-    <mergeCell ref="A1669:E1669"/>
-    <mergeCell ref="A1682:E1682"/>
-    <mergeCell ref="A1694:E1694"/>
+  <mergeCells count="212">
+    <mergeCell ref="A1918:E1918"/>
+    <mergeCell ref="A1730:E1730"/>
+    <mergeCell ref="A1273:E1273"/>
+    <mergeCell ref="A1281:E1281"/>
+    <mergeCell ref="A1289:E1289"/>
+    <mergeCell ref="A1297:E1297"/>
+    <mergeCell ref="A1112:E1112"/>
+    <mergeCell ref="A1121:E1121"/>
+    <mergeCell ref="A1099:E1099"/>
+    <mergeCell ref="A1059:E1059"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1075:E1075"/>
+    <mergeCell ref="A1083:E1083"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1532:E1532"/>
+    <mergeCell ref="A1542:E1542"/>
+    <mergeCell ref="A1213:E1213"/>
+    <mergeCell ref="A1218:E1218"/>
+    <mergeCell ref="A1225:E1225"/>
+    <mergeCell ref="A1134:E1134"/>
+    <mergeCell ref="A1143:E1143"/>
+    <mergeCell ref="A1161:E1161"/>
+    <mergeCell ref="A1169:E1169"/>
+    <mergeCell ref="A1182:E1182"/>
+    <mergeCell ref="A1189:E1189"/>
+    <mergeCell ref="A1013:E1013"/>
+    <mergeCell ref="A1022:E1022"/>
+    <mergeCell ref="A1033:E1033"/>
+    <mergeCell ref="A1042:E1042"/>
+    <mergeCell ref="A1051:E1051"/>
+    <mergeCell ref="A1008:E1008"/>
+    <mergeCell ref="A907:E907"/>
+    <mergeCell ref="A916:E916"/>
+    <mergeCell ref="A928:E928"/>
+    <mergeCell ref="A938:E938"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A962:E962"/>
+    <mergeCell ref="A898:E898"/>
+    <mergeCell ref="A970:E970"/>
+    <mergeCell ref="A980:E980"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A997:E997"/>
+    <mergeCell ref="A848:E848"/>
+    <mergeCell ref="A857:E857"/>
+    <mergeCell ref="A866:E866"/>
+    <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A889:E889"/>
+    <mergeCell ref="A804:E804"/>
+    <mergeCell ref="A811:E811"/>
+    <mergeCell ref="A819:E819"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A838:E838"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A232:E232"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A254:E254"/>
+    <mergeCell ref="A264:E264"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A292:E292"/>
+    <mergeCell ref="A403:E403"/>
+    <mergeCell ref="A309:E309"/>
+    <mergeCell ref="A314:E314"/>
+    <mergeCell ref="A322:E322"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A342:E342"/>
+    <mergeCell ref="A351:E351"/>
+    <mergeCell ref="A360:E360"/>
+    <mergeCell ref="A368:E368"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A396:E396"/>
+    <mergeCell ref="A507:E507"/>
+    <mergeCell ref="A414:E414"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A434:E434"/>
+    <mergeCell ref="A442:E442"/>
+    <mergeCell ref="A450:E450"/>
+    <mergeCell ref="A458:E458"/>
+    <mergeCell ref="A467:E467"/>
+    <mergeCell ref="A475:E475"/>
+    <mergeCell ref="A483:E483"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A499:E499"/>
+    <mergeCell ref="A605:E605"/>
+    <mergeCell ref="A515:E515"/>
+    <mergeCell ref="A526:E526"/>
+    <mergeCell ref="A533:E533"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A557:E557"/>
+    <mergeCell ref="A565:E565"/>
+    <mergeCell ref="A573:E573"/>
+    <mergeCell ref="A581:E581"/>
+    <mergeCell ref="A589:E589"/>
+    <mergeCell ref="A598:E598"/>
+    <mergeCell ref="A714:E714"/>
+    <mergeCell ref="A616:E616"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A633:E633"/>
+    <mergeCell ref="A642:E642"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A658:E658"/>
+    <mergeCell ref="A674:E674"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:E686"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A704:E704"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A786:E786"/>
+    <mergeCell ref="A793:E793"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A735:E735"/>
+    <mergeCell ref="A744:E744"/>
+    <mergeCell ref="A753:E753"/>
+    <mergeCell ref="A762:E762"/>
+    <mergeCell ref="A770:E770"/>
+    <mergeCell ref="A1198:E1198"/>
+    <mergeCell ref="A1206:E1206"/>
+    <mergeCell ref="A1153:E1153"/>
+    <mergeCell ref="A1341:E1341"/>
+    <mergeCell ref="A1305:E1305"/>
+    <mergeCell ref="A1313:E1313"/>
+    <mergeCell ref="A1321:E1321"/>
+    <mergeCell ref="A1328:E1328"/>
+    <mergeCell ref="A1230:E1230"/>
+    <mergeCell ref="A1239:E1239"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1257:E1257"/>
+    <mergeCell ref="A1265:E1265"/>
     <mergeCell ref="A1552:E1552"/>
     <mergeCell ref="A1562:E1562"/>
     <mergeCell ref="A1571:E1571"/>
@@ -24700,163 +24922,36 @@
     <mergeCell ref="A1495:E1495"/>
     <mergeCell ref="A1507:E1507"/>
     <mergeCell ref="A1523:E1523"/>
-    <mergeCell ref="A1198:E1198"/>
-    <mergeCell ref="A1206:E1206"/>
-    <mergeCell ref="A1153:E1153"/>
-    <mergeCell ref="A1341:E1341"/>
-    <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1313:E1313"/>
-    <mergeCell ref="A1321:E1321"/>
-    <mergeCell ref="A1328:E1328"/>
-    <mergeCell ref="A1230:E1230"/>
-    <mergeCell ref="A1239:E1239"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1257:E1257"/>
-    <mergeCell ref="A1265:E1265"/>
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A786:E786"/>
-    <mergeCell ref="A793:E793"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A735:E735"/>
-    <mergeCell ref="A744:E744"/>
-    <mergeCell ref="A753:E753"/>
-    <mergeCell ref="A762:E762"/>
-    <mergeCell ref="A770:E770"/>
-    <mergeCell ref="A714:E714"/>
-    <mergeCell ref="A616:E616"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A633:E633"/>
-    <mergeCell ref="A642:E642"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A658:E658"/>
-    <mergeCell ref="A674:E674"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:E686"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A704:E704"/>
-    <mergeCell ref="A605:E605"/>
-    <mergeCell ref="A515:E515"/>
-    <mergeCell ref="A526:E526"/>
-    <mergeCell ref="A533:E533"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A557:E557"/>
-    <mergeCell ref="A565:E565"/>
-    <mergeCell ref="A573:E573"/>
-    <mergeCell ref="A581:E581"/>
-    <mergeCell ref="A589:E589"/>
-    <mergeCell ref="A598:E598"/>
-    <mergeCell ref="A507:E507"/>
-    <mergeCell ref="A414:E414"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A434:E434"/>
-    <mergeCell ref="A442:E442"/>
-    <mergeCell ref="A450:E450"/>
-    <mergeCell ref="A458:E458"/>
-    <mergeCell ref="A467:E467"/>
-    <mergeCell ref="A475:E475"/>
-    <mergeCell ref="A483:E483"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A499:E499"/>
-    <mergeCell ref="A403:E403"/>
-    <mergeCell ref="A309:E309"/>
-    <mergeCell ref="A314:E314"/>
-    <mergeCell ref="A322:E322"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A342:E342"/>
-    <mergeCell ref="A351:E351"/>
-    <mergeCell ref="A360:E360"/>
-    <mergeCell ref="A368:E368"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="A386:E386"/>
-    <mergeCell ref="A396:E396"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="A232:E232"/>
-    <mergeCell ref="A237:E237"/>
-    <mergeCell ref="A244:E244"/>
-    <mergeCell ref="A254:E254"/>
-    <mergeCell ref="A264:E264"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A292:E292"/>
-    <mergeCell ref="A804:E804"/>
-    <mergeCell ref="A811:E811"/>
-    <mergeCell ref="A819:E819"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A838:E838"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A898:E898"/>
-    <mergeCell ref="A970:E970"/>
-    <mergeCell ref="A980:E980"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A997:E997"/>
-    <mergeCell ref="A848:E848"/>
-    <mergeCell ref="A857:E857"/>
-    <mergeCell ref="A866:E866"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A889:E889"/>
-    <mergeCell ref="A1013:E1013"/>
-    <mergeCell ref="A1022:E1022"/>
-    <mergeCell ref="A1033:E1033"/>
-    <mergeCell ref="A1042:E1042"/>
-    <mergeCell ref="A1051:E1051"/>
-    <mergeCell ref="A1008:E1008"/>
-    <mergeCell ref="A907:E907"/>
-    <mergeCell ref="A916:E916"/>
-    <mergeCell ref="A928:E928"/>
-    <mergeCell ref="A938:E938"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A962:E962"/>
-    <mergeCell ref="A1730:E1730"/>
-    <mergeCell ref="A1273:E1273"/>
-    <mergeCell ref="A1281:E1281"/>
-    <mergeCell ref="A1289:E1289"/>
-    <mergeCell ref="A1297:E1297"/>
-    <mergeCell ref="A1112:E1112"/>
-    <mergeCell ref="A1121:E1121"/>
-    <mergeCell ref="A1099:E1099"/>
-    <mergeCell ref="A1059:E1059"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1075:E1075"/>
-    <mergeCell ref="A1083:E1083"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1532:E1532"/>
-    <mergeCell ref="A1542:E1542"/>
-    <mergeCell ref="A1213:E1213"/>
-    <mergeCell ref="A1218:E1218"/>
-    <mergeCell ref="A1225:E1225"/>
-    <mergeCell ref="A1134:E1134"/>
-    <mergeCell ref="A1143:E1143"/>
-    <mergeCell ref="A1161:E1161"/>
-    <mergeCell ref="A1169:E1169"/>
-    <mergeCell ref="A1182:E1182"/>
-    <mergeCell ref="A1189:E1189"/>
+    <mergeCell ref="A1705:E1705"/>
+    <mergeCell ref="A1715:E1715"/>
+    <mergeCell ref="A1604:E1604"/>
+    <mergeCell ref="A1615:E1615"/>
+    <mergeCell ref="A1626:E1626"/>
+    <mergeCell ref="A1637:E1637"/>
+    <mergeCell ref="A1648:E1648"/>
+    <mergeCell ref="A1658:E1658"/>
+    <mergeCell ref="A1669:E1669"/>
+    <mergeCell ref="A1682:E1682"/>
+    <mergeCell ref="A1694:E1694"/>
+    <mergeCell ref="A1739:E1739"/>
+    <mergeCell ref="A1749:E1749"/>
+    <mergeCell ref="A1759:E1759"/>
+    <mergeCell ref="A1768:E1768"/>
+    <mergeCell ref="A1781:E1781"/>
+    <mergeCell ref="A1790:E1790"/>
+    <mergeCell ref="A1798:E1798"/>
+    <mergeCell ref="A1808:E1808"/>
+    <mergeCell ref="A1817:E1817"/>
+    <mergeCell ref="A1911:E1911"/>
+    <mergeCell ref="A1826:E1826"/>
+    <mergeCell ref="A1835:E1835"/>
+    <mergeCell ref="A1844:E1844"/>
+    <mergeCell ref="A1853:E1853"/>
+    <mergeCell ref="A1869:E1869"/>
+    <mergeCell ref="A1878:E1878"/>
+    <mergeCell ref="A1887:E1887"/>
+    <mergeCell ref="A1897:E1897"/>
+    <mergeCell ref="A1904:E1904"/>
   </mergeCells>
   <pageMargins left="0.81" right="0.7" top="0.31" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>

--- a/VICKY FIELD.xlsx
+++ b/VICKY FIELD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="647">
   <si>
     <t>06.04.23 &amp; 07.04.23 (DELHI)</t>
   </si>
@@ -1767,6 +1767,195 @@
   </si>
   <si>
     <t>30.06.24</t>
+  </si>
+  <si>
+    <t>03.07.24</t>
+  </si>
+  <si>
+    <t>04.07.24</t>
+  </si>
+  <si>
+    <t>BARRA TO GHANTA GHAR</t>
+  </si>
+  <si>
+    <t>KANPUR TO VADHORA</t>
+  </si>
+  <si>
+    <t>VADHORA TO BHARAT</t>
+  </si>
+  <si>
+    <t>BHARWT TO DAHEJ</t>
+  </si>
+  <si>
+    <t>DAHEJ TO PLANT</t>
+  </si>
+  <si>
+    <t>PLANT OT DAHEJ</t>
+  </si>
+  <si>
+    <t>05.07.24</t>
+  </si>
+  <si>
+    <t>06.07.24</t>
+  </si>
+  <si>
+    <t>07.07.24</t>
+  </si>
+  <si>
+    <t>DAHEJ TO BHARICH</t>
+  </si>
+  <si>
+    <t>BHARICH TO SURAT</t>
+  </si>
+  <si>
+    <t>ANKUR CASH</t>
+  </si>
+  <si>
+    <t>SURAT TO AMBALA</t>
+  </si>
+  <si>
+    <t>08.07.24</t>
+  </si>
+  <si>
+    <t>AMBALA TO HOTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTEL EXP. </t>
+  </si>
+  <si>
+    <t>09.07.24</t>
+  </si>
+  <si>
+    <t>AMBALA TO BARNALA</t>
+  </si>
+  <si>
+    <t>BARNALA TO PLANT</t>
+  </si>
+  <si>
+    <t>10.07.24</t>
+  </si>
+  <si>
+    <t>11.07.24</t>
+  </si>
+  <si>
+    <t>HOTEL EXP</t>
+  </si>
+  <si>
+    <t>HOTEL TO DHANULA</t>
+  </si>
+  <si>
+    <t>DRINK &amp; KHARCHA</t>
+  </si>
+  <si>
+    <t>DHANULA TO HOTEL</t>
+  </si>
+  <si>
+    <t>12.07.24</t>
+  </si>
+  <si>
+    <t>13.07.24</t>
+  </si>
+  <si>
+    <t>BARNALA TO SIRSA</t>
+  </si>
+  <si>
+    <t>SIRSA TO PLANT</t>
+  </si>
+  <si>
+    <t>PLANTO TO HOTEL</t>
+  </si>
+  <si>
+    <t>14.07.24</t>
+  </si>
+  <si>
+    <t>15.07.24</t>
+  </si>
+  <si>
+    <t>16.07.24</t>
+  </si>
+  <si>
+    <t>17.07.24</t>
+  </si>
+  <si>
+    <t>18.07.24</t>
+  </si>
+  <si>
+    <t>BHATINDA TO AMBALA</t>
+  </si>
+  <si>
+    <t>AMBALA TO SURAT</t>
+  </si>
+  <si>
+    <t>SIRSA TO BHATINDA</t>
+  </si>
+  <si>
+    <t>19.07.24</t>
+  </si>
+  <si>
+    <t>SURAT TO BHARICH</t>
+  </si>
+  <si>
+    <t>BHARICH TO DAHEJ</t>
+  </si>
+  <si>
+    <t>20.07.24</t>
+  </si>
+  <si>
+    <t>21.07.24</t>
+  </si>
+  <si>
+    <t>22.07.24</t>
+  </si>
+  <si>
+    <t>23.07.24</t>
+  </si>
+  <si>
+    <t>BHARICH TO LAB</t>
+  </si>
+  <si>
+    <t>BHARICH TO DAHEJ PLANT</t>
+  </si>
+  <si>
+    <t>PLANT TO DAHEJ</t>
+  </si>
+  <si>
+    <t>24.07.24</t>
+  </si>
+  <si>
+    <t>25.07.24</t>
+  </si>
+  <si>
+    <t>26.07.24</t>
+  </si>
+  <si>
+    <t>27.07.24</t>
+  </si>
+  <si>
+    <t>28.07.24</t>
+  </si>
+  <si>
+    <t>29.07.24</t>
+  </si>
+  <si>
+    <t>30.07.24</t>
+  </si>
+  <si>
+    <t>31.07.24</t>
+  </si>
+  <si>
+    <t>01.08.24</t>
+  </si>
+  <si>
+    <t>02.08.24</t>
+  </si>
+  <si>
+    <t>03.08.24</t>
+  </si>
+  <si>
+    <t>SUPER VISAR</t>
+  </si>
+  <si>
+    <t>04.08.24</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +2048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2190,11 +2379,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2352,6 +2587,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2361,9 +2599,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2666,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1982"/>
+  <dimension ref="A1:L2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1969" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1982" sqref="C1982"/>
+    <sheetView tabSelected="1" topLeftCell="A2284" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2009" sqref="D2009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2684,13 +2933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -2861,13 +3110,13 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" s="15" t="s">
@@ -3058,13 +3307,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
       <c r="G23" s="5" t="s">
         <v>270</v>
       </c>
@@ -3252,13 +3501,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
       <c r="H31" s="36" t="s">
         <v>276</v>
       </c>
@@ -3424,13 +3673,13 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
       <c r="H39" s="36" t="s">
         <v>285</v>
       </c>
@@ -3576,13 +3825,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
       <c r="H46" s="36" t="s">
         <v>292</v>
       </c>
@@ -3749,13 +3998,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
@@ -3838,13 +4087,13 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
@@ -3938,13 +4187,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
@@ -4038,13 +4287,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="60"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
@@ -4138,13 +4387,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="60"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
@@ -4245,13 +4494,13 @@
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="60"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
@@ -4356,13 +4605,13 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A104" s="57" t="s">
+      <c r="A104" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="60"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
@@ -4467,13 +4716,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A113" s="57" t="s">
+      <c r="A113" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
@@ -4578,13 +4827,13 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="60"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
@@ -4669,13 +4918,13 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="60"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
@@ -4780,13 +5029,13 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A138" s="57" t="s">
+      <c r="A138" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="59"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="60"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
@@ -4847,13 +5096,13 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A143" s="57" t="s">
+      <c r="A143" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="59"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="60"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
@@ -4998,13 +5247,13 @@
       <c r="E155" s="23"/>
     </row>
     <row r="156" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A156" s="57" t="s">
+      <c r="A156" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="59"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="59"/>
+      <c r="E156" s="60"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
@@ -5085,13 +5334,13 @@
       <c r="E162" s="23"/>
     </row>
     <row r="163" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A163" s="57" t="s">
+      <c r="A163" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="59"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="60"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
@@ -5194,13 +5443,13 @@
       <c r="E171" s="23"/>
     </row>
     <row r="172" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A172" s="57" t="s">
+      <c r="A172" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="60"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
@@ -5292,13 +5541,13 @@
       <c r="E179" s="23"/>
     </row>
     <row r="180" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A180" s="57" t="s">
+      <c r="A180" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="59"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="60"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
@@ -5401,13 +5650,13 @@
       <c r="E188" s="23"/>
     </row>
     <row r="189" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A189" s="57" t="s">
+      <c r="A189" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="59"/>
+      <c r="B189" s="59"/>
+      <c r="C189" s="59"/>
+      <c r="D189" s="59"/>
+      <c r="E189" s="60"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
@@ -5490,13 +5739,13 @@
       <c r="E195" s="23"/>
     </row>
     <row r="196" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A196" s="57" t="s">
+      <c r="A196" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="59"/>
+      <c r="B196" s="59"/>
+      <c r="C196" s="59"/>
+      <c r="D196" s="59"/>
+      <c r="E196" s="60"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
@@ -5597,13 +5846,13 @@
       <c r="E204" s="23"/>
     </row>
     <row r="205" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A205" s="57" t="s">
+      <c r="A205" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B205" s="58"/>
-      <c r="C205" s="58"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="59"/>
+      <c r="B205" s="59"/>
+      <c r="C205" s="59"/>
+      <c r="D205" s="59"/>
+      <c r="E205" s="60"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
@@ -5726,13 +5975,13 @@
       <c r="E215" s="23"/>
     </row>
     <row r="216" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A216" s="57" t="s">
+      <c r="A216" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B216" s="58"/>
-      <c r="C216" s="58"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="59"/>
+      <c r="B216" s="59"/>
+      <c r="C216" s="59"/>
+      <c r="D216" s="59"/>
+      <c r="E216" s="60"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
@@ -5804,13 +6053,13 @@
       <c r="E221" s="23"/>
     </row>
     <row r="222" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A222" s="57" t="s">
+      <c r="A222" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B222" s="58"/>
-      <c r="C222" s="58"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="59"/>
+      <c r="B222" s="59"/>
+      <c r="C222" s="59"/>
+      <c r="D222" s="59"/>
+      <c r="E222" s="60"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
@@ -5922,13 +6171,13 @@
       <c r="E231" s="23"/>
     </row>
     <row r="232" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A232" s="57" t="s">
+      <c r="A232" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B232" s="58"/>
-      <c r="C232" s="58"/>
-      <c r="D232" s="58"/>
-      <c r="E232" s="59"/>
+      <c r="B232" s="59"/>
+      <c r="C232" s="59"/>
+      <c r="D232" s="59"/>
+      <c r="E232" s="60"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
@@ -5985,13 +6234,13 @@
       <c r="E236" s="23"/>
     </row>
     <row r="237" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A237" s="57" t="s">
+      <c r="A237" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B237" s="58"/>
-      <c r="C237" s="58"/>
-      <c r="D237" s="58"/>
-      <c r="E237" s="59"/>
+      <c r="B237" s="59"/>
+      <c r="C237" s="59"/>
+      <c r="D237" s="59"/>
+      <c r="E237" s="60"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
@@ -6074,13 +6323,13 @@
       <c r="E243" s="23"/>
     </row>
     <row r="244" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A244" s="57" t="s">
+      <c r="A244" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B244" s="58"/>
-      <c r="C244" s="58"/>
-      <c r="D244" s="58"/>
-      <c r="E244" s="59"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="59"/>
+      <c r="D244" s="59"/>
+      <c r="E244" s="60"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
@@ -6192,13 +6441,13 @@
       <c r="E253" s="23"/>
     </row>
     <row r="254" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A254" s="57" t="s">
+      <c r="A254" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B254" s="58"/>
-      <c r="C254" s="58"/>
-      <c r="D254" s="58"/>
-      <c r="E254" s="59"/>
+      <c r="B254" s="59"/>
+      <c r="C254" s="59"/>
+      <c r="D254" s="59"/>
+      <c r="E254" s="60"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
@@ -6310,13 +6559,13 @@
       <c r="E263" s="23"/>
     </row>
     <row r="264" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A264" s="57" t="s">
+      <c r="A264" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B264" s="58"/>
-      <c r="C264" s="58"/>
-      <c r="D264" s="58"/>
-      <c r="E264" s="59"/>
+      <c r="B264" s="59"/>
+      <c r="C264" s="59"/>
+      <c r="D264" s="59"/>
+      <c r="E264" s="60"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
@@ -6417,13 +6666,13 @@
       <c r="E272" s="23"/>
     </row>
     <row r="273" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A273" s="57" t="s">
+      <c r="A273" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B273" s="58"/>
-      <c r="C273" s="58"/>
-      <c r="D273" s="58"/>
-      <c r="E273" s="59"/>
+      <c r="B273" s="59"/>
+      <c r="C273" s="59"/>
+      <c r="D273" s="59"/>
+      <c r="E273" s="60"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
@@ -6546,13 +6795,13 @@
       <c r="E283" s="23"/>
     </row>
     <row r="284" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A284" s="57" t="s">
+      <c r="A284" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B284" s="58"/>
-      <c r="C284" s="58"/>
-      <c r="D284" s="58"/>
-      <c r="E284" s="59"/>
+      <c r="B284" s="59"/>
+      <c r="C284" s="59"/>
+      <c r="D284" s="59"/>
+      <c r="E284" s="60"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
@@ -6638,13 +6887,13 @@
       <c r="E291" s="23"/>
     </row>
     <row r="292" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A292" s="57" t="s">
+      <c r="A292" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B292" s="58"/>
-      <c r="C292" s="58"/>
-      <c r="D292" s="58"/>
-      <c r="E292" s="59"/>
+      <c r="B292" s="59"/>
+      <c r="C292" s="59"/>
+      <c r="D292" s="59"/>
+      <c r="E292" s="60"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
@@ -6756,13 +7005,13 @@
       <c r="E301" s="23"/>
     </row>
     <row r="302" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A302" s="57" t="s">
+      <c r="A302" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B302" s="58"/>
-      <c r="C302" s="58"/>
-      <c r="D302" s="58"/>
-      <c r="E302" s="59"/>
+      <c r="B302" s="59"/>
+      <c r="C302" s="59"/>
+      <c r="D302" s="59"/>
+      <c r="E302" s="60"/>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
@@ -6841,13 +7090,13 @@
       <c r="E308" s="23"/>
     </row>
     <row r="309" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A309" s="57" t="s">
+      <c r="A309" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B309" s="58"/>
-      <c r="C309" s="58"/>
-      <c r="D309" s="58"/>
-      <c r="E309" s="59"/>
+      <c r="B309" s="59"/>
+      <c r="C309" s="59"/>
+      <c r="D309" s="59"/>
+      <c r="E309" s="60"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
@@ -6907,10 +7156,10 @@
       <c r="A314" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B314" s="58"/>
-      <c r="C314" s="58"/>
-      <c r="D314" s="58"/>
-      <c r="E314" s="59"/>
+      <c r="B314" s="59"/>
+      <c r="C314" s="59"/>
+      <c r="D314" s="59"/>
+      <c r="E314" s="60"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="5" t="s">
@@ -6998,13 +7247,13 @@
       <c r="E321" s="23"/>
     </row>
     <row r="322" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A322" s="57" t="s">
+      <c r="A322" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B322" s="58"/>
-      <c r="C322" s="58"/>
-      <c r="D322" s="58"/>
-      <c r="E322" s="59"/>
+      <c r="B322" s="59"/>
+      <c r="C322" s="59"/>
+      <c r="D322" s="59"/>
+      <c r="E322" s="60"/>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
@@ -7087,13 +7336,13 @@
       <c r="E328" s="23"/>
     </row>
     <row r="329" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A329" s="57" t="s">
+      <c r="A329" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B329" s="58"/>
-      <c r="C329" s="58"/>
-      <c r="D329" s="58"/>
-      <c r="E329" s="59"/>
+      <c r="B329" s="59"/>
+      <c r="C329" s="59"/>
+      <c r="D329" s="59"/>
+      <c r="E329" s="60"/>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
@@ -7236,13 +7485,13 @@
       <c r="E341" s="23"/>
     </row>
     <row r="342" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A342" s="57" t="s">
+      <c r="A342" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B342" s="58"/>
-      <c r="C342" s="58"/>
-      <c r="D342" s="58"/>
-      <c r="E342" s="59"/>
+      <c r="B342" s="59"/>
+      <c r="C342" s="59"/>
+      <c r="D342" s="59"/>
+      <c r="E342" s="60"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
@@ -7343,13 +7592,13 @@
       <c r="E350" s="23"/>
     </row>
     <row r="351" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A351" s="57" t="s">
+      <c r="A351" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="B351" s="58"/>
-      <c r="C351" s="58"/>
-      <c r="D351" s="58"/>
-      <c r="E351" s="59"/>
+      <c r="B351" s="59"/>
+      <c r="C351" s="59"/>
+      <c r="D351" s="59"/>
+      <c r="E351" s="60"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
@@ -7450,13 +7699,13 @@
       <c r="E359" s="23"/>
     </row>
     <row r="360" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A360" s="57" t="s">
+      <c r="A360" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B360" s="58"/>
-      <c r="C360" s="58"/>
-      <c r="D360" s="58"/>
-      <c r="E360" s="59"/>
+      <c r="B360" s="59"/>
+      <c r="C360" s="59"/>
+      <c r="D360" s="59"/>
+      <c r="E360" s="60"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
@@ -7546,13 +7795,13 @@
       <c r="E367" s="23"/>
     </row>
     <row r="368" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A368" s="57" t="s">
+      <c r="A368" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B368" s="58"/>
-      <c r="C368" s="58"/>
-      <c r="D368" s="58"/>
-      <c r="E368" s="59"/>
+      <c r="B368" s="59"/>
+      <c r="C368" s="59"/>
+      <c r="D368" s="59"/>
+      <c r="E368" s="60"/>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
@@ -7653,13 +7902,13 @@
       <c r="E376" s="23"/>
     </row>
     <row r="377" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A377" s="57" t="s">
+      <c r="A377" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B377" s="58"/>
-      <c r="C377" s="58"/>
-      <c r="D377" s="58"/>
-      <c r="E377" s="59"/>
+      <c r="B377" s="59"/>
+      <c r="C377" s="59"/>
+      <c r="D377" s="59"/>
+      <c r="E377" s="60"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="1" t="s">
@@ -7760,13 +8009,13 @@
       <c r="E385" s="23"/>
     </row>
     <row r="386" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A386" s="57" t="s">
+      <c r="A386" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B386" s="58"/>
-      <c r="C386" s="58"/>
-      <c r="D386" s="58"/>
-      <c r="E386" s="59"/>
+      <c r="B386" s="59"/>
+      <c r="C386" s="59"/>
+      <c r="D386" s="59"/>
+      <c r="E386" s="60"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="1" t="s">
@@ -7878,13 +8127,13 @@
       <c r="E395" s="14"/>
     </row>
     <row r="396" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A396" s="57" t="s">
+      <c r="A396" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B396" s="58"/>
-      <c r="C396" s="58"/>
-      <c r="D396" s="58"/>
-      <c r="E396" s="59"/>
+      <c r="B396" s="59"/>
+      <c r="C396" s="59"/>
+      <c r="D396" s="59"/>
+      <c r="E396" s="60"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="1" t="s">
@@ -7963,13 +8212,13 @@
       <c r="E402" s="14"/>
     </row>
     <row r="403" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A403" s="57" t="s">
+      <c r="A403" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B403" s="58"/>
-      <c r="C403" s="58"/>
-      <c r="D403" s="58"/>
-      <c r="E403" s="59"/>
+      <c r="B403" s="59"/>
+      <c r="C403" s="59"/>
+      <c r="D403" s="59"/>
+      <c r="E403" s="60"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="1" t="s">
@@ -8092,13 +8341,13 @@
       <c r="E413" s="14"/>
     </row>
     <row r="414" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A414" s="57" t="s">
+      <c r="A414" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B414" s="58"/>
-      <c r="C414" s="58"/>
-      <c r="D414" s="58"/>
-      <c r="E414" s="59"/>
+      <c r="B414" s="59"/>
+      <c r="C414" s="59"/>
+      <c r="D414" s="59"/>
+      <c r="E414" s="60"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="1" t="s">
@@ -8210,13 +8459,13 @@
       <c r="E423" s="14"/>
     </row>
     <row r="424" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A424" s="57" t="s">
+      <c r="A424" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B424" s="58"/>
-      <c r="C424" s="58"/>
-      <c r="D424" s="58"/>
-      <c r="E424" s="59"/>
+      <c r="B424" s="59"/>
+      <c r="C424" s="59"/>
+      <c r="D424" s="59"/>
+      <c r="E424" s="60"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="1" t="s">
@@ -8328,13 +8577,13 @@
       <c r="E433" s="14"/>
     </row>
     <row r="434" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A434" s="57" t="s">
+      <c r="A434" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="B434" s="58"/>
-      <c r="C434" s="58"/>
-      <c r="D434" s="58"/>
-      <c r="E434" s="59"/>
+      <c r="B434" s="59"/>
+      <c r="C434" s="59"/>
+      <c r="D434" s="59"/>
+      <c r="E434" s="60"/>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="1" t="s">
@@ -8426,13 +8675,13 @@
       <c r="E441" s="14"/>
     </row>
     <row r="442" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A442" s="57" t="s">
+      <c r="A442" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B442" s="58"/>
-      <c r="C442" s="58"/>
-      <c r="D442" s="58"/>
-      <c r="E442" s="59"/>
+      <c r="B442" s="59"/>
+      <c r="C442" s="59"/>
+      <c r="D442" s="59"/>
+      <c r="E442" s="60"/>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="1" t="s">
@@ -8522,13 +8771,13 @@
       <c r="E449" s="14"/>
     </row>
     <row r="450" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A450" s="57" t="s">
+      <c r="A450" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="B450" s="58"/>
-      <c r="C450" s="58"/>
-      <c r="D450" s="58"/>
-      <c r="E450" s="59"/>
+      <c r="B450" s="59"/>
+      <c r="C450" s="59"/>
+      <c r="D450" s="59"/>
+      <c r="E450" s="60"/>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="1" t="s">
@@ -8618,13 +8867,13 @@
       <c r="E457" s="14"/>
     </row>
     <row r="458" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A458" s="57" t="s">
+      <c r="A458" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B458" s="58"/>
-      <c r="C458" s="58"/>
-      <c r="D458" s="58"/>
-      <c r="E458" s="59"/>
+      <c r="B458" s="59"/>
+      <c r="C458" s="59"/>
+      <c r="D458" s="59"/>
+      <c r="E458" s="60"/>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="1" t="s">
@@ -8725,13 +8974,13 @@
       <c r="E466" s="14"/>
     </row>
     <row r="467" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A467" s="57" t="s">
+      <c r="A467" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B467" s="58"/>
-      <c r="C467" s="58"/>
-      <c r="D467" s="58"/>
-      <c r="E467" s="59"/>
+      <c r="B467" s="59"/>
+      <c r="C467" s="59"/>
+      <c r="D467" s="59"/>
+      <c r="E467" s="60"/>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="1" t="s">
@@ -8821,13 +9070,13 @@
       <c r="E474" s="14"/>
     </row>
     <row r="475" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A475" s="57" t="s">
+      <c r="A475" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B475" s="58"/>
-      <c r="C475" s="58"/>
-      <c r="D475" s="58"/>
-      <c r="E475" s="59"/>
+      <c r="B475" s="59"/>
+      <c r="C475" s="59"/>
+      <c r="D475" s="59"/>
+      <c r="E475" s="60"/>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
@@ -8919,13 +9168,13 @@
       <c r="E482" s="14"/>
     </row>
     <row r="483" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A483" s="57" t="s">
+      <c r="A483" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B483" s="58"/>
-      <c r="C483" s="58"/>
-      <c r="D483" s="58"/>
-      <c r="E483" s="59"/>
+      <c r="B483" s="59"/>
+      <c r="C483" s="59"/>
+      <c r="D483" s="59"/>
+      <c r="E483" s="60"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="1" t="s">
@@ -9015,13 +9264,13 @@
       <c r="E490" s="14"/>
     </row>
     <row r="491" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A491" s="57" t="s">
+      <c r="A491" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B491" s="58"/>
-      <c r="C491" s="58"/>
-      <c r="D491" s="58"/>
-      <c r="E491" s="59"/>
+      <c r="B491" s="59"/>
+      <c r="C491" s="59"/>
+      <c r="D491" s="59"/>
+      <c r="E491" s="60"/>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="1" t="s">
@@ -9111,13 +9360,13 @@
       <c r="E498" s="14"/>
     </row>
     <row r="499" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A499" s="57" t="s">
+      <c r="A499" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B499" s="58"/>
-      <c r="C499" s="58"/>
-      <c r="D499" s="58"/>
-      <c r="E499" s="59"/>
+      <c r="B499" s="59"/>
+      <c r="C499" s="59"/>
+      <c r="D499" s="59"/>
+      <c r="E499" s="60"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="1" t="s">
@@ -9207,13 +9456,13 @@
       <c r="E506" s="14"/>
     </row>
     <row r="507" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A507" s="57" t="s">
+      <c r="A507" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B507" s="58"/>
-      <c r="C507" s="58"/>
-      <c r="D507" s="58"/>
-      <c r="E507" s="59"/>
+      <c r="B507" s="59"/>
+      <c r="C507" s="59"/>
+      <c r="D507" s="59"/>
+      <c r="E507" s="60"/>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="1" t="s">
@@ -9303,13 +9552,13 @@
       <c r="E514" s="14"/>
     </row>
     <row r="515" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A515" s="57" t="s">
+      <c r="A515" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="B515" s="58"/>
-      <c r="C515" s="58"/>
-      <c r="D515" s="58"/>
-      <c r="E515" s="59"/>
+      <c r="B515" s="59"/>
+      <c r="C515" s="59"/>
+      <c r="D515" s="59"/>
+      <c r="E515" s="60"/>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="1" t="s">
@@ -9432,13 +9681,13 @@
       <c r="E525" s="29"/>
     </row>
     <row r="526" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A526" s="57" t="s">
+      <c r="A526" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="B526" s="58"/>
-      <c r="C526" s="58"/>
-      <c r="D526" s="58"/>
-      <c r="E526" s="59"/>
+      <c r="B526" s="59"/>
+      <c r="C526" s="59"/>
+      <c r="D526" s="59"/>
+      <c r="E526" s="60"/>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="1" t="s">
@@ -9523,13 +9772,13 @@
       <c r="E532" s="29"/>
     </row>
     <row r="533" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A533" s="57" t="s">
+      <c r="A533" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B533" s="58"/>
-      <c r="C533" s="58"/>
-      <c r="D533" s="58"/>
-      <c r="E533" s="59"/>
+      <c r="B533" s="59"/>
+      <c r="C533" s="59"/>
+      <c r="D533" s="59"/>
+      <c r="E533" s="60"/>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="1" t="s">
@@ -9619,13 +9868,13 @@
       <c r="E540" s="29"/>
     </row>
     <row r="541" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A541" s="57" t="s">
+      <c r="A541" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B541" s="58"/>
-      <c r="C541" s="58"/>
-      <c r="D541" s="58"/>
-      <c r="E541" s="59"/>
+      <c r="B541" s="59"/>
+      <c r="C541" s="59"/>
+      <c r="D541" s="59"/>
+      <c r="E541" s="60"/>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="1" t="s">
@@ -9715,13 +9964,13 @@
       <c r="E548" s="29"/>
     </row>
     <row r="549" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A549" s="57" t="s">
+      <c r="A549" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="B549" s="58"/>
-      <c r="C549" s="58"/>
-      <c r="D549" s="58"/>
-      <c r="E549" s="59"/>
+      <c r="B549" s="59"/>
+      <c r="C549" s="59"/>
+      <c r="D549" s="59"/>
+      <c r="E549" s="60"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="1" t="s">
@@ -9811,13 +10060,13 @@
       <c r="E556" s="29"/>
     </row>
     <row r="557" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A557" s="57" t="s">
+      <c r="A557" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B557" s="58"/>
-      <c r="C557" s="58"/>
-      <c r="D557" s="58"/>
-      <c r="E557" s="59"/>
+      <c r="B557" s="59"/>
+      <c r="C557" s="59"/>
+      <c r="D557" s="59"/>
+      <c r="E557" s="60"/>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="1" t="s">
@@ -9907,13 +10156,13 @@
       <c r="E564" s="29"/>
     </row>
     <row r="565" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A565" s="57" t="s">
+      <c r="A565" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="B565" s="58"/>
-      <c r="C565" s="58"/>
-      <c r="D565" s="58"/>
-      <c r="E565" s="59"/>
+      <c r="B565" s="59"/>
+      <c r="C565" s="59"/>
+      <c r="D565" s="59"/>
+      <c r="E565" s="60"/>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="1" t="s">
@@ -10003,13 +10252,13 @@
       <c r="E572" s="29"/>
     </row>
     <row r="573" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A573" s="57" t="s">
+      <c r="A573" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B573" s="58"/>
-      <c r="C573" s="58"/>
-      <c r="D573" s="58"/>
-      <c r="E573" s="59"/>
+      <c r="B573" s="59"/>
+      <c r="C573" s="59"/>
+      <c r="D573" s="59"/>
+      <c r="E573" s="60"/>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="1" t="s">
@@ -10099,13 +10348,13 @@
       <c r="E580" s="29"/>
     </row>
     <row r="581" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A581" s="57" t="s">
+      <c r="A581" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="B581" s="58"/>
-      <c r="C581" s="58"/>
-      <c r="D581" s="58"/>
-      <c r="E581" s="59"/>
+      <c r="B581" s="59"/>
+      <c r="C581" s="59"/>
+      <c r="D581" s="59"/>
+      <c r="E581" s="60"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="1" t="s">
@@ -10195,13 +10444,13 @@
       <c r="E588" s="29"/>
     </row>
     <row r="589" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A589" s="57" t="s">
+      <c r="A589" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B589" s="58"/>
-      <c r="C589" s="58"/>
-      <c r="D589" s="58"/>
-      <c r="E589" s="59"/>
+      <c r="B589" s="59"/>
+      <c r="C589" s="59"/>
+      <c r="D589" s="59"/>
+      <c r="E589" s="60"/>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="1" t="s">
@@ -10302,13 +10551,13 @@
       <c r="E597" s="29"/>
     </row>
     <row r="598" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A598" s="57" t="s">
+      <c r="A598" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B598" s="58"/>
-      <c r="C598" s="58"/>
-      <c r="D598" s="58"/>
-      <c r="E598" s="59"/>
+      <c r="B598" s="59"/>
+      <c r="C598" s="59"/>
+      <c r="D598" s="59"/>
+      <c r="E598" s="60"/>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="1" t="s">
@@ -10393,13 +10642,13 @@
       <c r="E604" s="29"/>
     </row>
     <row r="605" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A605" s="57" t="s">
+      <c r="A605" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B605" s="58"/>
-      <c r="C605" s="58"/>
-      <c r="D605" s="58"/>
-      <c r="E605" s="59"/>
+      <c r="B605" s="59"/>
+      <c r="C605" s="59"/>
+      <c r="D605" s="59"/>
+      <c r="E605" s="60"/>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="1" t="s">
@@ -10522,13 +10771,13 @@
       <c r="E615" s="29"/>
     </row>
     <row r="616" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A616" s="57" t="s">
+      <c r="A616" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B616" s="58"/>
-      <c r="C616" s="58"/>
-      <c r="D616" s="58"/>
-      <c r="E616" s="59"/>
+      <c r="B616" s="59"/>
+      <c r="C616" s="59"/>
+      <c r="D616" s="59"/>
+      <c r="E616" s="60"/>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="1" t="s">
@@ -10618,13 +10867,13 @@
       <c r="E623" s="29"/>
     </row>
     <row r="624" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A624" s="57" t="s">
+      <c r="A624" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B624" s="58"/>
-      <c r="C624" s="58"/>
-      <c r="D624" s="58"/>
-      <c r="E624" s="59"/>
+      <c r="B624" s="59"/>
+      <c r="C624" s="59"/>
+      <c r="D624" s="59"/>
+      <c r="E624" s="60"/>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="1" t="s">
@@ -10725,13 +10974,13 @@
       <c r="E632" s="29"/>
     </row>
     <row r="633" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A633" s="57" t="s">
+      <c r="A633" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="B633" s="58"/>
-      <c r="C633" s="58"/>
-      <c r="D633" s="58"/>
-      <c r="E633" s="59"/>
+      <c r="B633" s="59"/>
+      <c r="C633" s="59"/>
+      <c r="D633" s="59"/>
+      <c r="E633" s="60"/>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="1" t="s">
@@ -10832,13 +11081,13 @@
       <c r="E641" s="29"/>
     </row>
     <row r="642" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A642" s="57" t="s">
+      <c r="A642" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="B642" s="58"/>
-      <c r="C642" s="58"/>
-      <c r="D642" s="58"/>
-      <c r="E642" s="59"/>
+      <c r="B642" s="59"/>
+      <c r="C642" s="59"/>
+      <c r="D642" s="59"/>
+      <c r="E642" s="60"/>
     </row>
     <row r="643" spans="1:5">
       <c r="A643" s="1" t="s">
@@ -10928,13 +11177,13 @@
       <c r="E649" s="29"/>
     </row>
     <row r="650" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A650" s="57" t="s">
+      <c r="A650" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="B650" s="58"/>
-      <c r="C650" s="58"/>
-      <c r="D650" s="58"/>
-      <c r="E650" s="59"/>
+      <c r="B650" s="59"/>
+      <c r="C650" s="59"/>
+      <c r="D650" s="59"/>
+      <c r="E650" s="60"/>
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="1" t="s">
@@ -11024,13 +11273,13 @@
       <c r="E657" s="29"/>
     </row>
     <row r="658" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A658" s="57" t="s">
+      <c r="A658" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="B658" s="58"/>
-      <c r="C658" s="58"/>
-      <c r="D658" s="58"/>
-      <c r="E658" s="59"/>
+      <c r="B658" s="59"/>
+      <c r="C658" s="59"/>
+      <c r="D658" s="59"/>
+      <c r="E658" s="60"/>
     </row>
     <row r="659" spans="1:5">
       <c r="A659" s="1" t="s">
@@ -11208,13 +11457,13 @@
       <c r="E673" s="29"/>
     </row>
     <row r="674" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A674" s="57" t="s">
+      <c r="A674" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B674" s="58"/>
-      <c r="C674" s="58"/>
-      <c r="D674" s="58"/>
-      <c r="E674" s="59"/>
+      <c r="B674" s="59"/>
+      <c r="C674" s="59"/>
+      <c r="D674" s="59"/>
+      <c r="E674" s="60"/>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="1" t="s">
@@ -11284,13 +11533,13 @@
       <c r="E679" s="29"/>
     </row>
     <row r="680" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A680" s="57" t="s">
+      <c r="A680" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="B680" s="58"/>
-      <c r="C680" s="58"/>
-      <c r="D680" s="58"/>
-      <c r="E680" s="59"/>
+      <c r="B680" s="59"/>
+      <c r="C680" s="59"/>
+      <c r="D680" s="59"/>
+      <c r="E680" s="60"/>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="1" t="s">
@@ -11358,13 +11607,13 @@
       <c r="E685" s="29"/>
     </row>
     <row r="686" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A686" s="57" t="s">
+      <c r="A686" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B686" s="58"/>
-      <c r="C686" s="58"/>
-      <c r="D686" s="58"/>
-      <c r="E686" s="59"/>
+      <c r="B686" s="59"/>
+      <c r="C686" s="59"/>
+      <c r="D686" s="59"/>
+      <c r="E686" s="60"/>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="1" t="s">
@@ -11454,13 +11703,13 @@
       <c r="E693" s="29"/>
     </row>
     <row r="694" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A694" s="57" t="s">
+      <c r="A694" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="B694" s="58"/>
-      <c r="C694" s="58"/>
-      <c r="D694" s="58"/>
-      <c r="E694" s="59"/>
+      <c r="B694" s="59"/>
+      <c r="C694" s="59"/>
+      <c r="D694" s="59"/>
+      <c r="E694" s="60"/>
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="1" t="s">
@@ -11572,13 +11821,13 @@
       <c r="E703" s="29"/>
     </row>
     <row r="704" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A704" s="57" t="s">
+      <c r="A704" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="B704" s="58"/>
-      <c r="C704" s="58"/>
-      <c r="D704" s="58"/>
-      <c r="E704" s="59"/>
+      <c r="B704" s="59"/>
+      <c r="C704" s="59"/>
+      <c r="D704" s="59"/>
+      <c r="E704" s="60"/>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="1" t="s">
@@ -11690,13 +11939,13 @@
       <c r="E713" s="29"/>
     </row>
     <row r="714" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A714" s="57" t="s">
+      <c r="A714" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="B714" s="58"/>
-      <c r="C714" s="58"/>
-      <c r="D714" s="58"/>
-      <c r="E714" s="59"/>
+      <c r="B714" s="59"/>
+      <c r="C714" s="59"/>
+      <c r="D714" s="59"/>
+      <c r="E714" s="60"/>
     </row>
     <row r="715" spans="1:5">
       <c r="A715" s="1" t="s">
@@ -11812,13 +12061,13 @@
       <c r="E723" s="29"/>
     </row>
     <row r="724" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A724" s="57" t="s">
+      <c r="A724" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B724" s="58"/>
-      <c r="C724" s="58"/>
-      <c r="D724" s="58"/>
-      <c r="E724" s="59"/>
+      <c r="B724" s="59"/>
+      <c r="C724" s="59"/>
+      <c r="D724" s="59"/>
+      <c r="E724" s="60"/>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="1" t="s">
@@ -11941,13 +12190,13 @@
       <c r="E734" s="29"/>
     </row>
     <row r="735" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A735" s="57" t="s">
+      <c r="A735" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B735" s="58"/>
-      <c r="C735" s="58"/>
-      <c r="D735" s="58"/>
-      <c r="E735" s="59"/>
+      <c r="B735" s="59"/>
+      <c r="C735" s="59"/>
+      <c r="D735" s="59"/>
+      <c r="E735" s="60"/>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="1" t="s">
@@ -12048,13 +12297,13 @@
       <c r="E743" s="29"/>
     </row>
     <row r="744" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A744" s="57" t="s">
+      <c r="A744" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="B744" s="58"/>
-      <c r="C744" s="58"/>
-      <c r="D744" s="58"/>
-      <c r="E744" s="59"/>
+      <c r="B744" s="59"/>
+      <c r="C744" s="59"/>
+      <c r="D744" s="59"/>
+      <c r="E744" s="60"/>
     </row>
     <row r="745" spans="1:5">
       <c r="A745" s="1" t="s">
@@ -12155,13 +12404,13 @@
       <c r="E752" s="29"/>
     </row>
     <row r="753" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A753" s="57" t="s">
+      <c r="A753" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="B753" s="58"/>
-      <c r="C753" s="58"/>
-      <c r="D753" s="58"/>
-      <c r="E753" s="59"/>
+      <c r="B753" s="59"/>
+      <c r="C753" s="59"/>
+      <c r="D753" s="59"/>
+      <c r="E753" s="60"/>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="1" t="s">
@@ -12266,13 +12515,13 @@
       <c r="E761" s="29"/>
     </row>
     <row r="762" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A762" s="57" t="s">
+      <c r="A762" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B762" s="58"/>
-      <c r="C762" s="58"/>
-      <c r="D762" s="58"/>
-      <c r="E762" s="59"/>
+      <c r="B762" s="59"/>
+      <c r="C762" s="59"/>
+      <c r="D762" s="59"/>
+      <c r="E762" s="60"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="1" t="s">
@@ -12356,13 +12605,13 @@
     </row>
     <row r="769" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="770" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A770" s="57" t="s">
+      <c r="A770" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="B770" s="58"/>
-      <c r="C770" s="58"/>
-      <c r="D770" s="58"/>
-      <c r="E770" s="59"/>
+      <c r="B770" s="59"/>
+      <c r="C770" s="59"/>
+      <c r="D770" s="59"/>
+      <c r="E770" s="60"/>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="1" t="s">
@@ -12428,13 +12677,13 @@
     </row>
     <row r="775" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="776" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A776" s="57" t="s">
+      <c r="A776" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="B776" s="58"/>
-      <c r="C776" s="58"/>
-      <c r="D776" s="58"/>
-      <c r="E776" s="59"/>
+      <c r="B776" s="59"/>
+      <c r="C776" s="59"/>
+      <c r="D776" s="59"/>
+      <c r="E776" s="60"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="1" t="s">
@@ -12540,13 +12789,13 @@
     </row>
     <row r="785" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="786" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A786" s="57" t="s">
+      <c r="A786" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="B786" s="58"/>
-      <c r="C786" s="58"/>
-      <c r="D786" s="58"/>
-      <c r="E786" s="59"/>
+      <c r="B786" s="59"/>
+      <c r="C786" s="59"/>
+      <c r="D786" s="59"/>
+      <c r="E786" s="60"/>
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="1" t="s">
@@ -12619,13 +12868,13 @@
     </row>
     <row r="792" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="793" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A793" s="57" t="s">
+      <c r="A793" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B793" s="58"/>
-      <c r="C793" s="58"/>
-      <c r="D793" s="58"/>
-      <c r="E793" s="59"/>
+      <c r="B793" s="59"/>
+      <c r="C793" s="59"/>
+      <c r="D793" s="59"/>
+      <c r="E793" s="60"/>
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="1" t="s">
@@ -12742,13 +12991,13 @@
     </row>
     <row r="803" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="804" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A804" s="57" t="s">
+      <c r="A804" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="B804" s="58"/>
-      <c r="C804" s="58"/>
-      <c r="D804" s="58"/>
-      <c r="E804" s="59"/>
+      <c r="B804" s="59"/>
+      <c r="C804" s="59"/>
+      <c r="D804" s="59"/>
+      <c r="E804" s="60"/>
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="1" t="s">
@@ -12821,13 +13070,13 @@
     </row>
     <row r="810" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="811" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A811" s="57" t="s">
+      <c r="A811" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="B811" s="58"/>
-      <c r="C811" s="58"/>
-      <c r="D811" s="58"/>
-      <c r="E811" s="59"/>
+      <c r="B811" s="59"/>
+      <c r="C811" s="59"/>
+      <c r="D811" s="59"/>
+      <c r="E811" s="60"/>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="1" t="s">
@@ -12911,13 +13160,13 @@
     </row>
     <row r="818" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="819" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A819" s="57" t="s">
+      <c r="A819" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="B819" s="58"/>
-      <c r="C819" s="58"/>
-      <c r="D819" s="58"/>
-      <c r="E819" s="59"/>
+      <c r="B819" s="59"/>
+      <c r="C819" s="59"/>
+      <c r="D819" s="59"/>
+      <c r="E819" s="60"/>
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="1" t="s">
@@ -13023,13 +13272,13 @@
     </row>
     <row r="828" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="829" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A829" s="57" t="s">
+      <c r="A829" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="B829" s="58"/>
-      <c r="C829" s="58"/>
-      <c r="D829" s="58"/>
-      <c r="E829" s="59"/>
+      <c r="B829" s="59"/>
+      <c r="C829" s="59"/>
+      <c r="D829" s="59"/>
+      <c r="E829" s="60"/>
     </row>
     <row r="830" spans="1:5">
       <c r="A830" s="1" t="s">
@@ -13124,13 +13373,13 @@
     </row>
     <row r="837" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="838" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A838" s="57" t="s">
+      <c r="A838" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B838" s="58"/>
-      <c r="C838" s="58"/>
-      <c r="D838" s="58"/>
-      <c r="E838" s="59"/>
+      <c r="B838" s="59"/>
+      <c r="C838" s="59"/>
+      <c r="D838" s="59"/>
+      <c r="E838" s="60"/>
     </row>
     <row r="839" spans="1:5">
       <c r="A839" s="1" t="s">
@@ -13238,13 +13487,13 @@
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="848" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A848" s="57" t="s">
+      <c r="A848" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="B848" s="58"/>
-      <c r="C848" s="58"/>
-      <c r="D848" s="58"/>
-      <c r="E848" s="59"/>
+      <c r="B848" s="59"/>
+      <c r="C848" s="59"/>
+      <c r="D848" s="59"/>
+      <c r="E848" s="60"/>
     </row>
     <row r="849" spans="1:5">
       <c r="A849" s="1" t="s">
@@ -13339,13 +13588,13 @@
     </row>
     <row r="856" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="857" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A857" s="57" t="s">
+      <c r="A857" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="B857" s="58"/>
-      <c r="C857" s="58"/>
-      <c r="D857" s="58"/>
-      <c r="E857" s="59"/>
+      <c r="B857" s="59"/>
+      <c r="C857" s="59"/>
+      <c r="D857" s="59"/>
+      <c r="E857" s="60"/>
     </row>
     <row r="858" spans="1:5">
       <c r="A858" s="1" t="s">
@@ -13440,13 +13689,13 @@
     </row>
     <row r="865" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="866" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A866" s="57" t="s">
+      <c r="A866" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B866" s="58"/>
-      <c r="C866" s="58"/>
-      <c r="D866" s="58"/>
-      <c r="E866" s="59"/>
+      <c r="B866" s="59"/>
+      <c r="C866" s="59"/>
+      <c r="D866" s="59"/>
+      <c r="E866" s="60"/>
     </row>
     <row r="867" spans="1:6">
       <c r="A867" s="1" t="s">
@@ -13566,13 +13815,13 @@
     </row>
     <row r="876" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="877" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A877" s="57" t="s">
+      <c r="A877" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="B877" s="58"/>
-      <c r="C877" s="58"/>
-      <c r="D877" s="58"/>
-      <c r="E877" s="59"/>
+      <c r="B877" s="59"/>
+      <c r="C877" s="59"/>
+      <c r="D877" s="59"/>
+      <c r="E877" s="60"/>
     </row>
     <row r="878" spans="1:6">
       <c r="A878" s="1" t="s">
@@ -13705,13 +13954,13 @@
     </row>
     <row r="888" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="889" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A889" s="57" t="s">
+      <c r="A889" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B889" s="58"/>
-      <c r="C889" s="58"/>
-      <c r="D889" s="58"/>
-      <c r="E889" s="59"/>
+      <c r="B889" s="59"/>
+      <c r="C889" s="59"/>
+      <c r="D889" s="59"/>
+      <c r="E889" s="60"/>
     </row>
     <row r="890" spans="1:6">
       <c r="A890" s="1" t="s">
@@ -13805,13 +14054,13 @@
     </row>
     <row r="897" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="898" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A898" s="57" t="s">
+      <c r="A898" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="B898" s="58"/>
-      <c r="C898" s="58"/>
-      <c r="D898" s="58"/>
-      <c r="E898" s="59"/>
+      <c r="B898" s="59"/>
+      <c r="C898" s="59"/>
+      <c r="D898" s="59"/>
+      <c r="E898" s="60"/>
     </row>
     <row r="899" spans="1:6">
       <c r="A899" s="1" t="s">
@@ -13908,13 +14157,13 @@
     </row>
     <row r="906" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="907" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A907" s="57" t="s">
+      <c r="A907" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="B907" s="58"/>
-      <c r="C907" s="58"/>
-      <c r="D907" s="58"/>
-      <c r="E907" s="59"/>
+      <c r="B907" s="59"/>
+      <c r="C907" s="59"/>
+      <c r="D907" s="59"/>
+      <c r="E907" s="60"/>
     </row>
     <row r="908" spans="1:6">
       <c r="A908" s="1" t="s">
@@ -14010,13 +14259,13 @@
     </row>
     <row r="915" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="916" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A916" s="57" t="s">
+      <c r="A916" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="B916" s="58"/>
-      <c r="C916" s="58"/>
-      <c r="D916" s="58"/>
-      <c r="E916" s="59"/>
+      <c r="B916" s="59"/>
+      <c r="C916" s="59"/>
+      <c r="D916" s="59"/>
+      <c r="E916" s="60"/>
     </row>
     <row r="917" spans="1:5">
       <c r="A917" s="1" t="s">
@@ -14149,13 +14398,13 @@
       <c r="E927" s="23"/>
     </row>
     <row r="928" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A928" s="57" t="s">
+      <c r="A928" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="B928" s="58"/>
-      <c r="C928" s="58"/>
-      <c r="D928" s="58"/>
-      <c r="E928" s="59"/>
+      <c r="B928" s="59"/>
+      <c r="C928" s="59"/>
+      <c r="D928" s="59"/>
+      <c r="E928" s="60"/>
     </row>
     <row r="929" spans="1:5">
       <c r="A929" s="1" t="s">
@@ -14260,13 +14509,13 @@
     </row>
     <row r="937" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="938" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A938" s="57" t="s">
+      <c r="A938" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="B938" s="58"/>
-      <c r="C938" s="58"/>
-      <c r="D938" s="58"/>
-      <c r="E938" s="59"/>
+      <c r="B938" s="59"/>
+      <c r="C938" s="59"/>
+      <c r="D938" s="59"/>
+      <c r="E938" s="60"/>
     </row>
     <row r="939" spans="1:5">
       <c r="A939" s="1" t="s">
@@ -14412,13 +14661,13 @@
       <c r="E950" s="23"/>
     </row>
     <row r="951" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A951" s="57" t="s">
+      <c r="A951" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="B951" s="58"/>
-      <c r="C951" s="58"/>
-      <c r="D951" s="58"/>
-      <c r="E951" s="59"/>
+      <c r="B951" s="59"/>
+      <c r="C951" s="59"/>
+      <c r="D951" s="59"/>
+      <c r="E951" s="60"/>
     </row>
     <row r="952" spans="1:5">
       <c r="A952" s="1" t="s">
@@ -14541,13 +14790,13 @@
       <c r="E961" s="23"/>
     </row>
     <row r="962" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A962" s="57" t="s">
+      <c r="A962" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="B962" s="58"/>
-      <c r="C962" s="58"/>
-      <c r="D962" s="58"/>
-      <c r="E962" s="59"/>
+      <c r="B962" s="59"/>
+      <c r="C962" s="59"/>
+      <c r="D962" s="59"/>
+      <c r="E962" s="60"/>
     </row>
     <row r="963" spans="1:5">
       <c r="A963" s="1" t="s">
@@ -14641,13 +14890,13 @@
       </c>
     </row>
     <row r="970" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A970" s="57" t="s">
+      <c r="A970" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="B970" s="58"/>
-      <c r="C970" s="58"/>
-      <c r="D970" s="58"/>
-      <c r="E970" s="59"/>
+      <c r="B970" s="59"/>
+      <c r="C970" s="59"/>
+      <c r="D970" s="59"/>
+      <c r="E970" s="60"/>
     </row>
     <row r="971" spans="1:5">
       <c r="A971" s="1" t="s">
@@ -14753,13 +15002,13 @@
     </row>
     <row r="979" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="980" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A980" s="57" t="s">
+      <c r="A980" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="B980" s="58"/>
-      <c r="C980" s="58"/>
-      <c r="D980" s="58"/>
-      <c r="E980" s="59"/>
+      <c r="B980" s="59"/>
+      <c r="C980" s="59"/>
+      <c r="D980" s="59"/>
+      <c r="E980" s="60"/>
     </row>
     <row r="981" spans="1:5">
       <c r="A981" s="1" t="s">
@@ -14821,13 +15070,13 @@
     </row>
     <row r="985" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="986" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A986" s="57" t="s">
+      <c r="A986" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="B986" s="58"/>
-      <c r="C986" s="58"/>
-      <c r="D986" s="58"/>
-      <c r="E986" s="59"/>
+      <c r="B986" s="59"/>
+      <c r="C986" s="59"/>
+      <c r="D986" s="59"/>
+      <c r="E986" s="60"/>
     </row>
     <row r="987" spans="1:5">
       <c r="A987" s="1" t="s">
@@ -14943,13 +15192,13 @@
     </row>
     <row r="996" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="997" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A997" s="57" t="s">
+      <c r="A997" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="B997" s="58"/>
-      <c r="C997" s="58"/>
-      <c r="D997" s="58"/>
-      <c r="E997" s="59"/>
+      <c r="B997" s="59"/>
+      <c r="C997" s="59"/>
+      <c r="D997" s="59"/>
+      <c r="E997" s="60"/>
     </row>
     <row r="998" spans="1:6">
       <c r="A998" s="1" t="s">
@@ -15068,13 +15317,13 @@
     </row>
     <row r="1007" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1008" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1008" s="57" t="s">
+      <c r="A1008" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="B1008" s="58"/>
-      <c r="C1008" s="58"/>
-      <c r="D1008" s="58"/>
-      <c r="E1008" s="59"/>
+      <c r="B1008" s="59"/>
+      <c r="C1008" s="59"/>
+      <c r="D1008" s="59"/>
+      <c r="E1008" s="60"/>
     </row>
     <row r="1009" spans="1:6">
       <c r="A1009" s="1" t="s">
@@ -15128,13 +15377,13 @@
     </row>
     <row r="1012" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1013" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1013" s="57" t="s">
+      <c r="A1013" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="B1013" s="58"/>
-      <c r="C1013" s="58"/>
-      <c r="D1013" s="58"/>
-      <c r="E1013" s="59"/>
+      <c r="B1013" s="59"/>
+      <c r="C1013" s="59"/>
+      <c r="D1013" s="59"/>
+      <c r="E1013" s="60"/>
     </row>
     <row r="1014" spans="1:6">
       <c r="A1014" s="1" t="s">
@@ -15231,13 +15480,13 @@
     </row>
     <row r="1021" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1022" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1022" s="57" t="s">
+      <c r="A1022" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="B1022" s="58"/>
-      <c r="C1022" s="58"/>
-      <c r="D1022" s="58"/>
-      <c r="E1022" s="59"/>
+      <c r="B1022" s="59"/>
+      <c r="C1022" s="59"/>
+      <c r="D1022" s="59"/>
+      <c r="E1022" s="60"/>
     </row>
     <row r="1023" spans="1:6">
       <c r="A1023" s="1" t="s">
@@ -15354,13 +15603,13 @@
     </row>
     <row r="1032" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1033" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1033" s="57" t="s">
+      <c r="A1033" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B1033" s="58"/>
-      <c r="C1033" s="58"/>
-      <c r="D1033" s="58"/>
-      <c r="E1033" s="59"/>
+      <c r="B1033" s="59"/>
+      <c r="C1033" s="59"/>
+      <c r="D1033" s="59"/>
+      <c r="E1033" s="60"/>
     </row>
     <row r="1034" spans="1:5">
       <c r="A1034" s="1" t="s">
@@ -15455,13 +15704,13 @@
     </row>
     <row r="1041" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1042" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1042" s="57" t="s">
+      <c r="A1042" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="B1042" s="58"/>
-      <c r="C1042" s="58"/>
-      <c r="D1042" s="58"/>
-      <c r="E1042" s="59"/>
+      <c r="B1042" s="59"/>
+      <c r="C1042" s="59"/>
+      <c r="D1042" s="59"/>
+      <c r="E1042" s="60"/>
     </row>
     <row r="1043" spans="1:5">
       <c r="A1043" s="1" t="s">
@@ -15556,13 +15805,13 @@
     </row>
     <row r="1050" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1051" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1051" s="57" t="s">
+      <c r="A1051" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="B1051" s="58"/>
-      <c r="C1051" s="58"/>
-      <c r="D1051" s="58"/>
-      <c r="E1051" s="59"/>
+      <c r="B1051" s="59"/>
+      <c r="C1051" s="59"/>
+      <c r="D1051" s="59"/>
+      <c r="E1051" s="60"/>
     </row>
     <row r="1052" spans="1:5">
       <c r="A1052" s="1" t="s">
@@ -15646,13 +15895,13 @@
     </row>
     <row r="1058" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1059" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1059" s="57" t="s">
+      <c r="A1059" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="B1059" s="58"/>
-      <c r="C1059" s="58"/>
-      <c r="D1059" s="58"/>
-      <c r="E1059" s="59"/>
+      <c r="B1059" s="59"/>
+      <c r="C1059" s="59"/>
+      <c r="D1059" s="59"/>
+      <c r="E1059" s="60"/>
     </row>
     <row r="1060" spans="1:5">
       <c r="A1060" s="1" t="s">
@@ -15736,13 +15985,13 @@
     </row>
     <row r="1066" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1067" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1067" s="57" t="s">
+      <c r="A1067" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="B1067" s="58"/>
-      <c r="C1067" s="58"/>
-      <c r="D1067" s="58"/>
-      <c r="E1067" s="59"/>
+      <c r="B1067" s="59"/>
+      <c r="C1067" s="59"/>
+      <c r="D1067" s="59"/>
+      <c r="E1067" s="60"/>
     </row>
     <row r="1068" spans="1:5">
       <c r="A1068" s="1" t="s">
@@ -15830,13 +16079,13 @@
     </row>
     <row r="1074" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1075" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1075" s="57" t="s">
+      <c r="A1075" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="B1075" s="58"/>
-      <c r="C1075" s="58"/>
-      <c r="D1075" s="58"/>
-      <c r="E1075" s="59"/>
+      <c r="B1075" s="59"/>
+      <c r="C1075" s="59"/>
+      <c r="D1075" s="59"/>
+      <c r="E1075" s="60"/>
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" s="1" t="s">
@@ -15920,13 +16169,13 @@
     </row>
     <row r="1082" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1083" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1083" s="57" t="s">
+      <c r="A1083" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="B1083" s="58"/>
-      <c r="C1083" s="58"/>
-      <c r="D1083" s="58"/>
-      <c r="E1083" s="59"/>
+      <c r="B1083" s="59"/>
+      <c r="C1083" s="59"/>
+      <c r="D1083" s="59"/>
+      <c r="E1083" s="60"/>
     </row>
     <row r="1084" spans="1:5">
       <c r="A1084" s="1" t="s">
@@ -16010,13 +16259,13 @@
     </row>
     <row r="1090" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1091" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1091" s="57" t="s">
+      <c r="A1091" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="B1091" s="58"/>
-      <c r="C1091" s="58"/>
-      <c r="D1091" s="58"/>
-      <c r="E1091" s="59"/>
+      <c r="B1091" s="59"/>
+      <c r="C1091" s="59"/>
+      <c r="D1091" s="59"/>
+      <c r="E1091" s="60"/>
     </row>
     <row r="1092" spans="1:5">
       <c r="A1092" s="1" t="s">
@@ -16100,13 +16349,13 @@
     </row>
     <row r="1098" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1099" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1099" s="57" t="s">
+      <c r="A1099" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="B1099" s="58"/>
-      <c r="C1099" s="58"/>
-      <c r="D1099" s="58"/>
-      <c r="E1099" s="59"/>
+      <c r="B1099" s="59"/>
+      <c r="C1099" s="59"/>
+      <c r="D1099" s="59"/>
+      <c r="E1099" s="60"/>
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" s="1" t="s">
@@ -16246,13 +16495,13 @@
     </row>
     <row r="1111" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1112" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1112" s="57" t="s">
+      <c r="A1112" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="B1112" s="58"/>
-      <c r="C1112" s="58"/>
-      <c r="D1112" s="58"/>
-      <c r="E1112" s="59"/>
+      <c r="B1112" s="59"/>
+      <c r="C1112" s="59"/>
+      <c r="D1112" s="59"/>
+      <c r="E1112" s="60"/>
     </row>
     <row r="1113" spans="1:6">
       <c r="A1113" s="1" t="s">
@@ -16349,13 +16598,13 @@
     </row>
     <row r="1120" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1121" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1121" s="57" t="s">
+      <c r="A1121" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="B1121" s="58"/>
-      <c r="C1121" s="58"/>
-      <c r="D1121" s="58"/>
-      <c r="E1121" s="59"/>
+      <c r="B1121" s="59"/>
+      <c r="C1121" s="59"/>
+      <c r="D1121" s="59"/>
+      <c r="E1121" s="60"/>
     </row>
     <row r="1122" spans="1:6">
       <c r="A1122" s="1" t="s">
@@ -16497,13 +16746,13 @@
     </row>
     <row r="1133" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1134" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1134" s="57" t="s">
+      <c r="A1134" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="B1134" s="58"/>
-      <c r="C1134" s="58"/>
-      <c r="D1134" s="58"/>
-      <c r="E1134" s="59"/>
+      <c r="B1134" s="59"/>
+      <c r="C1134" s="59"/>
+      <c r="D1134" s="59"/>
+      <c r="E1134" s="60"/>
     </row>
     <row r="1135" spans="1:6">
       <c r="A1135" s="1" t="s">
@@ -16602,13 +16851,13 @@
     </row>
     <row r="1142" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1143" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1143" s="57" t="s">
+      <c r="A1143" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="B1143" s="58"/>
-      <c r="C1143" s="58"/>
-      <c r="D1143" s="58"/>
-      <c r="E1143" s="59"/>
+      <c r="B1143" s="59"/>
+      <c r="C1143" s="59"/>
+      <c r="D1143" s="59"/>
+      <c r="E1143" s="60"/>
     </row>
     <row r="1144" spans="1:5">
       <c r="A1144" s="1" t="s">
@@ -16714,13 +16963,13 @@
     </row>
     <row r="1152" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1153" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1153" s="57" t="s">
+      <c r="A1153" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="B1153" s="58"/>
-      <c r="C1153" s="58"/>
-      <c r="D1153" s="58"/>
-      <c r="E1153" s="59"/>
+      <c r="B1153" s="59"/>
+      <c r="C1153" s="59"/>
+      <c r="D1153" s="59"/>
+      <c r="E1153" s="60"/>
     </row>
     <row r="1154" spans="1:5">
       <c r="A1154" s="1" t="s">
@@ -16804,13 +17053,13 @@
     </row>
     <row r="1160" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1161" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1161" s="57" t="s">
+      <c r="A1161" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="B1161" s="58"/>
-      <c r="C1161" s="58"/>
-      <c r="D1161" s="58"/>
-      <c r="E1161" s="59"/>
+      <c r="B1161" s="59"/>
+      <c r="C1161" s="59"/>
+      <c r="D1161" s="59"/>
+      <c r="E1161" s="60"/>
     </row>
     <row r="1162" spans="1:5">
       <c r="A1162" s="1" t="s">
@@ -16894,13 +17143,13 @@
     </row>
     <row r="1168" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1169" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1169" s="57" t="s">
+      <c r="A1169" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="B1169" s="58"/>
-      <c r="C1169" s="58"/>
-      <c r="D1169" s="58"/>
-      <c r="E1169" s="59"/>
+      <c r="B1169" s="59"/>
+      <c r="C1169" s="59"/>
+      <c r="D1169" s="59"/>
+      <c r="E1169" s="60"/>
     </row>
     <row r="1170" spans="1:6">
       <c r="A1170" s="1" t="s">
@@ -17042,13 +17291,13 @@
     </row>
     <row r="1181" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1182" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1182" s="57" t="s">
+      <c r="A1182" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="B1182" s="58"/>
-      <c r="C1182" s="58"/>
-      <c r="D1182" s="58"/>
-      <c r="E1182" s="59"/>
+      <c r="B1182" s="59"/>
+      <c r="C1182" s="59"/>
+      <c r="D1182" s="59"/>
+      <c r="E1182" s="60"/>
     </row>
     <row r="1183" spans="1:6">
       <c r="A1183" s="1" t="s">
@@ -17123,13 +17372,13 @@
     </row>
     <row r="1188" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1189" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1189" s="57" t="s">
+      <c r="A1189" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="B1189" s="58"/>
-      <c r="C1189" s="58"/>
-      <c r="D1189" s="58"/>
-      <c r="E1189" s="59"/>
+      <c r="B1189" s="59"/>
+      <c r="C1189" s="59"/>
+      <c r="D1189" s="59"/>
+      <c r="E1189" s="60"/>
     </row>
     <row r="1190" spans="1:5">
       <c r="A1190" s="1" t="s">
@@ -17224,13 +17473,13 @@
     </row>
     <row r="1197" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1198" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1198" s="57" t="s">
+      <c r="A1198" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="B1198" s="58"/>
-      <c r="C1198" s="58"/>
-      <c r="D1198" s="58"/>
-      <c r="E1198" s="59"/>
+      <c r="B1198" s="59"/>
+      <c r="C1198" s="59"/>
+      <c r="D1198" s="59"/>
+      <c r="E1198" s="60"/>
     </row>
     <row r="1199" spans="1:5">
       <c r="A1199" s="1" t="s">
@@ -17314,13 +17563,13 @@
     </row>
     <row r="1205" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1206" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1206" s="57" t="s">
+      <c r="A1206" s="58" t="s">
         <v>405</v>
       </c>
-      <c r="B1206" s="58"/>
-      <c r="C1206" s="58"/>
-      <c r="D1206" s="58"/>
-      <c r="E1206" s="59"/>
+      <c r="B1206" s="59"/>
+      <c r="C1206" s="59"/>
+      <c r="D1206" s="59"/>
+      <c r="E1206" s="60"/>
     </row>
     <row r="1207" spans="1:5">
       <c r="A1207" s="1" t="s">
@@ -17393,13 +17642,13 @@
     </row>
     <row r="1212" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="1213" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1213" s="57" t="s">
+      <c r="A1213" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="B1213" s="58"/>
-      <c r="C1213" s="58"/>
-      <c r="D1213" s="58"/>
-      <c r="E1213" s="59"/>
+      <c r="B1213" s="59"/>
+      <c r="C1213" s="59"/>
+      <c r="D1213" s="59"/>
+      <c r="E1213" s="60"/>
     </row>
     <row r="1214" spans="1:5">
       <c r="A1214" s="1" t="s">
@@ -19557,13 +19806,13 @@
       </c>
     </row>
     <row r="1413" spans="1:5" ht="18.75">
-      <c r="A1413" s="60" t="s">
+      <c r="A1413" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="B1413" s="60"/>
-      <c r="C1413" s="60"/>
-      <c r="D1413" s="60"/>
-      <c r="E1413" s="60"/>
+      <c r="B1413" s="57"/>
+      <c r="C1413" s="57"/>
+      <c r="D1413" s="57"/>
+      <c r="E1413" s="57"/>
     </row>
     <row r="1414" spans="1:5">
       <c r="A1414" s="5" t="s">
@@ -25344,133 +25593,3324 @@
         <v>553</v>
       </c>
     </row>
+    <row r="1984" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="1985" spans="1:5" ht="18.75">
+      <c r="A1985" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1985" s="55"/>
+      <c r="C1985" s="55"/>
+      <c r="D1985" s="55"/>
+      <c r="E1985" s="56"/>
+    </row>
+    <row r="1986" spans="1:5">
+      <c r="A1986" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1986" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1986" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1986" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1986" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5">
+      <c r="A1987" s="61"/>
+      <c r="B1987" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1987" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1987" s="48"/>
+      <c r="E1987" s="6"/>
+    </row>
+    <row r="1988" spans="1:5">
+      <c r="A1988" s="61"/>
+      <c r="B1988" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1988" s="5">
+        <v>2200</v>
+      </c>
+      <c r="D1988" s="48"/>
+      <c r="E1988" s="6"/>
+    </row>
+    <row r="1989" spans="1:5">
+      <c r="A1989" s="61"/>
+      <c r="B1989" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1989" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1989" s="48"/>
+      <c r="E1989" s="6"/>
+    </row>
+    <row r="1990" spans="1:5">
+      <c r="A1990" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1990" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1990" s="5">
+        <f>SUM(C1987:C1989)</f>
+        <v>2630</v>
+      </c>
+      <c r="D1990" s="39"/>
+      <c r="E1990" s="6">
+        <f>A1987+C1990-D1987</f>
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1991" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1991" s="64">
+        <f>A1987+C1990</f>
+        <v>2630</v>
+      </c>
+      <c r="C1991" s="65"/>
+      <c r="D1991" s="65"/>
+      <c r="E1991" s="66"/>
+    </row>
+    <row r="1993" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="1994" spans="1:5" ht="18.75">
+      <c r="A1994" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1994" s="55"/>
+      <c r="C1994" s="55"/>
+      <c r="D1994" s="55"/>
+      <c r="E1994" s="56"/>
+    </row>
+    <row r="1995" spans="1:5">
+      <c r="A1995" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1995" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1995" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1995" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1995" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:5">
+      <c r="A1996" s="61">
+        <f>E1990</f>
+        <v>2630</v>
+      </c>
+      <c r="B1996" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1996" s="5">
+        <v>160</v>
+      </c>
+      <c r="D1996" s="48">
+        <v>4000</v>
+      </c>
+      <c r="E1996" s="6"/>
+    </row>
+    <row r="1997" spans="1:5">
+      <c r="A1997" s="61"/>
+      <c r="B1997" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1997" s="5">
+        <v>120</v>
+      </c>
+      <c r="D1997" s="48"/>
+      <c r="E1997" s="6"/>
+    </row>
+    <row r="1998" spans="1:5">
+      <c r="A1998" s="61"/>
+      <c r="B1998" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1998" s="5">
+        <v>350</v>
+      </c>
+      <c r="D1998" s="48"/>
+      <c r="E1998" s="6"/>
+    </row>
+    <row r="1999" spans="1:5">
+      <c r="A1999" s="61"/>
+      <c r="B1999" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1999" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1999" s="48"/>
+      <c r="E1999" s="6"/>
+    </row>
+    <row r="2000" spans="1:5">
+      <c r="A2000" s="61"/>
+      <c r="B2000" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2000" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2000" s="48"/>
+      <c r="E2000" s="6"/>
+    </row>
+    <row r="2001" spans="1:5">
+      <c r="A2001" s="61"/>
+      <c r="B2001" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2001" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D2001" s="48"/>
+      <c r="E2001" s="6"/>
+    </row>
+    <row r="2002" spans="1:5">
+      <c r="A2002" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2002" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2002" s="5">
+        <f>SUM(C1996:C2001)</f>
+        <v>1870</v>
+      </c>
+      <c r="D2002" s="39"/>
+      <c r="E2002" s="6">
+        <f>A1996+C2002-D1996</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2003" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2003" s="64">
+        <f>A1996+C2002</f>
+        <v>4500</v>
+      </c>
+      <c r="C2003" s="65"/>
+      <c r="D2003" s="65"/>
+      <c r="E2003" s="66"/>
+    </row>
+    <row r="2005" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2006" spans="1:5" ht="18.75">
+      <c r="A2006" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2006" s="55"/>
+      <c r="C2006" s="55"/>
+      <c r="D2006" s="55"/>
+      <c r="E2006" s="56"/>
+    </row>
+    <row r="2007" spans="1:5">
+      <c r="A2007" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2007" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2007" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2007" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2007" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:5">
+      <c r="A2008" s="61">
+        <f>E2002</f>
+        <v>500</v>
+      </c>
+      <c r="B2008" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2008" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2008" s="48">
+        <v>4000</v>
+      </c>
+      <c r="E2008" s="6"/>
+    </row>
+    <row r="2009" spans="1:5">
+      <c r="A2009" s="61"/>
+      <c r="B2009" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2009" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2009" s="48"/>
+      <c r="E2009" s="6"/>
+    </row>
+    <row r="2010" spans="1:5">
+      <c r="A2010" s="61"/>
+      <c r="B2010" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2010" s="5">
+        <v>370</v>
+      </c>
+      <c r="D2010" s="48"/>
+      <c r="E2010" s="6"/>
+    </row>
+    <row r="2011" spans="1:5">
+      <c r="A2011" s="61"/>
+      <c r="B2011" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2011" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D2011" s="48"/>
+      <c r="E2011" s="6"/>
+    </row>
+    <row r="2012" spans="1:5">
+      <c r="A2012" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2012" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2012" s="5">
+        <f>SUM(C2008:C2011)</f>
+        <v>1610</v>
+      </c>
+      <c r="D2012" s="39"/>
+      <c r="E2012" s="6">
+        <f>A2008+C2012-D2008</f>
+        <v>-1890</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2013" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2013" s="64">
+        <f>A2008+C2012</f>
+        <v>2110</v>
+      </c>
+      <c r="C2013" s="65"/>
+      <c r="D2013" s="65"/>
+      <c r="E2013" s="66"/>
+    </row>
+    <row r="2015" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2016" spans="1:5" ht="18.75">
+      <c r="A2016" s="54" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2016" s="55"/>
+      <c r="C2016" s="55"/>
+      <c r="D2016" s="55"/>
+      <c r="E2016" s="56"/>
+    </row>
+    <row r="2017" spans="1:5">
+      <c r="A2017" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2017" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2017" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2017" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2017" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:5">
+      <c r="A2018" s="61">
+        <f>E2012</f>
+        <v>-1890</v>
+      </c>
+      <c r="B2018" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2018" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2018" s="48">
+        <v>5000</v>
+      </c>
+      <c r="E2018" s="6"/>
+    </row>
+    <row r="2019" spans="1:5">
+      <c r="A2019" s="61"/>
+      <c r="B2019" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2019" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D2019" s="48"/>
+      <c r="E2019" s="6"/>
+    </row>
+    <row r="2020" spans="1:5">
+      <c r="A2020" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2020" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2020" s="5">
+        <f>SUM(C2018:C2019)</f>
+        <v>1550</v>
+      </c>
+      <c r="D2020" s="39"/>
+      <c r="E2020" s="6">
+        <f>A2018+C2020-D2018</f>
+        <v>-5340</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2021" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2021" s="64">
+        <f>A2018+C2020</f>
+        <v>-340</v>
+      </c>
+      <c r="C2021" s="65"/>
+      <c r="D2021" s="65"/>
+      <c r="E2021" s="66"/>
+    </row>
+    <row r="2023" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2024" spans="1:5" ht="18.75">
+      <c r="A2024" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2024" s="55"/>
+      <c r="C2024" s="55"/>
+      <c r="D2024" s="55"/>
+      <c r="E2024" s="56"/>
+    </row>
+    <row r="2025" spans="1:5">
+      <c r="A2025" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2025" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2025" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2025" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2025" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:5">
+      <c r="A2026" s="61">
+        <f>E2020</f>
+        <v>-5340</v>
+      </c>
+      <c r="B2026" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2026" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2026" s="48">
+        <v>11000</v>
+      </c>
+      <c r="E2026" s="6"/>
+    </row>
+    <row r="2027" spans="1:5">
+      <c r="A2027" s="61"/>
+      <c r="B2027" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2027" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2027" s="48"/>
+      <c r="E2027" s="6"/>
+    </row>
+    <row r="2028" spans="1:5">
+      <c r="A2028" s="61"/>
+      <c r="B2028" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2028" s="5">
+        <v>370</v>
+      </c>
+      <c r="D2028" s="48"/>
+      <c r="E2028" s="6"/>
+    </row>
+    <row r="2029" spans="1:5">
+      <c r="A2029" s="61"/>
+      <c r="B2029" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2029" s="5">
+        <v>120</v>
+      </c>
+      <c r="D2029" s="48"/>
+      <c r="E2029" s="6"/>
+    </row>
+    <row r="2030" spans="1:5">
+      <c r="A2030" s="61"/>
+      <c r="B2030" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2030" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2030" s="48"/>
+      <c r="E2030" s="6"/>
+    </row>
+    <row r="2031" spans="1:5">
+      <c r="A2031" s="61"/>
+      <c r="B2031" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2031" s="5">
+        <v>500</v>
+      </c>
+      <c r="D2031" s="48"/>
+      <c r="E2031" s="6"/>
+    </row>
+    <row r="2032" spans="1:5">
+      <c r="A2032" s="61"/>
+      <c r="B2032" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2032" s="5">
+        <v>2150</v>
+      </c>
+      <c r="D2032" s="48"/>
+      <c r="E2032" s="6"/>
+    </row>
+    <row r="2033" spans="1:5">
+      <c r="A2033" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2033" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2033" s="5">
+        <f>SUM(C2026:C2032)</f>
+        <v>3330</v>
+      </c>
+      <c r="D2033" s="39"/>
+      <c r="E2033" s="6">
+        <f>A2026+C2033-D2026</f>
+        <v>-13010</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2034" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2034" s="64">
+        <f>A2026+C2033</f>
+        <v>-2010</v>
+      </c>
+      <c r="C2034" s="65"/>
+      <c r="D2034" s="65"/>
+      <c r="E2034" s="66"/>
+    </row>
+    <row r="2036" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2037" spans="1:5" ht="18.75">
+      <c r="A2037" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2037" s="55"/>
+      <c r="C2037" s="55"/>
+      <c r="D2037" s="55"/>
+      <c r="E2037" s="56"/>
+    </row>
+    <row r="2038" spans="1:5">
+      <c r="A2038" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2038" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2038" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2038" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2038" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5">
+      <c r="A2039" s="61">
+        <f>E2033</f>
+        <v>-13010</v>
+      </c>
+      <c r="B2039" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2039" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2039" s="48"/>
+      <c r="E2039" s="6"/>
+    </row>
+    <row r="2040" spans="1:5">
+      <c r="A2040" s="61"/>
+      <c r="B2040" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2040" s="5">
+        <v>800</v>
+      </c>
+      <c r="D2040" s="48"/>
+      <c r="E2040" s="6"/>
+    </row>
+    <row r="2041" spans="1:5">
+      <c r="A2041" s="61"/>
+      <c r="B2041" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2041" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2041" s="48"/>
+      <c r="E2041" s="6"/>
+    </row>
+    <row r="2042" spans="1:5">
+      <c r="A2042" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2042" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2042" s="5">
+        <f>SUM(C2039:C2041)</f>
+        <v>1180</v>
+      </c>
+      <c r="D2042" s="39"/>
+      <c r="E2042" s="6">
+        <f>A2039+C2042-D2039</f>
+        <v>-11830</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2043" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2043" s="64">
+        <f>A2039+C2042</f>
+        <v>-11830</v>
+      </c>
+      <c r="C2043" s="65"/>
+      <c r="D2043" s="65"/>
+      <c r="E2043" s="66"/>
+    </row>
+    <row r="2045" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2046" spans="1:5" ht="18.75">
+      <c r="A2046" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2046" s="55"/>
+      <c r="C2046" s="55"/>
+      <c r="D2046" s="55"/>
+      <c r="E2046" s="56"/>
+    </row>
+    <row r="2047" spans="1:5">
+      <c r="A2047" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2047" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2047" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2047" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2047" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5">
+      <c r="A2048" s="61">
+        <f>E2042</f>
+        <v>-11830</v>
+      </c>
+      <c r="B2048" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2048" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2048" s="48"/>
+      <c r="E2048" s="6"/>
+    </row>
+    <row r="2049" spans="1:5">
+      <c r="A2049" s="61"/>
+      <c r="B2049" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2049" s="5">
+        <v>230</v>
+      </c>
+      <c r="D2049" s="48"/>
+      <c r="E2049" s="6"/>
+    </row>
+    <row r="2050" spans="1:5">
+      <c r="A2050" s="61"/>
+      <c r="B2050" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2050" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2050" s="48"/>
+      <c r="E2050" s="6"/>
+    </row>
+    <row r="2051" spans="1:5">
+      <c r="A2051" s="61"/>
+      <c r="B2051" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2051" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2051" s="48"/>
+      <c r="E2051" s="6"/>
+    </row>
+    <row r="2052" spans="1:5">
+      <c r="A2052" s="61"/>
+      <c r="B2052" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2052" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2052" s="48"/>
+      <c r="E2052" s="6"/>
+    </row>
+    <row r="2053" spans="1:5">
+      <c r="A2053" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2053" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2053" s="5">
+        <f>SUM(C2048:C2052)</f>
+        <v>1700</v>
+      </c>
+      <c r="D2053" s="39"/>
+      <c r="E2053" s="6">
+        <f>A2048+C2053-D2048</f>
+        <v>-10130</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2054" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2054" s="64">
+        <f>A2048+C2053</f>
+        <v>-10130</v>
+      </c>
+      <c r="C2054" s="65"/>
+      <c r="D2054" s="65"/>
+      <c r="E2054" s="66"/>
+    </row>
+    <row r="2056" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2057" spans="1:5" ht="18.75">
+      <c r="A2057" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2057" s="55"/>
+      <c r="C2057" s="55"/>
+      <c r="D2057" s="55"/>
+      <c r="E2057" s="56"/>
+    </row>
+    <row r="2058" spans="1:5">
+      <c r="A2058" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2058" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2058" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2058" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2058" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:5">
+      <c r="A2059" s="61">
+        <f>E2053</f>
+        <v>-10130</v>
+      </c>
+      <c r="B2059" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2059" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2059" s="48"/>
+      <c r="E2059" s="6"/>
+    </row>
+    <row r="2060" spans="1:5">
+      <c r="A2060" s="61"/>
+      <c r="B2060" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2060" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2060" s="48"/>
+      <c r="E2060" s="6"/>
+    </row>
+    <row r="2061" spans="1:5">
+      <c r="A2061" s="61"/>
+      <c r="B2061" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2061" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2061" s="48"/>
+      <c r="E2061" s="6"/>
+    </row>
+    <row r="2062" spans="1:5">
+      <c r="A2062" s="61"/>
+      <c r="B2062" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2062" s="5">
+        <v>380</v>
+      </c>
+      <c r="D2062" s="48"/>
+      <c r="E2062" s="6"/>
+    </row>
+    <row r="2063" spans="1:5">
+      <c r="A2063" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2063" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2063" s="5">
+        <f>SUM(C2059:C2062)</f>
+        <v>1420</v>
+      </c>
+      <c r="D2063" s="39"/>
+      <c r="E2063" s="6">
+        <f>A2059+C2063-D2059</f>
+        <v>-8710</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2064" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2064" s="64">
+        <f>A2059+C2063</f>
+        <v>-8710</v>
+      </c>
+      <c r="C2064" s="65"/>
+      <c r="D2064" s="65"/>
+      <c r="E2064" s="66"/>
+    </row>
+    <row r="2066" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2067" spans="1:5" ht="18.75">
+      <c r="A2067" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2067" s="55"/>
+      <c r="C2067" s="55"/>
+      <c r="D2067" s="55"/>
+      <c r="E2067" s="56"/>
+    </row>
+    <row r="2068" spans="1:5">
+      <c r="A2068" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2068" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2068" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2068" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2068" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:5">
+      <c r="A2069" s="61">
+        <f>E2063</f>
+        <v>-8710</v>
+      </c>
+      <c r="B2069" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2069" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2069" s="48"/>
+      <c r="E2069" s="6"/>
+    </row>
+    <row r="2070" spans="1:5">
+      <c r="A2070" s="61"/>
+      <c r="B2070" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2070" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2070" s="48"/>
+      <c r="E2070" s="6"/>
+    </row>
+    <row r="2071" spans="1:5">
+      <c r="A2071" s="61"/>
+      <c r="B2071" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2071" s="5">
+        <v>70</v>
+      </c>
+      <c r="D2071" s="48"/>
+      <c r="E2071" s="6"/>
+    </row>
+    <row r="2072" spans="1:5">
+      <c r="A2072" s="61"/>
+      <c r="B2072" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2072" s="5">
+        <v>1650</v>
+      </c>
+      <c r="D2072" s="48"/>
+      <c r="E2072" s="6"/>
+    </row>
+    <row r="2073" spans="1:5">
+      <c r="A2073" s="61"/>
+      <c r="B2073" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2073" s="5">
+        <v>70</v>
+      </c>
+      <c r="D2073" s="48"/>
+      <c r="E2073" s="6"/>
+    </row>
+    <row r="2074" spans="1:5">
+      <c r="A2074" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2074" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2074" s="5">
+        <f>SUM(C2069:C2073)</f>
+        <v>3140</v>
+      </c>
+      <c r="D2074" s="39"/>
+      <c r="E2074" s="6">
+        <f>A2069+C2074-D2069</f>
+        <v>-5570</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2075" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2075" s="64">
+        <f>A2069+C2074</f>
+        <v>-5570</v>
+      </c>
+      <c r="C2075" s="65"/>
+      <c r="D2075" s="65"/>
+      <c r="E2075" s="66"/>
+    </row>
+    <row r="2077" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2078" spans="1:5" ht="18.75">
+      <c r="A2078" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2078" s="55"/>
+      <c r="C2078" s="55"/>
+      <c r="D2078" s="55"/>
+      <c r="E2078" s="56"/>
+    </row>
+    <row r="2079" spans="1:5">
+      <c r="A2079" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2079" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2079" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2079" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2079" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:5">
+      <c r="A2080" s="61">
+        <f>E2074</f>
+        <v>-5570</v>
+      </c>
+      <c r="B2080" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2080" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2080" s="48">
+        <v>5000</v>
+      </c>
+      <c r="E2080" s="6"/>
+    </row>
+    <row r="2081" spans="1:5">
+      <c r="A2081" s="61"/>
+      <c r="B2081" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2081" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2081" s="48"/>
+      <c r="E2081" s="6"/>
+    </row>
+    <row r="2082" spans="1:5">
+      <c r="A2082" s="61"/>
+      <c r="B2082" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2082" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2082" s="48"/>
+      <c r="E2082" s="6"/>
+    </row>
+    <row r="2083" spans="1:5">
+      <c r="A2083" s="61"/>
+      <c r="B2083" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2083" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2083" s="48"/>
+      <c r="E2083" s="6"/>
+    </row>
+    <row r="2084" spans="1:5">
+      <c r="A2084" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2084" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2084" s="5">
+        <f>SUM(C2080:C2083)</f>
+        <v>1470</v>
+      </c>
+      <c r="D2084" s="39"/>
+      <c r="E2084" s="6">
+        <f>A2080+C2084-D2080</f>
+        <v>-9100</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2085" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2085" s="64">
+        <f>A2080+C2084</f>
+        <v>-4100</v>
+      </c>
+      <c r="C2085" s="65"/>
+      <c r="D2085" s="65"/>
+      <c r="E2085" s="66"/>
+    </row>
+    <row r="2087" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2088" spans="1:5" ht="18.75">
+      <c r="A2088" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2088" s="55"/>
+      <c r="C2088" s="55"/>
+      <c r="D2088" s="55"/>
+      <c r="E2088" s="56"/>
+    </row>
+    <row r="2089" spans="1:5">
+      <c r="A2089" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2089" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2089" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2089" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2089" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:5">
+      <c r="A2090" s="61">
+        <f>E2084</f>
+        <v>-9100</v>
+      </c>
+      <c r="B2090" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2090" s="5">
+        <v>280</v>
+      </c>
+      <c r="D2090" s="48"/>
+      <c r="E2090" s="6"/>
+    </row>
+    <row r="2091" spans="1:5">
+      <c r="A2091" s="61"/>
+      <c r="B2091" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2091" s="5">
+        <v>110</v>
+      </c>
+      <c r="D2091" s="48"/>
+      <c r="E2091" s="6"/>
+    </row>
+    <row r="2092" spans="1:5">
+      <c r="A2092" s="61"/>
+      <c r="B2092" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2092" s="5">
+        <v>380</v>
+      </c>
+      <c r="D2092" s="48"/>
+      <c r="E2092" s="6"/>
+    </row>
+    <row r="2093" spans="1:5">
+      <c r="A2093" s="61"/>
+      <c r="B2093" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2093" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2093" s="48"/>
+      <c r="E2093" s="6"/>
+    </row>
+    <row r="2094" spans="1:5">
+      <c r="A2094" s="61"/>
+      <c r="B2094" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2094" s="5">
+        <v>800</v>
+      </c>
+      <c r="D2094" s="48"/>
+      <c r="E2094" s="6"/>
+    </row>
+    <row r="2095" spans="1:5">
+      <c r="A2095" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2095" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2095" s="5">
+        <f>SUM(C2090:C2094)</f>
+        <v>1610</v>
+      </c>
+      <c r="D2095" s="39"/>
+      <c r="E2095" s="6">
+        <f>A2090+C2095-D2090</f>
+        <v>-7490</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2096" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2096" s="64">
+        <f>A2090+C2095</f>
+        <v>-7490</v>
+      </c>
+      <c r="C2096" s="65"/>
+      <c r="D2096" s="65"/>
+      <c r="E2096" s="66"/>
+    </row>
+    <row r="2098" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2099" spans="1:5" ht="18.75">
+      <c r="A2099" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2099" s="55"/>
+      <c r="C2099" s="55"/>
+      <c r="D2099" s="55"/>
+      <c r="E2099" s="56"/>
+    </row>
+    <row r="2100" spans="1:5">
+      <c r="A2100" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2100" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:5">
+      <c r="A2101" s="61">
+        <f>E2095</f>
+        <v>-7490</v>
+      </c>
+      <c r="B2101" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2101" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2101" s="48"/>
+      <c r="E2101" s="6"/>
+    </row>
+    <row r="2102" spans="1:5">
+      <c r="A2102" s="61"/>
+      <c r="B2102" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2102" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2102" s="48"/>
+      <c r="E2102" s="6"/>
+    </row>
+    <row r="2103" spans="1:5">
+      <c r="A2103" s="61"/>
+      <c r="B2103" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2103" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2103" s="48"/>
+      <c r="E2103" s="6"/>
+    </row>
+    <row r="2104" spans="1:5">
+      <c r="A2104" s="61"/>
+      <c r="B2104" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2104" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2104" s="48"/>
+      <c r="E2104" s="6"/>
+    </row>
+    <row r="2105" spans="1:5">
+      <c r="A2105" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2105" s="5">
+        <f>SUM(C2101:C2104)</f>
+        <v>1440</v>
+      </c>
+      <c r="D2105" s="39"/>
+      <c r="E2105" s="6">
+        <f>A2101+C2105-D2101</f>
+        <v>-6050</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2106" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2106" s="64">
+        <f>A2101+C2105</f>
+        <v>-6050</v>
+      </c>
+      <c r="C2106" s="65"/>
+      <c r="D2106" s="65"/>
+      <c r="E2106" s="66"/>
+    </row>
+    <row r="2108" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2109" spans="1:5" ht="18.75">
+      <c r="A2109" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2109" s="55"/>
+      <c r="C2109" s="55"/>
+      <c r="D2109" s="55"/>
+      <c r="E2109" s="56"/>
+    </row>
+    <row r="2110" spans="1:5">
+      <c r="A2110" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2110" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:5">
+      <c r="A2111" s="61">
+        <f>E2105</f>
+        <v>-6050</v>
+      </c>
+      <c r="B2111" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2111" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2111" s="48"/>
+      <c r="E2111" s="6"/>
+    </row>
+    <row r="2112" spans="1:5">
+      <c r="A2112" s="61"/>
+      <c r="B2112" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2112" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2112" s="48"/>
+      <c r="E2112" s="6"/>
+    </row>
+    <row r="2113" spans="1:5">
+      <c r="A2113" s="61"/>
+      <c r="B2113" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2113" s="5">
+        <v>800</v>
+      </c>
+      <c r="D2113" s="48"/>
+      <c r="E2113" s="6"/>
+    </row>
+    <row r="2114" spans="1:5">
+      <c r="A2114" s="61"/>
+      <c r="B2114" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2114" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2114" s="48"/>
+      <c r="E2114" s="6"/>
+    </row>
+    <row r="2115" spans="1:5">
+      <c r="A2115" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2115" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2115" s="5">
+        <f>SUM(C2111:C2114)</f>
+        <v>1230</v>
+      </c>
+      <c r="D2115" s="39"/>
+      <c r="E2115" s="6">
+        <f>A2111+C2115-D2111</f>
+        <v>-4820</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2116" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2116" s="64">
+        <f>A2111+C2115</f>
+        <v>-4820</v>
+      </c>
+      <c r="C2116" s="65"/>
+      <c r="D2116" s="65"/>
+      <c r="E2116" s="66"/>
+    </row>
+    <row r="2118" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2119" spans="1:5" ht="18.75">
+      <c r="A2119" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2119" s="55"/>
+      <c r="C2119" s="55"/>
+      <c r="D2119" s="55"/>
+      <c r="E2119" s="56"/>
+    </row>
+    <row r="2120" spans="1:5">
+      <c r="A2120" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2120" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:5">
+      <c r="A2121" s="61">
+        <f>E2115</f>
+        <v>-4820</v>
+      </c>
+      <c r="B2121" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2121" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2121" s="48"/>
+      <c r="E2121" s="6"/>
+    </row>
+    <row r="2122" spans="1:5">
+      <c r="A2122" s="61"/>
+      <c r="B2122" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2122" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2122" s="48"/>
+      <c r="E2122" s="6"/>
+    </row>
+    <row r="2123" spans="1:5">
+      <c r="A2123" s="61"/>
+      <c r="B2123" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2123" s="5">
+        <v>800</v>
+      </c>
+      <c r="D2123" s="48"/>
+      <c r="E2123" s="6"/>
+    </row>
+    <row r="2124" spans="1:5">
+      <c r="A2124" s="61"/>
+      <c r="B2124" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2124" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2124" s="48"/>
+      <c r="E2124" s="6"/>
+    </row>
+    <row r="2125" spans="1:5">
+      <c r="A2125" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2125" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2125" s="5">
+        <f>SUM(C2121:C2124)</f>
+        <v>1280</v>
+      </c>
+      <c r="D2125" s="39"/>
+      <c r="E2125" s="6">
+        <f>A2121+C2125-D2121</f>
+        <v>-3540</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2126" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2126" s="64">
+        <f>A2121+C2125</f>
+        <v>-3540</v>
+      </c>
+      <c r="C2126" s="65"/>
+      <c r="D2126" s="65"/>
+      <c r="E2126" s="66"/>
+    </row>
+    <row r="2128" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2129" spans="1:5" ht="18.75">
+      <c r="A2129" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2129" s="55"/>
+      <c r="C2129" s="55"/>
+      <c r="D2129" s="55"/>
+      <c r="E2129" s="56"/>
+    </row>
+    <row r="2130" spans="1:5">
+      <c r="A2130" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2130" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:5">
+      <c r="A2131" s="61">
+        <f>E2125</f>
+        <v>-3540</v>
+      </c>
+      <c r="B2131" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2131" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2131" s="48">
+        <v>5000</v>
+      </c>
+      <c r="E2131" s="6"/>
+    </row>
+    <row r="2132" spans="1:5">
+      <c r="A2132" s="61"/>
+      <c r="B2132" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2132" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2132" s="48"/>
+      <c r="E2132" s="6"/>
+    </row>
+    <row r="2133" spans="1:5">
+      <c r="A2133" s="61"/>
+      <c r="B2133" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2133" s="5">
+        <v>800</v>
+      </c>
+      <c r="D2133" s="48"/>
+      <c r="E2133" s="6"/>
+    </row>
+    <row r="2134" spans="1:5">
+      <c r="A2134" s="61"/>
+      <c r="B2134" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2134" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2134" s="48"/>
+      <c r="E2134" s="6"/>
+    </row>
+    <row r="2135" spans="1:5">
+      <c r="A2135" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2135" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2135" s="5">
+        <f>SUM(C2131:C2134)</f>
+        <v>1280</v>
+      </c>
+      <c r="D2135" s="39"/>
+      <c r="E2135" s="6">
+        <f>A2131+C2135-D2131</f>
+        <v>-7260</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2136" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2136" s="64">
+        <f>A2131+C2135</f>
+        <v>-2260</v>
+      </c>
+      <c r="C2136" s="65"/>
+      <c r="D2136" s="65"/>
+      <c r="E2136" s="66"/>
+    </row>
+    <row r="2138" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2139" spans="1:5" ht="18.75">
+      <c r="A2139" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="B2139" s="55"/>
+      <c r="C2139" s="55"/>
+      <c r="D2139" s="55"/>
+      <c r="E2139" s="56"/>
+    </row>
+    <row r="2140" spans="1:5">
+      <c r="A2140" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2140" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2140" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2140" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:5">
+      <c r="A2141" s="61">
+        <f>E2135</f>
+        <v>-7260</v>
+      </c>
+      <c r="B2141" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2141" s="5">
+        <v>260</v>
+      </c>
+      <c r="D2141" s="48"/>
+      <c r="E2141" s="6"/>
+    </row>
+    <row r="2142" spans="1:5">
+      <c r="A2142" s="61"/>
+      <c r="B2142" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2142" s="5">
+        <v>2860</v>
+      </c>
+      <c r="D2142" s="48"/>
+      <c r="E2142" s="6"/>
+    </row>
+    <row r="2143" spans="1:5">
+      <c r="A2143" s="61"/>
+      <c r="B2143" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2143" s="5">
+        <v>70</v>
+      </c>
+      <c r="D2143" s="48"/>
+      <c r="E2143" s="6"/>
+    </row>
+    <row r="2144" spans="1:5">
+      <c r="A2144" s="61"/>
+      <c r="B2144" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2144" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2144" s="48"/>
+      <c r="E2144" s="6"/>
+    </row>
+    <row r="2145" spans="1:5">
+      <c r="A2145" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2145" s="5">
+        <f>SUM(C2141:C2144)</f>
+        <v>3590</v>
+      </c>
+      <c r="D2145" s="39"/>
+      <c r="E2145" s="6">
+        <f>A2141+C2145-D2141</f>
+        <v>-3670</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2146" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2146" s="64">
+        <f>A2141+C2145</f>
+        <v>-3670</v>
+      </c>
+      <c r="C2146" s="65"/>
+      <c r="D2146" s="65"/>
+      <c r="E2146" s="66"/>
+    </row>
+    <row r="2148" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2149" spans="1:5" ht="18.75">
+      <c r="A2149" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2149" s="55"/>
+      <c r="C2149" s="55"/>
+      <c r="D2149" s="55"/>
+      <c r="E2149" s="56"/>
+    </row>
+    <row r="2150" spans="1:5">
+      <c r="A2150" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2150" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:5">
+      <c r="A2151" s="61">
+        <f>E2145</f>
+        <v>-3670</v>
+      </c>
+      <c r="B2151" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2151" s="5">
+        <v>130</v>
+      </c>
+      <c r="D2151" s="48"/>
+      <c r="E2151" s="6"/>
+    </row>
+    <row r="2152" spans="1:5">
+      <c r="A2152" s="61"/>
+      <c r="B2152" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2152" s="5">
+        <v>120</v>
+      </c>
+      <c r="D2152" s="48"/>
+      <c r="E2152" s="6"/>
+    </row>
+    <row r="2153" spans="1:5">
+      <c r="A2153" s="61"/>
+      <c r="B2153" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2153" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2153" s="48"/>
+      <c r="E2153" s="6"/>
+    </row>
+    <row r="2154" spans="1:5">
+      <c r="A2154" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2154" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2154" s="5">
+        <f>SUM(C2151:C2153)</f>
+        <v>650</v>
+      </c>
+      <c r="D2154" s="39"/>
+      <c r="E2154" s="6">
+        <f>A2151+C2154-D2151</f>
+        <v>-3020</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2155" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2155" s="64">
+        <f>A2151+C2154</f>
+        <v>-3020</v>
+      </c>
+      <c r="C2155" s="65"/>
+      <c r="D2155" s="65"/>
+      <c r="E2155" s="66"/>
+    </row>
+    <row r="2157" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2158" spans="1:5" ht="18.75">
+      <c r="A2158" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2158" s="55"/>
+      <c r="C2158" s="55"/>
+      <c r="D2158" s="55"/>
+      <c r="E2158" s="56"/>
+    </row>
+    <row r="2159" spans="1:5">
+      <c r="A2159" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2159" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2159" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2159" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2159" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:5">
+      <c r="A2160" s="61">
+        <f>E2154</f>
+        <v>-3020</v>
+      </c>
+      <c r="B2160" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2160" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2160" s="48"/>
+      <c r="E2160" s="6"/>
+    </row>
+    <row r="2161" spans="1:5">
+      <c r="A2161" s="61"/>
+      <c r="B2161" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2161" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2161" s="48"/>
+      <c r="E2161" s="6"/>
+    </row>
+    <row r="2162" spans="1:5">
+      <c r="A2162" s="61"/>
+      <c r="B2162" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2162" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2162" s="48"/>
+      <c r="E2162" s="6"/>
+    </row>
+    <row r="2163" spans="1:5">
+      <c r="A2163" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2163" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2163" s="5">
+        <f>SUM(C2160:C2162)</f>
+        <v>440</v>
+      </c>
+      <c r="D2163" s="39"/>
+      <c r="E2163" s="6">
+        <f>A2160+C2163-D2160</f>
+        <v>-2580</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2164" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2164" s="64">
+        <f>A2160+C2163</f>
+        <v>-2580</v>
+      </c>
+      <c r="C2164" s="65"/>
+      <c r="D2164" s="65"/>
+      <c r="E2164" s="66"/>
+    </row>
+    <row r="2166" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2167" spans="1:5" ht="18.75">
+      <c r="A2167" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="B2167" s="55"/>
+      <c r="C2167" s="55"/>
+      <c r="D2167" s="55"/>
+      <c r="E2167" s="56"/>
+    </row>
+    <row r="2168" spans="1:5">
+      <c r="A2168" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2168" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2168" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2168" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:5">
+      <c r="A2169" s="61">
+        <f>E2163</f>
+        <v>-2580</v>
+      </c>
+      <c r="B2169" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2169" s="5">
+        <v>380</v>
+      </c>
+      <c r="D2169" s="48"/>
+      <c r="E2169" s="6"/>
+    </row>
+    <row r="2170" spans="1:5">
+      <c r="A2170" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2170" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2170" s="5">
+        <f>SUM(C2169:C2169)</f>
+        <v>380</v>
+      </c>
+      <c r="D2170" s="39"/>
+      <c r="E2170" s="6">
+        <f>A2169+C2170-D2169</f>
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2171" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2171" s="64">
+        <f>A2169+C2170</f>
+        <v>-2200</v>
+      </c>
+      <c r="C2171" s="65"/>
+      <c r="D2171" s="65"/>
+      <c r="E2171" s="66"/>
+    </row>
+    <row r="2173" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2174" spans="1:5" ht="18.75">
+      <c r="A2174" s="54" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2174" s="55"/>
+      <c r="C2174" s="55"/>
+      <c r="D2174" s="55"/>
+      <c r="E2174" s="56"/>
+    </row>
+    <row r="2175" spans="1:5">
+      <c r="A2175" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2175" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2175" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:5">
+      <c r="A2176" s="61">
+        <f>E2170</f>
+        <v>-2200</v>
+      </c>
+      <c r="B2176" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2176" s="5">
+        <v>370</v>
+      </c>
+      <c r="D2176" s="48"/>
+      <c r="E2176" s="6"/>
+    </row>
+    <row r="2177" spans="1:5">
+      <c r="A2177" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2177" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2177" s="5">
+        <f>SUM(C2176:C2176)</f>
+        <v>370</v>
+      </c>
+      <c r="D2177" s="39"/>
+      <c r="E2177" s="6">
+        <f>A2176+C2177-D2176</f>
+        <v>-1830</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2178" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2178" s="64">
+        <f>A2176+C2177</f>
+        <v>-1830</v>
+      </c>
+      <c r="C2178" s="65"/>
+      <c r="D2178" s="65"/>
+      <c r="E2178" s="66"/>
+    </row>
+    <row r="2180" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2181" spans="1:5" ht="18.75">
+      <c r="A2181" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2181" s="55"/>
+      <c r="C2181" s="55"/>
+      <c r="D2181" s="55"/>
+      <c r="E2181" s="56"/>
+    </row>
+    <row r="2182" spans="1:5">
+      <c r="A2182" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2182" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2182" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2182" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2182" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:5">
+      <c r="A2183" s="61">
+        <f>E2177</f>
+        <v>-1830</v>
+      </c>
+      <c r="B2183" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2183" s="5">
+        <v>120</v>
+      </c>
+      <c r="D2183" s="48">
+        <v>3000</v>
+      </c>
+      <c r="E2183" s="6"/>
+    </row>
+    <row r="2184" spans="1:5">
+      <c r="A2184" s="61"/>
+      <c r="B2184" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2184" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2184" s="48"/>
+      <c r="E2184" s="6"/>
+    </row>
+    <row r="2185" spans="1:5">
+      <c r="A2185" s="61"/>
+      <c r="B2185" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2185" s="5">
+        <v>130</v>
+      </c>
+      <c r="D2185" s="48"/>
+      <c r="E2185" s="6"/>
+    </row>
+    <row r="2186" spans="1:5">
+      <c r="A2186" s="61"/>
+      <c r="B2186" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2186" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2186" s="48"/>
+      <c r="E2186" s="6"/>
+    </row>
+    <row r="2187" spans="1:5">
+      <c r="A2187" s="61"/>
+      <c r="B2187" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2187" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2187" s="48"/>
+      <c r="E2187" s="6"/>
+    </row>
+    <row r="2188" spans="1:5">
+      <c r="A2188" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2188" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2188" s="5">
+        <f>SUM(C2183:C2187)</f>
+        <v>710</v>
+      </c>
+      <c r="D2188" s="39"/>
+      <c r="E2188" s="6">
+        <f>A2183+C2188-D2183</f>
+        <v>-4120</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2189" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2189" s="64">
+        <f>A2183+C2188</f>
+        <v>-1120</v>
+      </c>
+      <c r="C2189" s="65"/>
+      <c r="D2189" s="65"/>
+      <c r="E2189" s="66"/>
+    </row>
+    <row r="2191" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2192" spans="1:5" ht="18.75">
+      <c r="A2192" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2192" s="55"/>
+      <c r="C2192" s="55"/>
+      <c r="D2192" s="55"/>
+      <c r="E2192" s="56"/>
+    </row>
+    <row r="2193" spans="1:5">
+      <c r="A2193" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2193" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2193" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2193" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2193" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:5">
+      <c r="A2194" s="61">
+        <f>E2188</f>
+        <v>-4120</v>
+      </c>
+      <c r="B2194" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2194" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2194" s="48">
+        <v>7000</v>
+      </c>
+      <c r="E2194" s="6"/>
+    </row>
+    <row r="2195" spans="1:5">
+      <c r="A2195" s="61"/>
+      <c r="B2195" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2195" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2195" s="48"/>
+      <c r="E2195" s="6"/>
+    </row>
+    <row r="2196" spans="1:5">
+      <c r="A2196" s="61"/>
+      <c r="B2196" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2196" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2196" s="48"/>
+      <c r="E2196" s="6"/>
+    </row>
+    <row r="2197" spans="1:5">
+      <c r="A2197" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2197" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2197" s="5">
+        <f>SUM(C2194:C2196)</f>
+        <v>440</v>
+      </c>
+      <c r="D2197" s="39"/>
+      <c r="E2197" s="6">
+        <f>A2194+C2197-D2194</f>
+        <v>-10680</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2198" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2198" s="64">
+        <f>A2194+C2197</f>
+        <v>-3680</v>
+      </c>
+      <c r="C2198" s="65"/>
+      <c r="D2198" s="65"/>
+      <c r="E2198" s="66"/>
+    </row>
+    <row r="2200" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2201" spans="1:5" ht="18.75">
+      <c r="A2201" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2201" s="55"/>
+      <c r="C2201" s="55"/>
+      <c r="D2201" s="55"/>
+      <c r="E2201" s="56"/>
+    </row>
+    <row r="2202" spans="1:5">
+      <c r="A2202" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2202" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2202" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2202" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2202" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:5">
+      <c r="A2203" s="61">
+        <f>E2197</f>
+        <v>-10680</v>
+      </c>
+      <c r="B2203" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2203" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2203" s="48"/>
+      <c r="E2203" s="6"/>
+    </row>
+    <row r="2204" spans="1:5">
+      <c r="A2204" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2204" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2204" s="5">
+        <f>SUM(C2203:C2203)</f>
+        <v>400</v>
+      </c>
+      <c r="D2204" s="39"/>
+      <c r="E2204" s="6">
+        <f>A2203+C2204-D2203</f>
+        <v>-10280</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2205" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2205" s="64">
+        <f>A2203+C2204</f>
+        <v>-10280</v>
+      </c>
+      <c r="C2205" s="65"/>
+      <c r="D2205" s="65"/>
+      <c r="E2205" s="66"/>
+    </row>
+    <row r="2207" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2208" spans="1:5" ht="18.75">
+      <c r="A2208" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2208" s="55"/>
+      <c r="C2208" s="55"/>
+      <c r="D2208" s="55"/>
+      <c r="E2208" s="56"/>
+    </row>
+    <row r="2209" spans="1:5">
+      <c r="A2209" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2209" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2209" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2209" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:5">
+      <c r="A2210" s="61">
+        <f>E2204</f>
+        <v>-10280</v>
+      </c>
+      <c r="B2210" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2210" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2210" s="48"/>
+      <c r="E2210" s="6"/>
+    </row>
+    <row r="2211" spans="1:5">
+      <c r="A2211" s="61"/>
+      <c r="B2211" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2211" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2211" s="48"/>
+      <c r="E2211" s="6"/>
+    </row>
+    <row r="2212" spans="1:5">
+      <c r="A2212" s="61"/>
+      <c r="B2212" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2212" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2212" s="48"/>
+      <c r="E2212" s="6"/>
+    </row>
+    <row r="2213" spans="1:5">
+      <c r="A2213" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2213" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2213" s="5">
+        <f>SUM(C2210:C2212)</f>
+        <v>440</v>
+      </c>
+      <c r="D2213" s="39"/>
+      <c r="E2213" s="6">
+        <f>A2210+C2213-D2210</f>
+        <v>-9840</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2214" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2214" s="64">
+        <f>A2210+C2213</f>
+        <v>-9840</v>
+      </c>
+      <c r="C2214" s="65"/>
+      <c r="D2214" s="65"/>
+      <c r="E2214" s="66"/>
+    </row>
+    <row r="2216" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2217" spans="1:5" ht="18.75">
+      <c r="A2217" s="54" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2217" s="55"/>
+      <c r="C2217" s="55"/>
+      <c r="D2217" s="55"/>
+      <c r="E2217" s="56"/>
+    </row>
+    <row r="2218" spans="1:5">
+      <c r="A2218" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2218" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2218" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:5">
+      <c r="A2219" s="61">
+        <f>E2213</f>
+        <v>-9840</v>
+      </c>
+      <c r="B2219" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2219" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2219" s="48"/>
+      <c r="E2219" s="6"/>
+    </row>
+    <row r="2220" spans="1:5">
+      <c r="A2220" s="61"/>
+      <c r="B2220" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2220" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2220" s="48"/>
+      <c r="E2220" s="6"/>
+    </row>
+    <row r="2221" spans="1:5">
+      <c r="A2221" s="61"/>
+      <c r="B2221" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2221" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2221" s="48"/>
+      <c r="E2221" s="6"/>
+    </row>
+    <row r="2222" spans="1:5">
+      <c r="A2222" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2222" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2222" s="5">
+        <f>SUM(C2219:C2221)</f>
+        <v>440</v>
+      </c>
+      <c r="D2222" s="39"/>
+      <c r="E2222" s="6">
+        <f>A2219+C2222-D2219</f>
+        <v>-9400</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2223" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2223" s="64">
+        <f>A2219+C2222</f>
+        <v>-9400</v>
+      </c>
+      <c r="C2223" s="65"/>
+      <c r="D2223" s="65"/>
+      <c r="E2223" s="66"/>
+    </row>
+    <row r="2225" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2226" spans="1:5" ht="18.75">
+      <c r="A2226" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2226" s="55"/>
+      <c r="C2226" s="55"/>
+      <c r="D2226" s="55"/>
+      <c r="E2226" s="56"/>
+    </row>
+    <row r="2227" spans="1:5">
+      <c r="A2227" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2227" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2227" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2227" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:5">
+      <c r="A2228" s="61">
+        <f>E2222</f>
+        <v>-9400</v>
+      </c>
+      <c r="B2228" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2228" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2228" s="48"/>
+      <c r="E2228" s="6"/>
+    </row>
+    <row r="2229" spans="1:5">
+      <c r="A2229" s="61"/>
+      <c r="B2229" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2229" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2229" s="48"/>
+      <c r="E2229" s="6"/>
+    </row>
+    <row r="2230" spans="1:5">
+      <c r="A2230" s="61"/>
+      <c r="B2230" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2230" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2230" s="48"/>
+      <c r="E2230" s="6"/>
+    </row>
+    <row r="2231" spans="1:5">
+      <c r="A2231" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2231" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2231" s="5">
+        <f>SUM(C2228:C2230)</f>
+        <v>440</v>
+      </c>
+      <c r="D2231" s="39"/>
+      <c r="E2231" s="6">
+        <f>A2228+C2231-D2228</f>
+        <v>-8960</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2232" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2232" s="64">
+        <f>A2228+C2231</f>
+        <v>-8960</v>
+      </c>
+      <c r="C2232" s="65"/>
+      <c r="D2232" s="65"/>
+      <c r="E2232" s="66"/>
+    </row>
+    <row r="2234" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2235" spans="1:5" ht="18.75">
+      <c r="A2235" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2235" s="55"/>
+      <c r="C2235" s="55"/>
+      <c r="D2235" s="55"/>
+      <c r="E2235" s="56"/>
+    </row>
+    <row r="2236" spans="1:5">
+      <c r="A2236" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2236" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2236" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2236" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2236" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:5">
+      <c r="A2237" s="61">
+        <f>E2231</f>
+        <v>-8960</v>
+      </c>
+      <c r="B2237" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2237" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2237" s="48"/>
+      <c r="E2237" s="6"/>
+    </row>
+    <row r="2238" spans="1:5">
+      <c r="A2238" s="61"/>
+      <c r="B2238" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2238" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2238" s="48"/>
+      <c r="E2238" s="6"/>
+    </row>
+    <row r="2239" spans="1:5">
+      <c r="A2239" s="61"/>
+      <c r="B2239" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2239" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2239" s="48"/>
+      <c r="E2239" s="6"/>
+    </row>
+    <row r="2240" spans="1:5">
+      <c r="A2240" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2240" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2240" s="5">
+        <f>SUM(C2237:C2239)</f>
+        <v>440</v>
+      </c>
+      <c r="D2240" s="39"/>
+      <c r="E2240" s="6">
+        <f>A2237+C2240-D2237</f>
+        <v>-8520</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2241" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2241" s="64">
+        <f>A2237+C2240</f>
+        <v>-8520</v>
+      </c>
+      <c r="C2241" s="65"/>
+      <c r="D2241" s="65"/>
+      <c r="E2241" s="66"/>
+    </row>
+    <row r="2243" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2244" spans="1:5" ht="18.75">
+      <c r="A2244" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2244" s="55"/>
+      <c r="C2244" s="55"/>
+      <c r="D2244" s="55"/>
+      <c r="E2244" s="56"/>
+    </row>
+    <row r="2245" spans="1:5">
+      <c r="A2245" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2245" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2245" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2245" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2245" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:5">
+      <c r="A2246" s="61">
+        <f>E2240</f>
+        <v>-8520</v>
+      </c>
+      <c r="B2246" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2246" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2246" s="48"/>
+      <c r="E2246" s="6"/>
+    </row>
+    <row r="2247" spans="1:5">
+      <c r="A2247" s="61"/>
+      <c r="B2247" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2247" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2247" s="48"/>
+      <c r="E2247" s="6"/>
+    </row>
+    <row r="2248" spans="1:5">
+      <c r="A2248" s="61"/>
+      <c r="B2248" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2248" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2248" s="48"/>
+      <c r="E2248" s="6"/>
+    </row>
+    <row r="2249" spans="1:5">
+      <c r="A2249" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2249" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2249" s="5">
+        <f>SUM(C2246:C2248)</f>
+        <v>440</v>
+      </c>
+      <c r="D2249" s="39"/>
+      <c r="E2249" s="6">
+        <f>A2246+C2249-D2246</f>
+        <v>-8080</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2250" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2250" s="64">
+        <f>A2246+C2249</f>
+        <v>-8080</v>
+      </c>
+      <c r="C2250" s="65"/>
+      <c r="D2250" s="65"/>
+      <c r="E2250" s="66"/>
+    </row>
+    <row r="2252" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2253" spans="1:5" ht="18.75">
+      <c r="A2253" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2253" s="55"/>
+      <c r="C2253" s="55"/>
+      <c r="D2253" s="55"/>
+      <c r="E2253" s="56"/>
+    </row>
+    <row r="2254" spans="1:5">
+      <c r="A2254" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2254" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2254" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2254" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2254" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:5">
+      <c r="A2255" s="61">
+        <f>E2249</f>
+        <v>-8080</v>
+      </c>
+      <c r="B2255" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2255" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2255" s="48"/>
+      <c r="E2255" s="6"/>
+    </row>
+    <row r="2256" spans="1:5">
+      <c r="A2256" s="61"/>
+      <c r="B2256" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2256" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2256" s="48"/>
+      <c r="E2256" s="6"/>
+    </row>
+    <row r="2257" spans="1:5">
+      <c r="A2257" s="61"/>
+      <c r="B2257" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2257" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2257" s="48"/>
+      <c r="E2257" s="6"/>
+    </row>
+    <row r="2258" spans="1:5">
+      <c r="A2258" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2258" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2258" s="5">
+        <f>SUM(C2255:C2257)</f>
+        <v>440</v>
+      </c>
+      <c r="D2258" s="39"/>
+      <c r="E2258" s="6">
+        <f>A2255+C2258-D2255</f>
+        <v>-7640</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2259" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2259" s="64">
+        <f>A2255+C2258</f>
+        <v>-7640</v>
+      </c>
+      <c r="C2259" s="65"/>
+      <c r="D2259" s="65"/>
+      <c r="E2259" s="66"/>
+    </row>
+    <row r="2261" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2262" spans="1:5" ht="18.75">
+      <c r="A2262" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2262" s="55"/>
+      <c r="C2262" s="55"/>
+      <c r="D2262" s="55"/>
+      <c r="E2262" s="56"/>
+    </row>
+    <row r="2263" spans="1:5">
+      <c r="A2263" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2263" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2263" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2263" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2263" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:5">
+      <c r="A2264" s="61">
+        <f>E2258</f>
+        <v>-7640</v>
+      </c>
+      <c r="B2264" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2264" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2264" s="48"/>
+      <c r="E2264" s="6"/>
+    </row>
+    <row r="2265" spans="1:5">
+      <c r="A2265" s="61"/>
+      <c r="B2265" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2265" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2265" s="48"/>
+      <c r="E2265" s="6"/>
+    </row>
+    <row r="2266" spans="1:5">
+      <c r="A2266" s="61"/>
+      <c r="B2266" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2266" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2266" s="48"/>
+      <c r="E2266" s="6"/>
+    </row>
+    <row r="2267" spans="1:5">
+      <c r="A2267" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2267" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2267" s="5">
+        <f>SUM(C2264:C2266)</f>
+        <v>440</v>
+      </c>
+      <c r="D2267" s="39"/>
+      <c r="E2267" s="6">
+        <f>A2264+C2267-D2264</f>
+        <v>-7200</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2268" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2268" s="64">
+        <f>A2264+C2267</f>
+        <v>-7200</v>
+      </c>
+      <c r="C2268" s="65"/>
+      <c r="D2268" s="65"/>
+      <c r="E2268" s="66"/>
+    </row>
+    <row r="2270" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2271" spans="1:5" ht="18.75">
+      <c r="A2271" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2271" s="55"/>
+      <c r="C2271" s="55"/>
+      <c r="D2271" s="55"/>
+      <c r="E2271" s="56"/>
+    </row>
+    <row r="2272" spans="1:5">
+      <c r="A2272" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2272" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2272" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2272" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2272" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:5">
+      <c r="A2273" s="61">
+        <f>E2267</f>
+        <v>-7200</v>
+      </c>
+      <c r="B2273" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2273" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2273" s="48"/>
+      <c r="E2273" s="6"/>
+    </row>
+    <row r="2274" spans="1:5">
+      <c r="A2274" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2274" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2274" s="5">
+        <f>SUM(C2273:C2273)</f>
+        <v>400</v>
+      </c>
+      <c r="D2274" s="39"/>
+      <c r="E2274" s="6">
+        <f>A2273+C2274-D2273</f>
+        <v>-6800</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2275" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2275" s="64">
+        <f>A2273+C2274</f>
+        <v>-6800</v>
+      </c>
+      <c r="C2275" s="65"/>
+      <c r="D2275" s="65"/>
+      <c r="E2275" s="66"/>
+    </row>
+    <row r="2277" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2278" spans="1:5" ht="18.75">
+      <c r="A2278" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2278" s="55"/>
+      <c r="C2278" s="55"/>
+      <c r="D2278" s="55"/>
+      <c r="E2278" s="56"/>
+    </row>
+    <row r="2279" spans="1:5">
+      <c r="A2279" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2279" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2279" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2279" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2279" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:5">
+      <c r="A2280" s="61">
+        <f>E2274</f>
+        <v>-6800</v>
+      </c>
+      <c r="B2280" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2280" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2280" s="48"/>
+      <c r="E2280" s="6"/>
+    </row>
+    <row r="2281" spans="1:5">
+      <c r="A2281" s="61"/>
+      <c r="B2281" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2281" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2281" s="48"/>
+      <c r="E2281" s="6"/>
+    </row>
+    <row r="2282" spans="1:5">
+      <c r="A2282" s="61"/>
+      <c r="B2282" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2282" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2282" s="48"/>
+      <c r="E2282" s="6"/>
+    </row>
+    <row r="2283" spans="1:5">
+      <c r="A2283" s="61"/>
+      <c r="B2283" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2283" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2283" s="48"/>
+      <c r="E2283" s="6"/>
+    </row>
+    <row r="2284" spans="1:5">
+      <c r="A2284" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2284" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2284" s="5">
+        <f>SUM(C2280:C2283)</f>
+        <v>640</v>
+      </c>
+      <c r="D2284" s="39"/>
+      <c r="E2284" s="6">
+        <f>A2280+C2284-D2280</f>
+        <v>-6160</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2285" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2285" s="64">
+        <f>A2280+C2284</f>
+        <v>-6160</v>
+      </c>
+      <c r="C2285" s="65"/>
+      <c r="D2285" s="65"/>
+      <c r="E2285" s="66"/>
+    </row>
+    <row r="2287" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2288" spans="1:5" ht="18.75">
+      <c r="A2288" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2288" s="55"/>
+      <c r="C2288" s="55"/>
+      <c r="D2288" s="55"/>
+      <c r="E2288" s="56"/>
+    </row>
+    <row r="2289" spans="1:5">
+      <c r="A2289" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2289" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2289" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2289" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2289" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:5">
+      <c r="A2290" s="61">
+        <f>E2284</f>
+        <v>-6160</v>
+      </c>
+      <c r="B2290" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2290" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2290" s="48"/>
+      <c r="E2290" s="6"/>
+    </row>
+    <row r="2291" spans="1:5">
+      <c r="A2291" s="61"/>
+      <c r="B2291" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2291" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2291" s="48"/>
+      <c r="E2291" s="6"/>
+    </row>
+    <row r="2292" spans="1:5">
+      <c r="A2292" s="61"/>
+      <c r="B2292" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2292" s="5">
+        <v>400</v>
+      </c>
+      <c r="D2292" s="48"/>
+      <c r="E2292" s="6"/>
+    </row>
+    <row r="2293" spans="1:5">
+      <c r="A2293" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2293" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2293" s="5">
+        <f>SUM(C2290:C2292)</f>
+        <v>440</v>
+      </c>
+      <c r="D2293" s="39"/>
+      <c r="E2293" s="6">
+        <f>A2290+C2293-D2290</f>
+        <v>-5720</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2294" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2294" s="64">
+        <f>A2290+C2293</f>
+        <v>-5720</v>
+      </c>
+      <c r="C2294" s="65"/>
+      <c r="D2294" s="65"/>
+      <c r="E2294" s="66"/>
+    </row>
   </sheetData>
-  <mergeCells count="219">
-    <mergeCell ref="A1925:E1925"/>
-    <mergeCell ref="A1932:E1932"/>
-    <mergeCell ref="A1939:E1939"/>
-    <mergeCell ref="A1946:E1946"/>
-    <mergeCell ref="A1956:E1956"/>
-    <mergeCell ref="A1965:E1965"/>
-    <mergeCell ref="A1978:E1978"/>
-    <mergeCell ref="A1911:E1911"/>
-    <mergeCell ref="A1826:E1826"/>
-    <mergeCell ref="A1835:E1835"/>
-    <mergeCell ref="A1844:E1844"/>
-    <mergeCell ref="A1853:E1853"/>
-    <mergeCell ref="A1869:E1869"/>
-    <mergeCell ref="A1878:E1878"/>
-    <mergeCell ref="A1887:E1887"/>
-    <mergeCell ref="A1897:E1897"/>
-    <mergeCell ref="A1904:E1904"/>
-    <mergeCell ref="A1739:E1739"/>
-    <mergeCell ref="A1749:E1749"/>
-    <mergeCell ref="A1759:E1759"/>
-    <mergeCell ref="A1768:E1768"/>
-    <mergeCell ref="A1781:E1781"/>
-    <mergeCell ref="A1790:E1790"/>
-    <mergeCell ref="A1798:E1798"/>
-    <mergeCell ref="A1808:E1808"/>
-    <mergeCell ref="A1817:E1817"/>
-    <mergeCell ref="A1476:E1476"/>
-    <mergeCell ref="A1487:E1487"/>
-    <mergeCell ref="A1495:E1495"/>
-    <mergeCell ref="A1507:E1507"/>
-    <mergeCell ref="A1523:E1523"/>
-    <mergeCell ref="A1705:E1705"/>
-    <mergeCell ref="A1715:E1715"/>
-    <mergeCell ref="A1604:E1604"/>
-    <mergeCell ref="A1615:E1615"/>
-    <mergeCell ref="A1626:E1626"/>
-    <mergeCell ref="A1637:E1637"/>
-    <mergeCell ref="A1648:E1648"/>
-    <mergeCell ref="A1658:E1658"/>
-    <mergeCell ref="A1669:E1669"/>
-    <mergeCell ref="A1682:E1682"/>
-    <mergeCell ref="A1694:E1694"/>
-    <mergeCell ref="A1395:E1395"/>
-    <mergeCell ref="A1402:E1402"/>
-    <mergeCell ref="A1413:E1413"/>
-    <mergeCell ref="A1422:E1422"/>
-    <mergeCell ref="A1430:E1430"/>
-    <mergeCell ref="A1440:E1440"/>
-    <mergeCell ref="A1451:E1451"/>
-    <mergeCell ref="A1460:E1460"/>
-    <mergeCell ref="A1468:E1468"/>
-    <mergeCell ref="A776:E776"/>
-    <mergeCell ref="A786:E786"/>
-    <mergeCell ref="A793:E793"/>
-    <mergeCell ref="A724:E724"/>
-    <mergeCell ref="A735:E735"/>
-    <mergeCell ref="A744:E744"/>
-    <mergeCell ref="A753:E753"/>
-    <mergeCell ref="A762:E762"/>
-    <mergeCell ref="A770:E770"/>
-    <mergeCell ref="A714:E714"/>
-    <mergeCell ref="A616:E616"/>
-    <mergeCell ref="A624:E624"/>
-    <mergeCell ref="A633:E633"/>
-    <mergeCell ref="A642:E642"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A658:E658"/>
-    <mergeCell ref="A674:E674"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:E686"/>
-    <mergeCell ref="A694:E694"/>
-    <mergeCell ref="A704:E704"/>
-    <mergeCell ref="A605:E605"/>
-    <mergeCell ref="A515:E515"/>
-    <mergeCell ref="A526:E526"/>
-    <mergeCell ref="A533:E533"/>
-    <mergeCell ref="A541:E541"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A557:E557"/>
-    <mergeCell ref="A565:E565"/>
-    <mergeCell ref="A573:E573"/>
-    <mergeCell ref="A581:E581"/>
-    <mergeCell ref="A589:E589"/>
-    <mergeCell ref="A598:E598"/>
-    <mergeCell ref="A507:E507"/>
-    <mergeCell ref="A414:E414"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A434:E434"/>
-    <mergeCell ref="A442:E442"/>
-    <mergeCell ref="A450:E450"/>
-    <mergeCell ref="A458:E458"/>
-    <mergeCell ref="A467:E467"/>
-    <mergeCell ref="A475:E475"/>
-    <mergeCell ref="A483:E483"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A499:E499"/>
-    <mergeCell ref="A403:E403"/>
-    <mergeCell ref="A309:E309"/>
-    <mergeCell ref="A314:E314"/>
-    <mergeCell ref="A322:E322"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A342:E342"/>
-    <mergeCell ref="A351:E351"/>
-    <mergeCell ref="A360:E360"/>
-    <mergeCell ref="A368:E368"/>
-    <mergeCell ref="A377:E377"/>
-    <mergeCell ref="A386:E386"/>
-    <mergeCell ref="A396:E396"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="A232:E232"/>
-    <mergeCell ref="A237:E237"/>
-    <mergeCell ref="A244:E244"/>
-    <mergeCell ref="A254:E254"/>
-    <mergeCell ref="A264:E264"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A292:E292"/>
+  <mergeCells count="252">
+    <mergeCell ref="A2244:E2244"/>
+    <mergeCell ref="A2253:E2253"/>
+    <mergeCell ref="A2262:E2262"/>
+    <mergeCell ref="A2271:E2271"/>
+    <mergeCell ref="A2278:E2278"/>
+    <mergeCell ref="A2288:E2288"/>
+    <mergeCell ref="A2167:E2167"/>
+    <mergeCell ref="A2174:E2174"/>
+    <mergeCell ref="A2181:E2181"/>
+    <mergeCell ref="A2192:E2192"/>
+    <mergeCell ref="A2201:E2201"/>
+    <mergeCell ref="A2208:E2208"/>
+    <mergeCell ref="A2217:E2217"/>
+    <mergeCell ref="A2226:E2226"/>
+    <mergeCell ref="A2235:E2235"/>
+    <mergeCell ref="A2078:E2078"/>
+    <mergeCell ref="A2088:E2088"/>
+    <mergeCell ref="A2099:E2099"/>
+    <mergeCell ref="A2109:E2109"/>
+    <mergeCell ref="A2119:E2119"/>
+    <mergeCell ref="A2129:E2129"/>
+    <mergeCell ref="A2139:E2139"/>
+    <mergeCell ref="A2149:E2149"/>
+    <mergeCell ref="A2158:E2158"/>
+    <mergeCell ref="A1985:E1985"/>
+    <mergeCell ref="A1994:E1994"/>
+    <mergeCell ref="A2006:E2006"/>
+    <mergeCell ref="A2016:E2016"/>
+    <mergeCell ref="A2024:E2024"/>
+    <mergeCell ref="A2037:E2037"/>
+    <mergeCell ref="A2046:E2046"/>
+    <mergeCell ref="A2057:E2057"/>
+    <mergeCell ref="A2067:E2067"/>
+    <mergeCell ref="A1730:E1730"/>
+    <mergeCell ref="A1273:E1273"/>
+    <mergeCell ref="A1281:E1281"/>
+    <mergeCell ref="A1289:E1289"/>
+    <mergeCell ref="A1297:E1297"/>
+    <mergeCell ref="A1112:E1112"/>
+    <mergeCell ref="A1121:E1121"/>
+    <mergeCell ref="A1099:E1099"/>
+    <mergeCell ref="A1230:E1230"/>
+    <mergeCell ref="A1239:E1239"/>
+    <mergeCell ref="A1249:E1249"/>
+    <mergeCell ref="A1257:E1257"/>
+    <mergeCell ref="A1265:E1265"/>
+    <mergeCell ref="A1552:E1552"/>
+    <mergeCell ref="A1562:E1562"/>
+    <mergeCell ref="A1571:E1571"/>
+    <mergeCell ref="A1581:E1581"/>
+    <mergeCell ref="A1593:E1593"/>
+    <mergeCell ref="A1349:E1349"/>
+    <mergeCell ref="A1358:E1358"/>
+    <mergeCell ref="A1368:E1368"/>
+    <mergeCell ref="A1377:E1377"/>
+    <mergeCell ref="A1386:E1386"/>
+    <mergeCell ref="A1059:E1059"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1075:E1075"/>
+    <mergeCell ref="A1083:E1083"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1532:E1532"/>
+    <mergeCell ref="A1542:E1542"/>
+    <mergeCell ref="A1213:E1213"/>
+    <mergeCell ref="A1218:E1218"/>
+    <mergeCell ref="A1225:E1225"/>
+    <mergeCell ref="A1134:E1134"/>
+    <mergeCell ref="A1143:E1143"/>
+    <mergeCell ref="A1161:E1161"/>
+    <mergeCell ref="A1169:E1169"/>
+    <mergeCell ref="A1182:E1182"/>
+    <mergeCell ref="A1189:E1189"/>
+    <mergeCell ref="A1198:E1198"/>
+    <mergeCell ref="A1206:E1206"/>
+    <mergeCell ref="A1153:E1153"/>
+    <mergeCell ref="A1341:E1341"/>
+    <mergeCell ref="A1305:E1305"/>
+    <mergeCell ref="A1313:E1313"/>
+    <mergeCell ref="A1321:E1321"/>
+    <mergeCell ref="A1328:E1328"/>
+    <mergeCell ref="A1013:E1013"/>
+    <mergeCell ref="A1022:E1022"/>
+    <mergeCell ref="A1033:E1033"/>
+    <mergeCell ref="A1042:E1042"/>
+    <mergeCell ref="A1051:E1051"/>
+    <mergeCell ref="A1008:E1008"/>
+    <mergeCell ref="A907:E907"/>
+    <mergeCell ref="A916:E916"/>
+    <mergeCell ref="A928:E928"/>
+    <mergeCell ref="A938:E938"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A962:E962"/>
+    <mergeCell ref="A898:E898"/>
+    <mergeCell ref="A970:E970"/>
+    <mergeCell ref="A980:E980"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A997:E997"/>
+    <mergeCell ref="A848:E848"/>
+    <mergeCell ref="A857:E857"/>
+    <mergeCell ref="A866:E866"/>
+    <mergeCell ref="A877:E877"/>
+    <mergeCell ref="A889:E889"/>
     <mergeCell ref="A804:E804"/>
     <mergeCell ref="A811:E811"/>
     <mergeCell ref="A819:E819"/>
@@ -25495,76 +28935,132 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A138:E138"/>
     <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A898:E898"/>
-    <mergeCell ref="A970:E970"/>
-    <mergeCell ref="A980:E980"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A997:E997"/>
-    <mergeCell ref="A848:E848"/>
-    <mergeCell ref="A857:E857"/>
-    <mergeCell ref="A866:E866"/>
-    <mergeCell ref="A877:E877"/>
-    <mergeCell ref="A889:E889"/>
-    <mergeCell ref="A1013:E1013"/>
-    <mergeCell ref="A1022:E1022"/>
-    <mergeCell ref="A1033:E1033"/>
-    <mergeCell ref="A1042:E1042"/>
-    <mergeCell ref="A1051:E1051"/>
-    <mergeCell ref="A1008:E1008"/>
-    <mergeCell ref="A907:E907"/>
-    <mergeCell ref="A916:E916"/>
-    <mergeCell ref="A928:E928"/>
-    <mergeCell ref="A938:E938"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A962:E962"/>
-    <mergeCell ref="A1059:E1059"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1075:E1075"/>
-    <mergeCell ref="A1083:E1083"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1532:E1532"/>
-    <mergeCell ref="A1542:E1542"/>
-    <mergeCell ref="A1213:E1213"/>
-    <mergeCell ref="A1218:E1218"/>
-    <mergeCell ref="A1225:E1225"/>
-    <mergeCell ref="A1134:E1134"/>
-    <mergeCell ref="A1143:E1143"/>
-    <mergeCell ref="A1161:E1161"/>
-    <mergeCell ref="A1169:E1169"/>
-    <mergeCell ref="A1182:E1182"/>
-    <mergeCell ref="A1189:E1189"/>
-    <mergeCell ref="A1198:E1198"/>
-    <mergeCell ref="A1206:E1206"/>
-    <mergeCell ref="A1153:E1153"/>
-    <mergeCell ref="A1341:E1341"/>
-    <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1313:E1313"/>
-    <mergeCell ref="A1321:E1321"/>
-    <mergeCell ref="A1328:E1328"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A232:E232"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A254:E254"/>
+    <mergeCell ref="A264:E264"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A292:E292"/>
+    <mergeCell ref="A403:E403"/>
+    <mergeCell ref="A309:E309"/>
+    <mergeCell ref="A314:E314"/>
+    <mergeCell ref="A322:E322"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A342:E342"/>
+    <mergeCell ref="A351:E351"/>
+    <mergeCell ref="A360:E360"/>
+    <mergeCell ref="A368:E368"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A396:E396"/>
+    <mergeCell ref="A507:E507"/>
+    <mergeCell ref="A414:E414"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A434:E434"/>
+    <mergeCell ref="A442:E442"/>
+    <mergeCell ref="A450:E450"/>
+    <mergeCell ref="A458:E458"/>
+    <mergeCell ref="A467:E467"/>
+    <mergeCell ref="A475:E475"/>
+    <mergeCell ref="A483:E483"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A499:E499"/>
+    <mergeCell ref="A605:E605"/>
+    <mergeCell ref="A515:E515"/>
+    <mergeCell ref="A526:E526"/>
+    <mergeCell ref="A533:E533"/>
+    <mergeCell ref="A541:E541"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A557:E557"/>
+    <mergeCell ref="A565:E565"/>
+    <mergeCell ref="A573:E573"/>
+    <mergeCell ref="A581:E581"/>
+    <mergeCell ref="A589:E589"/>
+    <mergeCell ref="A598:E598"/>
+    <mergeCell ref="A714:E714"/>
+    <mergeCell ref="A616:E616"/>
+    <mergeCell ref="A624:E624"/>
+    <mergeCell ref="A633:E633"/>
+    <mergeCell ref="A642:E642"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A658:E658"/>
+    <mergeCell ref="A674:E674"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:E686"/>
+    <mergeCell ref="A694:E694"/>
+    <mergeCell ref="A704:E704"/>
+    <mergeCell ref="A776:E776"/>
+    <mergeCell ref="A786:E786"/>
+    <mergeCell ref="A793:E793"/>
+    <mergeCell ref="A724:E724"/>
+    <mergeCell ref="A735:E735"/>
+    <mergeCell ref="A744:E744"/>
+    <mergeCell ref="A753:E753"/>
+    <mergeCell ref="A762:E762"/>
+    <mergeCell ref="A770:E770"/>
+    <mergeCell ref="A1395:E1395"/>
+    <mergeCell ref="A1402:E1402"/>
+    <mergeCell ref="A1413:E1413"/>
+    <mergeCell ref="A1422:E1422"/>
+    <mergeCell ref="A1430:E1430"/>
+    <mergeCell ref="A1440:E1440"/>
+    <mergeCell ref="A1451:E1451"/>
+    <mergeCell ref="A1460:E1460"/>
+    <mergeCell ref="A1468:E1468"/>
+    <mergeCell ref="A1476:E1476"/>
+    <mergeCell ref="A1487:E1487"/>
+    <mergeCell ref="A1495:E1495"/>
+    <mergeCell ref="A1507:E1507"/>
+    <mergeCell ref="A1523:E1523"/>
+    <mergeCell ref="A1705:E1705"/>
+    <mergeCell ref="A1715:E1715"/>
+    <mergeCell ref="A1604:E1604"/>
+    <mergeCell ref="A1615:E1615"/>
+    <mergeCell ref="A1626:E1626"/>
+    <mergeCell ref="A1637:E1637"/>
+    <mergeCell ref="A1648:E1648"/>
+    <mergeCell ref="A1658:E1658"/>
+    <mergeCell ref="A1669:E1669"/>
+    <mergeCell ref="A1682:E1682"/>
+    <mergeCell ref="A1694:E1694"/>
+    <mergeCell ref="A1739:E1739"/>
+    <mergeCell ref="A1749:E1749"/>
+    <mergeCell ref="A1759:E1759"/>
+    <mergeCell ref="A1768:E1768"/>
+    <mergeCell ref="A1781:E1781"/>
+    <mergeCell ref="A1790:E1790"/>
+    <mergeCell ref="A1798:E1798"/>
+    <mergeCell ref="A1808:E1808"/>
+    <mergeCell ref="A1817:E1817"/>
+    <mergeCell ref="A1925:E1925"/>
+    <mergeCell ref="A1932:E1932"/>
+    <mergeCell ref="A1939:E1939"/>
+    <mergeCell ref="A1946:E1946"/>
+    <mergeCell ref="A1956:E1956"/>
+    <mergeCell ref="A1965:E1965"/>
+    <mergeCell ref="A1978:E1978"/>
+    <mergeCell ref="A1911:E1911"/>
+    <mergeCell ref="A1826:E1826"/>
+    <mergeCell ref="A1835:E1835"/>
+    <mergeCell ref="A1844:E1844"/>
+    <mergeCell ref="A1853:E1853"/>
+    <mergeCell ref="A1869:E1869"/>
+    <mergeCell ref="A1878:E1878"/>
+    <mergeCell ref="A1887:E1887"/>
+    <mergeCell ref="A1897:E1897"/>
+    <mergeCell ref="A1904:E1904"/>
     <mergeCell ref="A1918:E1918"/>
-    <mergeCell ref="A1730:E1730"/>
-    <mergeCell ref="A1273:E1273"/>
-    <mergeCell ref="A1281:E1281"/>
-    <mergeCell ref="A1289:E1289"/>
-    <mergeCell ref="A1297:E1297"/>
-    <mergeCell ref="A1112:E1112"/>
-    <mergeCell ref="A1121:E1121"/>
-    <mergeCell ref="A1099:E1099"/>
-    <mergeCell ref="A1230:E1230"/>
-    <mergeCell ref="A1239:E1239"/>
-    <mergeCell ref="A1249:E1249"/>
-    <mergeCell ref="A1257:E1257"/>
-    <mergeCell ref="A1265:E1265"/>
-    <mergeCell ref="A1552:E1552"/>
-    <mergeCell ref="A1562:E1562"/>
-    <mergeCell ref="A1571:E1571"/>
-    <mergeCell ref="A1581:E1581"/>
-    <mergeCell ref="A1593:E1593"/>
-    <mergeCell ref="A1349:E1349"/>
-    <mergeCell ref="A1358:E1358"/>
-    <mergeCell ref="A1368:E1368"/>
-    <mergeCell ref="A1377:E1377"/>
-    <mergeCell ref="A1386:E1386"/>
   </mergeCells>
   <pageMargins left="0.81" right="0.7" top="0.31" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
